--- a/data/人物关系表.xlsx
+++ b/data/人物关系表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/bert_doc_binary_classification/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/people_relation_extract/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED880CB-8DD0-1C42-8B91-BFE8E9ADF9BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46A29B3-1F96-C841-AEC7-6B2B665FA24F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7166" uniqueCount="3679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8426" uniqueCount="4145">
   <si>
     <t>人物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13342,12 +13342,1754 @@
   <si>
     <t>程远昭</t>
   </si>
+  <si>
+    <t>这个看来并不高深的游戏却让秦天和的爸爸秦先生大伤脑筋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦天和</t>
+  </si>
+  <si>
+    <t>秦先生</t>
+  </si>
+  <si>
+    <t>谢才萍的丈夫文斌利用其兄文强的影响，公开找渝中区公安分局原局长彭长健，要他关照老婆的“经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢才萍</t>
+  </si>
+  <si>
+    <t>文斌</t>
+  </si>
+  <si>
+    <t>文强</t>
+  </si>
+  <si>
+    <t>说到早前传出与家族拥百亿财产的富豪马清伟和薛芷伦大儿子马桂烽（Justin）分手，她说：“有这个传闻的时候我经纪人已经代为回答，这是两个人的事不会回应，今天也是一样，多谢大家关心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马清伟</t>
+  </si>
+  <si>
+    <t>薛芷伦</t>
+  </si>
+  <si>
+    <t>马桂烽</t>
+  </si>
+  <si>
+    <t>那时，老师崔新琴如此评价黄晓明：“没有灵性，就是一块漂亮的木头。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔新琴</t>
+  </si>
+  <si>
+    <t>黄晓明</t>
+  </si>
+  <si>
+    <t>6月25日，澎湃新闻（www.thepaper.cn）从李伦将军亲友处获悉，开国上将李克农之子、解放军原总后勤部副部长李伦中将于2019年6月25日凌晨在北京逝世，享年92岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李克农</t>
+  </si>
+  <si>
+    <t>李伦</t>
+  </si>
+  <si>
+    <t>利孝和的妻子是陆雁群，尊称「利孝和夫人」，是现任无线非执行董事，香港著名慈善家及利希慎家族成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利孝和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆雁群</t>
+  </si>
+  <si>
+    <t>张国恒的妻子邹茂英带着小女儿踏上了追凶之路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张国恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹茂英</t>
+  </si>
+  <si>
+    <t>家庭出生演艺世家的张菲，父亲为台湾综艺大哥张少怀，叔叔是费玉清，姑姑是费贞绫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张菲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张少怀</t>
+  </si>
+  <si>
+    <t>费玉清</t>
+  </si>
+  <si>
+    <t>费贞绫</t>
+  </si>
+  <si>
+    <t>众所周知，张末是张艺谋和前妻肖华的独生女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张末</t>
+  </si>
+  <si>
+    <t>张末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张艺谋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖华</t>
+  </si>
+  <si>
+    <t>而最受关注的要数林志玲会携新婚丈夫黑泽良平首次合体亮相晚会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林志玲</t>
+  </si>
+  <si>
+    <t>黑泽良平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台当局“驻日代表”谢长廷之子谢维洲日前被曝“自杀住院”，谢长廷发声辟谣称“假消息”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢长廷</t>
+  </si>
+  <si>
+    <t>谢长廷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢维洲</t>
+  </si>
+  <si>
+    <t>令狐冲心道：“说这话的，自必定林师弟的父亲，是福威镖局总镖师林震南。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令狐冲</t>
+  </si>
+  <si>
+    <t>林师弟</t>
+  </si>
+  <si>
+    <t>林震南</t>
+  </si>
+  <si>
+    <t>田伯光笑道：“田某是声名狼藉的采花大盗，令狐兄却是武林中第一正人君子岳先生的得意弟子，自不能和我同流合污。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田伯光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令狐兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳先生</t>
+  </si>
+  <si>
+    <t>岳先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁连荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁连荣气得眼中如要喷出火来，华山大弟子令狐冲在衡山城中胡闹的事，他是听人说过的，当即骂道：“我道是谁，原来是在这衡山城中嫖妓宿娼的小子！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据了解，谢维洲毕业于高雄应用科技大学应用外语系，服兵役后赴美留学，回到台湾后担任“立委”管碧玲、姚文智助理，及当时任台北市议员庄瑞雄的服务处主任。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢维洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管碧玲</t>
+  </si>
+  <si>
+    <t>姚文智</t>
+  </si>
+  <si>
+    <t>庄瑞雄</t>
+  </si>
+  <si>
+    <t>彼时，张国恒的大女儿张阿丽11岁，小女儿张玲丽9岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张阿丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张玲丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪光南对学生梁宁说“我们要用自主研发的方舟CPU+Linux操作系统，替代微软与英特尔联盟的核心框架。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪光南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011年本·拉登被美国海豹突击6队击毙，8年后，他的儿子哈姆扎·本·拉登也被传出已死亡的消息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈姆扎·本·拉登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本·拉登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天，宋茜与日本男星木村拓哉的女儿木村光希一起出席某时尚活动，两位都是目前时尚圈炙手可热的明星，站在一起自然成为了话题的讨论中心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋茜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木村拓哉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木村光希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月28日，云南官方通报孙小果案件进展情况，其母亲孙鹤予的相关信息被披露。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙小果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙鹤予</t>
+  </si>
+  <si>
+    <t>1982年，徐克的妻子施南生加入新艺城，成为行政总监。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施南生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厄庇墨透斯的妻子是潘多拉，二人育有一女皮拉，而皮拉后来嫁与杜卡利翁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厄庇墨透斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘多拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜卡利翁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前段时间，陈坤曾经在社交网站上晒出她16岁儿子陈尊佑的照片，瞬间引起了全网的热议，话题度也非常高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈尊佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈发科的爷爷是陈式太极拳一代宗师陈小旺，父亲是陈照旭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈发科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈小旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈照旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行对撞实验钱思进，中国著名原子核物理学家钱三强与何泽慧的小儿子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱思进</t>
+  </si>
+  <si>
+    <t>村民们留意到，只有耿建平20岁出头的小儿子耿威虎在操持丧事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿建平</t>
+  </si>
+  <si>
+    <t>耿建平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿威虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月25日凌晨，应采儿在个人社交账号晒出了儿子Jasper暑假与海豚“共舞”的照片。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应采儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>余沧海那不成材的小儿子余人彦瞎了眼睛，向小师妹动手动脚，口出调笑之言，那林公子居然伸手来抱打不平……”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余沧海</t>
+  </si>
+  <si>
+    <t>余沧海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余人彦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林公子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗馥莉说，创业三十多年来，父亲宗庆后一直坚守实业，心无旁鹜地办企业，从来不受任何短期效益、暴利行业所诱惑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗馥莉</t>
+  </si>
+  <si>
+    <t>宗庆后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“他一整天都没吃饭”，常燕斌的朋友白兵（化名）告诉新京报记者，第二天中午，自己去帮忙时，常燕斌还在用抽水机清理地面的积水。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常燕斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿家庄原村支书石丁山称，他因为没有按照耿建平的要求推举其为市人大代表，在2007年3月遭到耿建平等人殴打。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石丁山</t>
+  </si>
+  <si>
+    <t>叶德利的妻子是何鸿燊胞妹何婉婉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶德利</t>
+  </si>
+  <si>
+    <t>何鸿燊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何婉婉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大S的婆婆张兰也称不认识汪小菲，但听到吕婉柔劈腿的说法，则怒斥：“胡扯！”随即挂断电话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪小菲</t>
+  </si>
+  <si>
+    <t>吕婉柔</t>
+  </si>
+  <si>
+    <t>鲁迅祖父周福清科场舞弊案发后，周伯宜被革去秀才身份，十分伤感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周福清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周伯宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为过度痴迷摄影，罗红的前妻王蓉旻难以接受，选择了离婚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王蓉旻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像李连杰的身份，身边的朋友就是些马云、向华强、陈岚这样身份的成功人士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向华强</t>
+  </si>
+  <si>
+    <t>陈岚</t>
+  </si>
+  <si>
+    <t>卫斯理一天突然收到移居法国南部的岳父白老大的电报，白老大声称「有要事商榷」，并希望卫斯理能与其妻白素到访。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫斯理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白老大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左太北出生于1940年5月27日，她的父亲是八路军高级将领、曾任八路军参谋长等职的左权将军，她的母亲是彭德怀夫人浦安修在北师大女附中的同学刘志兰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左太北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘志兰</t>
+  </si>
+  <si>
+    <t>浦安修</t>
+  </si>
+  <si>
+    <t>左太北出生于1940年5月28日，她的父亲是八路军高级将领、曾任八路军参谋长等职的左权将军，她的母亲是彭德怀夫人浦安修在北师大女附中的同学刘志兰。</t>
+  </si>
+  <si>
+    <t>左太北出生于1940年5月29日，她的父亲是八路军高级将领、曾任八路军参谋长等职的左权将军，她的母亲是彭德怀夫人浦安修在北师大女附中的同学刘志兰。</t>
+  </si>
+  <si>
+    <t>左太北出生于1940年5月30日，她的父亲是八路军高级将领、曾任八路军参谋长等职的左权将军，她的母亲是彭德怀夫人浦安修在北师大女附中的同学刘志兰。</t>
+  </si>
+  <si>
+    <t>左太北出生于1940年5月31日，她的父亲是八路军高级将领、曾任八路军参谋长等职的左权将军，她的母亲是彭德怀夫人浦安修在北师大女附中的同学刘志兰。</t>
+  </si>
+  <si>
+    <t>左太北出生于1940年5月32日，她的父亲是八路军高级将领、曾任八路军参谋长等职的左权将军，她的母亲是彭德怀夫人浦安修在北师大女附中的同学刘志兰。</t>
+  </si>
+  <si>
+    <t>左太北出生于1940年5月33日，她的父亲是八路军高级将领、曾任八路军参谋长等职的左权将军，她的母亲是彭德怀夫人浦安修在北师大女附中的同学刘志兰。</t>
+  </si>
+  <si>
+    <t>左太北出生于1940年5月34日，她的父亲是八路军高级将领、曾任八路军参谋长等职的左权将军，她的母亲是彭德怀夫人浦安修在北师大女附中的同学刘志兰。</t>
+  </si>
+  <si>
+    <t>左太北出生于1940年5月35日，她的父亲是八路军高级将领、曾任八路军参谋长等职的左权将军，她的母亲是彭德怀夫人浦安修在北师大女附中的同学刘志兰。</t>
+  </si>
+  <si>
+    <t>左太北出生于1940年5月36日，她的父亲是八路军高级将领、曾任八路军参谋长等职的左权将军，她的母亲是彭德怀夫人浦安修在北师大女附中的同学刘志兰。</t>
+  </si>
+  <si>
+    <t>曹操，丁夫人的丈夫，东汉政治家、文学家、军事家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>他的老爹张翠山是武林第一高手张三丰最喜爱的弟子，妥妥的武二代；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张翠山</t>
+  </si>
+  <si>
+    <t>张三丰</t>
+  </si>
+  <si>
+    <t>在蓝山集团工作逾20年的老员工张义（化名）告诉新京报记者，2016年11月蓝山集团在位30多年的老厂长许兰山过世，随后从2017年开始，公司发给储户的储蓄存单陆续无法提取了，到当年3月彻底停了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张义</t>
+  </si>
+  <si>
+    <t>许兰山</t>
+  </si>
+  <si>
+    <t>罗玉良口中的“亲戚”正是其儿子罗雅心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗玉良</t>
+  </si>
+  <si>
+    <t>罗雅心</t>
+  </si>
+  <si>
+    <t>日前，蒋劲夫有了新女友的消息一度登上了热搜宝座，因为他的前任中浦悠花曾经差点让他回不了国，蒋劲夫这次新交的女友自然就成了很多吃瓜群众着重关注的对象，而蒋劲夫也在与朋友的聊天中称自己这次要“认认真真谈恋爱”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋劲夫</t>
+  </si>
+  <si>
+    <t>中浦悠花</t>
+  </si>
+  <si>
+    <t>8月16日，周安员姐夫王先生告诉封面新闻，事发过后，学生周某及家长至今从未露面，哪怕很多媒体报道了此事，也未见到学生家长站出来回应任何说法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周安员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周某</t>
+  </si>
+  <si>
+    <t>令狐冲道：“这位是我师父，华山派掌门岳先生……”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令狐冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又过了一盏茶功夫，七弟子陶钧、八弟子英白罗、岳不群之女岳灵珊、以及方入门的林平之一同到来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶钧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英白罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳不群</t>
+  </si>
+  <si>
+    <t>岳不群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳灵珊</t>
+  </si>
+  <si>
+    <t>林平之</t>
+  </si>
+  <si>
+    <t>而其实张子健的老婆是设计师方芸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张子健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芸</t>
+  </si>
+  <si>
+    <t>香港工联会会长吴秋北、民建联主席李慧琼、经民连立法会议员梁美芬等出席座谈会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴秋北</t>
+  </si>
+  <si>
+    <t>李慧琼</t>
+  </si>
+  <si>
+    <t>梁美芬</t>
+  </si>
+  <si>
+    <t>日军全面侵华之初，王耀武是第51师师长，他率部参加了淞沪会战，战后他的第51师和第58师合编为第74军，俞济时为第一任军长，王耀武是第二任军长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞济时</t>
+  </si>
+  <si>
+    <t>李翠琴的老伴李丁刚告诉记者，家里五口人，每年可以领到1000元的分红。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李翠琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丁刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王三运收受中国华信能源有限公司董事长叶简明贿赂事项牵涉胡怀邦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王三运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡怀邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李在德，著名抗日女烈士金成刚之女，1917年12月29日（农历）出生于朝鲜平安南道的一个贫苦农民家庭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李在德</t>
+  </si>
+  <si>
+    <t>金成刚</t>
+  </si>
+  <si>
+    <t>而说起杜淳的情史，算是比较丰富了，众多前女友中，张嘉倪算是大家比较熟悉的一位，据说两人相恋七年，最后因杜淳恋上他人而分手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜淳</t>
+  </si>
+  <si>
+    <t>英国大学、科研和创新大臣乔·约翰逊，也即英国首相约翰逊的弟弟，今天递交辞呈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔·约翰逊</t>
+  </si>
+  <si>
+    <t>李飞和马雯找到伍仔，问出林水伯儿子仔仔的死亡真相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李飞</t>
+  </si>
+  <si>
+    <t>马雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林水伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仔仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一时期，令计划结识了自己后来的妻子谷丽萍，与令计划结婚后，谷从政法系统调到中央团校工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令计划</t>
+  </si>
+  <si>
+    <t>谷丽萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生平文革时打倒周信芳的手稿周信芳六岁随父周慰堂(演青衣，艺名金琴仙)旅居杭州，从陈长兴练功学戏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周慰堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈长兴</t>
+  </si>
+  <si>
+    <t>简介丁英，李双江前妻，是舞蹈演员。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁英</t>
+  </si>
+  <si>
+    <t>李双江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就在昨天晚上（18日），吉林省长景俊海在长春会见厦门台商投资协会副会长赖如松率领的两岸企业家代表团一行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景俊海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖如松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月1日下午，王秀芝的儿子常燕斌让姐姐代为照顾母亲，自己回去收拾被黑水洗劫过的超市。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王秀芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如说戚薇的女儿lucky就被外界称为戚薇的“复制粘贴”，生了个女儿好像生了个小时候的自己，连动作神态都如出一辙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚薇</t>
+  </si>
+  <si>
+    <t>lucky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李砚秀-家世父李万春，母李淑媛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李砚秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李万春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李淑媛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田荫亭之子田连章，而论及全专全精者，则首推田连澍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田荫亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田连章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田连澍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近年来，中科大潘建伟、朱晓波、彭承志等学者在超导量子计算研究方面取得了一系列重要进展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘建伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晓波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭承志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢学朗，字葆璋，号镜如，女作家冰心父亲，长乐县人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢学朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关问题被立案后，一些地方公安机关曾到北京与远程集团法定代表人韩春善、集团财务总监刘宏岩等人了解情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩春善</t>
+  </si>
+  <si>
+    <t>刘宏岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张艺谋长子张壹男今年才17岁，在父亲的影响下高中时期就迷上电影，并且进入电影《影》剧组，学习电影制作，今年2月份，张壹男和同学联合执导的微电影《那边》斩获多项大奖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张壹男</t>
+  </si>
+  <si>
+    <t>9月6日，曾志伟儿子曾国祥迎娶拍拖六年的女友王敏奕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾志伟</t>
+  </si>
+  <si>
+    <t>曾国祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敏奕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011年，关成善伙同女友彭某，请托王保安打招呼，从而获得国家财政补贴3316万元；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关成善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全真教掌教马钰会传全真内功给郭靖，也是因为他是江南七怪的徒弟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马钰</t>
+  </si>
+  <si>
+    <t>郭靖</t>
+  </si>
+  <si>
+    <t>郭靖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南七怪</t>
+  </si>
+  <si>
+    <t>孙中山先生将其与明朝开国皇帝朱元璋并列，称他的成就不落其下，世人对洪秀全的种种看法，大多是以成功来论豪杰罢了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱元璋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪秀全</t>
+  </si>
+  <si>
+    <t>其长子王虹艺回忆，父亲王国栋一生正直低调、光明磊落、刚正不阿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王虹艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴志康和女儿戴陌草将所持42%股权折价出售给了东方资产管理公司，彻底退出了上海证大，也基本退出了地产业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴志康</t>
+  </si>
+  <si>
+    <t>戴陌草</t>
+  </si>
+  <si>
+    <t>俄拉日和7岁的妹妹俄石机、9岁的弟弟俄吉几一起生活在父母留下的一间土坯房里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄拉日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄石机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄吉几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄拉日和7岁的妹妹俄石机、10岁的弟弟俄吉几一起生活在父母留下的一间土坯房里。</t>
+  </si>
+  <si>
+    <t>俄拉日和7岁的妹妹俄石机、11岁的弟弟俄吉几一起生活在父母留下的一间土坯房里。</t>
+  </si>
+  <si>
+    <t>回顾谢长廷与谢维洲的父子关系，谢维洲是在两岁时被时任台北市议员的谢长廷收养为养子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据民警向记者介绍，李伟、李桐、李建三人是亲兄弟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李桐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月10日，小S老公许雅钧的花边新闻大家都有所耳闻，这次不仅仅是流连夜店那么简单，送辣妹回家，还转账1万做慈善，而小S这边，依旧以“好客”为借口，为丈夫洗白，带着全家旅行，似乎逃避就能解决一切。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许雅钧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中时电子报》在专访韩国瑜妻子李佳芬时，她谈到近日丈夫韩国瑜在压力之下日益消瘦，不舍地眼光泛泪，并说“如果可以重选，对于从政之路我会说NO（不）！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李佳芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年，李中清（右）与其父李政道合影于李政道90岁生日当天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李中清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李政道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900年，秋瑾的丈夫王廷钧靠捐资当了户部主事，秋瑾跟随丈夫入京。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王廷钧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及后青城派掌门人余沧海为图夺取剑谱，不惜将林震南一家灭门，但林震南之子林平之被华山派掌门岳不群救回成了唯一幸存者并收为旗下弟子，此外林震南死前请令狐冲转告遗言，使林平之得以寻回剑谱，但剑谱却辗转落入岳不群手中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林震南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平饭店是上海外滩地标性建筑，曾接待过美国前总统克林顿、喜剧大师卓别林等美国名人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克林顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓别林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈珂的弟弟陈岩被抓，指认李飞涉毒并设局杀害宋杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈珂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈岩</t>
+  </si>
+  <si>
+    <t>李飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋杨</t>
+  </si>
+  <si>
+    <t>《大公报》报道，台湾皇冠出版社4日发出声明证实，皇冠集团创办人、作家琼瑶丈夫平鑫涛5月23日去世，享寿92岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平鑫涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1982年，郭桂芳的父亲郭建民仗义执言，揭开了当年肥乡选举的黑幕，此后郭建民被开除党籍、撤销职务、停发工资；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭桂芳</t>
+  </si>
+  <si>
+    <t>郭建民</t>
+  </si>
+  <si>
+    <t>长安街知事注意到，“农民将军”甘祖昌的妻子龚全珍在列，她曾获全国道德模范、“感动中国年度十大人物”等称号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘祖昌</t>
+  </si>
+  <si>
+    <t>龚全珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年中兴事件之后，倪光南的学生梁宁在《一段关于国产芯片和操作系统的往事》中慨叹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那黑衣少女便是秦红棉的女儿木婉清。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦红棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木婉清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已为人母的宋月芦是于木子的大学同学，她的一番话说进了于木子心里，“只要你没计划当‘丁克’，晚生不如早生，趁年轻风险小，孩子也更健康。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋月芦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于木子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾国祥的老爸曾志伟更是乐开了花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾志伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近日，本山传媒被发现已更名为“辽宁民间艺术团”，并继续由本山控股有限公司、赵本山及其夫人马立娟三方持股。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马立娟</t>
+  </si>
+  <si>
+    <t>李伦原名李润修，1927年10月30日（农历十月初六），出生于芜湖市吉和街马家巷1号，是李克农与赵瑛夫妇最小的儿子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李润修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李克农</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵瑛</t>
+  </si>
+  <si>
+    <t>李伦原名李润修，1927年10月30日（农历十月初六），出生于芜湖市吉和街马家巷2号，是李克农与赵瑛夫妇最小的儿子。</t>
+  </si>
+  <si>
+    <t>李伦原名李润修，1927年10月30日（农历十月初六），出生于芜湖市吉和街马家巷3号，是李克农与赵瑛夫妇最小的儿子。</t>
+  </si>
+  <si>
+    <t>李伦原名李润修，1927年10月30日（农历十月初六），出生于芜湖市吉和街马家巷4号，是李克农与赵瑛夫妇最小的儿子。</t>
+  </si>
+  <si>
+    <t>李伦原名李润修，1927年10月30日（农历十月初六），出生于芜湖市吉和街马家巷5号，是李克农与赵瑛夫妇最小的儿子。</t>
+  </si>
+  <si>
+    <t>李伦原名李润修，1927年10月30日（农历十月初六），出生于芜湖市吉和街马家巷6号，是李克农与赵瑛夫妇最小的儿子。</t>
+  </si>
+  <si>
+    <t>穆平国承袭父亲穆寿的宜都王爵位，娶城阳长公主为妻，拜驸马都尉、侍中、中书监，为太子拓跋晃四辅之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆平国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆寿</t>
+  </si>
+  <si>
+    <t>对于叶汉的提议，何鸿燊当然很有兴趣，但觉得自己财力不足，于是找上了皇仁书院同窗霍英东，大家合伙参与竞投，与傅、高两家的泰兴公司一较高下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍英东</t>
+  </si>
+  <si>
+    <t>萨马兰奇三世是已故国际奥委会主席萨马兰奇之孙，现任萨马兰奇体育发展基金会理事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨马兰奇三世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨马兰奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近日，国民党前后两任党主席洪秀柱、吴敦义关于如何论述两岸关系，隔空争执。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪秀柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴敦义</t>
+  </si>
+  <si>
+    <t>黄昆是家中最小的孩子，他的大姐名黄宣，大哥黄燕，二哥黄宛（中国著名心脏内科专家），姐弟四人年龄依</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄昆</t>
+  </si>
+  <si>
+    <t>黄宣</t>
+  </si>
+  <si>
+    <t>黄燕</t>
+  </si>
+  <si>
+    <t>黄宛</t>
+  </si>
+  <si>
+    <t>余沧海伸手将一名弟子翻过身来，见是弟子申人俊，另一个不必翻身，从他后脑已可见到一部胡子，自是与申人俊焦孟不离的吉人通了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申人俊</t>
+  </si>
+  <si>
+    <t>吉人通</t>
+  </si>
+  <si>
+    <t>成龙</t>
+  </si>
+  <si>
+    <r>
+      <t>7月27日，有网友晒出成龙妻子林凤娇现身山西大同，此次林凤娇到山西是为了给成龙第五届电影周捧场，真是夫唱妇随。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林凤娇</t>
+  </si>
+  <si>
+    <t>江宏杰通过微博晒和老婆福原爱的恩爱搞怪恩爱合影，并配文称：“老婆大人你说得对！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江宏杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福原爱</t>
+  </si>
+  <si>
+    <t>吕惠如任南京女子师范学校校长，吕美荪任奉天女子师范学校校长，吕碧城任天津女子师范学校校长，吕坤秀任厦门女子师范学校教师，姐妹四人，同事教育工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕惠如</t>
+  </si>
+  <si>
+    <t>吕美荪</t>
+  </si>
+  <si>
+    <t>吕碧城</t>
+  </si>
+  <si>
+    <t>吕坤秀</t>
+  </si>
+  <si>
+    <t>中华人民共和国第五代最高领导人习近平夫人，中国当代著名歌唱家彭丽媛也是郓城人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭丽媛</t>
+  </si>
+  <si>
+    <t>澄庐建于20世纪20年代，是盛宣怀四子、汉冶萍公司总经理盛恩颐的别墅，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛宣怀</t>
+  </si>
+  <si>
+    <t>盛恩颐</t>
+  </si>
+  <si>
+    <t>从这举动中不难看出，高云翔这是在保护妻子董璇，让她不受到自己官司的影响，毕竟现在高云翔处于保释的状态无法赚钱，即便有一定继续但也是需要靠着董璇资助。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高云翔</t>
+  </si>
+  <si>
+    <t>董璇</t>
+  </si>
+  <si>
+    <t>北燕灭亡后冯氏逃奔高句丽，末帝冯弘遣其子冯业渡海投奔刘宋王朝，后来定居于广州新会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯弘</t>
+  </si>
+  <si>
+    <t>冯业</t>
+  </si>
+  <si>
+    <t>李维民让陈珂寻找包星前女友杨柳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李维民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包星</t>
+  </si>
+  <si>
+    <t>杨柳</t>
+  </si>
+  <si>
+    <t>5月30日，姜振宇和同门师弟肖汉顺利通过博士论文答辩，成为国内第一批毕业的科幻文学博士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜振宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>譬如，袁世凯的公子袁克文在他的《辛丙秘苑》一书中，就讲述过袁世凯在获悉宋教仁被杀后的一些反应。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁克文</t>
+  </si>
+  <si>
+    <t>宋教仁</t>
+  </si>
+  <si>
+    <t>此次出征欧洲，孙颖莎恩师黄海诚成了女乒教练组的主心骨，也是他指挥陈幸同双杀伊藤美诚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙颖莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄海诚</t>
+  </si>
+  <si>
+    <t>陈幸同</t>
+  </si>
+  <si>
+    <t>伊藤美诚</t>
+  </si>
+  <si>
+    <t>人物简介张承中，1971年出生，台湾前“立委”张世良（1942年7月7日－）长子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张承中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张世良</t>
+  </si>
+  <si>
+    <t>在2005出版的“打铁街少年——谢长廷的故事”一书中，谢长廷首度公开谢维洲是他养子，当时还引发不小争议。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书中提到，谢长廷夫妇当时已育有一儿一女，但由于妻子游芳枝一直未再怀孕，才在1984年向三重一户人家领养养子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游芳枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月15日，昆剧演员朱璎媛在微博晒出一组照片，是梁朝伟带着老婆刘嘉玲与一些朋友来苏州看戏了，刘嘉玲坐在台下认真欣赏，还与台上的演员合影留念。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱璎媛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006年，张末与她的第一任丈夫托维结婚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据《旧唐书》的记载：公元617年，也就是隋炀帝当政的大业十三年，李氏父子于太原兴兵反隋，李渊次子李世民被调遣到渭北一带与隋军主力作战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隋炀帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李在德与丈夫于保合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李在德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于保合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1984年一个春暖花开的早晨，董耀会和朋友吴德玉、张元华背起军用背包，穿上军靴，开始徒步长城之旅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董耀会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴德玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张元华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但能力出众的老沃森招来了上司帕特森妒忌，被迫辞职后老沃森带着妻子和还在襁褓中的小沃森到纽约闯荡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老沃森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕特森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沃森</t>
+  </si>
+  <si>
+    <t>伊春市委书记赵万山会见代表团一行，伊春市委副书记、市长韩库出席相关活动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵万山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩库</t>
+  </si>
+  <si>
+    <t>梁武帝大同元年（535年），时任罗州刺史（罗州在今广东化州）的冯融与冼氏部落通婚，为儿子冯宝迎娶了冼英。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁武帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冼英</t>
+  </si>
+  <si>
+    <t>梁武帝大同元年（536年），时任罗州刺史（罗州在今广东化州）的冯融与冼氏部落通婚，为儿子冯宝迎娶了冼英。</t>
+  </si>
+  <si>
+    <t>梁武帝大同元年（537年），时任罗州刺史（罗州在今广东化州）的冯融与冼氏部落通婚，为儿子冯宝迎娶了冼英。</t>
+  </si>
+  <si>
+    <t>梁武帝大同元年（538年），时任罗州刺史（罗州在今广东化州）的冯融与冼氏部落通婚，为儿子冯宝迎娶了冼英。</t>
+  </si>
+  <si>
+    <t>梁武帝大同元年（539年），时任罗州刺史（罗州在今广东化州）的冯融与冼氏部落通婚，为儿子冯宝迎娶了冼英。</t>
+  </si>
+  <si>
+    <t>梁武帝大同元年（540年），时任罗州刺史（罗州在今广东化州）的冯融与冼氏部落通婚，为儿子冯宝迎娶了冼英。</t>
+  </si>
+  <si>
+    <t>那卢一峰所以能得吴三桂委为曲靖县知县，是使了四万多两银子贿赂得来的，吴应熊曾从中抽了三千多两。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢一峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴三桂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴应熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成龙和张国立，一个是响誉国际的功夫影星兼导演，一个是内地爆款剧的制造者，可他俩都有一个不成器的儿子，成龙的儿子房祖名吸毒被抓后身败名裂，张国立儿子张默更加离谱，读中戏时暴打女友童瑶遭开除，入行后两度吸毒被抓，成了娱乐圈的反面教材，张国立夫妇的脸让他丢尽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张国立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房祖名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007年，张勇让跟随自己20多年的老朋友施永宏也下岗了，没办法，重大决策时不能犹豫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施永宏</t>
+  </si>
+  <si>
+    <t>黄药师独生女黄蓉离岛出走，在张家口结识郭靖并结成情侣，一起闯荡江湖，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄药师</t>
+  </si>
+  <si>
+    <t>黄蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张作霖娶于凤至为儿媳，当初想法很简单，一是想以这种方式回报于文斗的救命之恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张作霖</t>
+  </si>
+  <si>
+    <t>于凤至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于文斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别的没看到，就看到林震南教他儿子林平之练剑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采访中，记者得知，刘翔飞还有一个双胞胎姐姐刘翔宇，今年被上海师范大学环境与地理科学学院录取了，为了送双胞胎姐妹上大学，他们一家四口从辽宁抚顺出发，开着房车上路了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘翔飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘翔宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫妮的女儿邹元清是近两年才出现在观众视野中的，为人低调的她一开始很少有人知道她是“佟掌柜”闫妮的女儿，只是很多人觉得面熟，当有人“公开”她的身份时，观众们才恍然大悟，这耐看的五官和镜头感，不愧是闫妮的女儿，并且邹元清虽然目前的作品不是很多，但演技却已经受到了观众的认可了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫妮</t>
+  </si>
+  <si>
+    <t>邹元清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后经证实，自首的正是戴志康及其侄子戴卫新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴卫新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完颜斜鲁，为金朝宗室，金世宗完颜雍的第三子，母亲乌林答氏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完颜斜鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完颜雍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌林答氏</t>
+  </si>
+  <si>
+    <t>人民文学出版社社长臧永清，讲述了路遥与人文社四十年的情谊，回忆了路遥与人文社老编辑们的深厚感情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臧永清</t>
+  </si>
+  <si>
+    <t>路遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来这少女名叫萧中慧，她爹爹便是晋阳大侠萧半和。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧中慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧半和</t>
+  </si>
+  <si>
+    <t>张立强的父亲张加旺是榆林市靖边县东坑镇金鸡沙村的移民户。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张立强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张加旺</t>
+  </si>
+  <si>
+    <t>项羽的祖父项燕是楚国名将，在秦灭楚的战争中阵亡，其祖先项氏多人也是楚国将领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生在万年县梓埠镇联合村宋戴村小组的邱淑艳和妹妹邱淑阳、邱淑红的家庭很是不幸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱淑艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱淑阳</t>
+  </si>
+  <si>
+    <t>邱淑红</t>
+  </si>
+  <si>
+    <t>我道：『林……林远图？是林震南的父亲？』师父道：『不，林远图是林震南的祖父，福威镖局是他一手创办的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林远图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱德拉塞卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著名的物理学家、天文物理学家钱德拉塞卡出身于印度科学名门，他的叔叔拉曼是全亚洲第一个诺贝尔科学奖得主。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此次春晚总导演，由主持人李咏的妻子哈文担任。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李咏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -13550,6 +15292,37 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -13573,7 +15346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13635,6 +15408,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13951,17 +15733,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E723F4E-CCCC-CB4F-8E00-CADB81944E23}">
-  <dimension ref="A1:D1792"/>
+  <dimension ref="A1:D2107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1786" zoomScale="140" workbookViewId="0">
-      <selection activeCell="B1793" sqref="B1793"/>
+    <sheetView tabSelected="1" topLeftCell="A2101" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D2108" sqref="D2108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="126.6640625" customWidth="1"/>
+    <col min="4" max="4" width="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -39052,6 +40834,4416 @@
       </c>
       <c r="D1792" t="s">
         <v>3676</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4" ht="18">
+      <c r="A1793" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1793" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1793" s="23" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4" ht="18">
+      <c r="A1794" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C1794" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1794" s="23" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4" ht="18">
+      <c r="A1795" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C1795" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1795" s="23" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4" ht="18">
+      <c r="A1796" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C1796" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1796" s="23" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4" ht="17">
+      <c r="A1797" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C1797" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1797" s="24" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4" ht="17">
+      <c r="A1798" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1798" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1798" s="24" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4" ht="17">
+      <c r="A1799" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1799" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1799" s="24" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4" ht="17">
+      <c r="A1800" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C1800" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1800" s="24" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:4" ht="17">
+      <c r="A1801" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>3695</v>
+      </c>
+      <c r="C1801" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1801" s="24" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:4" ht="17">
+      <c r="A1802" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>3698</v>
+      </c>
+      <c r="C1802" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1802" s="24" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:4" ht="17">
+      <c r="A1803" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C1803" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1803" s="24" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4" ht="17">
+      <c r="A1804" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>3704</v>
+      </c>
+      <c r="C1804" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1804" s="24" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4" ht="17">
+      <c r="A1805" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C1805" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1805" s="24" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4" ht="17">
+      <c r="A1806" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C1806" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1806" s="24" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:4" ht="17">
+      <c r="A1807" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C1807" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1807" s="24" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4" ht="17">
+      <c r="A1808" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C1808" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1808" s="24" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:4" ht="17">
+      <c r="A1809" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C1809" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1809" s="24" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:4" ht="17">
+      <c r="A1810" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C1810" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1810" s="24" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:4" ht="17">
+      <c r="A1811" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C1811" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1811" s="24" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:4" ht="17">
+      <c r="A1812" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C1812" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1812" s="24" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:4" ht="17">
+      <c r="A1813" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C1813" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1813" s="24" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:4" ht="17">
+      <c r="A1814" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C1814" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1814" s="24" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:4" ht="17">
+      <c r="A1815" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C1815" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1815" s="24" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:4" ht="17">
+      <c r="A1816" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C1816" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1816" s="24" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:4" ht="17">
+      <c r="A1817" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C1817" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1817" s="24" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:4" ht="17">
+      <c r="A1818" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C1818" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1818" s="24" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:4" ht="17">
+      <c r="A1819" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C1819" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1819" s="24" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:4" ht="17">
+      <c r="A1820" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C1820" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1820" s="24" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:4" ht="17">
+      <c r="A1821" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>3720</v>
+      </c>
+      <c r="C1821" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1821" s="24" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:4" ht="17">
+      <c r="A1822" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>3732</v>
+      </c>
+      <c r="C1822" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1822" s="24" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:4" ht="17">
+      <c r="A1823" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C1823" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1823" s="24" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:4" ht="17">
+      <c r="A1824" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>3734</v>
+      </c>
+      <c r="C1824" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1824" s="24" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:4" ht="17">
+      <c r="A1825" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C1825" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1825" s="24" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:4" ht="17">
+      <c r="A1826" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>3734</v>
+      </c>
+      <c r="C1826" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1826" s="24" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:4" ht="17">
+      <c r="A1827" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>3734</v>
+      </c>
+      <c r="C1827" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1827" s="24" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:4" ht="17">
+      <c r="A1828" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>3736</v>
+      </c>
+      <c r="C1828" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1828" s="24" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:4" ht="17">
+      <c r="A1829" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C1829" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1829" s="24" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:4" ht="17">
+      <c r="A1830" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C1830" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1830" s="24" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:4" ht="17">
+      <c r="A1831" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C1831" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1831" s="24" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:4" ht="17">
+      <c r="A1832" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1832" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1832" s="24" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:4" ht="17">
+      <c r="A1833" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1833" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1833" s="24" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:4" ht="17">
+      <c r="A1834" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>3747</v>
+      </c>
+      <c r="C1834" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1834" s="24" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:4" ht="17">
+      <c r="A1835" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>3747</v>
+      </c>
+      <c r="C1835" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1835" s="24" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:4" ht="17">
+      <c r="A1836" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C1836" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1836" s="24" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:4" ht="17">
+      <c r="A1837" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C1837" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1837" s="24" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:4" ht="17">
+      <c r="A1838" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>3756</v>
+      </c>
+      <c r="C1838" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1838" s="24" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:4" ht="17">
+      <c r="A1839" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C1839" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1839" s="24" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:4" ht="17">
+      <c r="A1840" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C1840" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1840" s="24" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:4" ht="17">
+      <c r="A1841" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C1841" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1841" s="24" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:4" ht="17">
+      <c r="A1842" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C1842" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1842" s="24" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:4" ht="17">
+      <c r="A1843" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C1843" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1843" s="24" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:4" ht="17">
+      <c r="A1844" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C1844" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1844" s="24" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:4" ht="17">
+      <c r="A1845" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C1845" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1845" s="24" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:4" ht="17">
+      <c r="A1846" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>3764</v>
+      </c>
+      <c r="C1846" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1846" s="24" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:4" ht="17">
+      <c r="A1847" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>3764</v>
+      </c>
+      <c r="C1847" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1847" s="24" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:4" ht="17">
+      <c r="A1848" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C1848" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1848" s="24" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:4" ht="17">
+      <c r="A1849" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C1849" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1849" s="24" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:4" ht="17">
+      <c r="A1850" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C1850" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1850" s="24" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:4" ht="17">
+      <c r="A1851" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C1851" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1851" s="24" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:4" ht="18">
+      <c r="A1852" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C1852" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1852" s="25" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:4" ht="17">
+      <c r="A1853" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>3777</v>
+      </c>
+      <c r="C1853" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1853" s="24" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:4" ht="17">
+      <c r="A1854" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C1854" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1854" s="24" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:4" ht="17">
+      <c r="A1855" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C1855" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1855" s="24" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:4" ht="17">
+      <c r="A1856" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C1856" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1856" s="24" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:4" ht="17">
+      <c r="A1857" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>3784</v>
+      </c>
+      <c r="C1857" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1857" s="24" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:4" ht="17">
+      <c r="A1858" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>3768</v>
+      </c>
+      <c r="C1858" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1858" s="24" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:4" ht="17">
+      <c r="A1859" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C1859" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1859" s="24" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:4" ht="17">
+      <c r="A1860" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C1860" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1860" s="24" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:4" ht="17">
+      <c r="A1861" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C1861" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1861" s="24" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:4" ht="17">
+      <c r="A1862" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C1862" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1862" s="24" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:4" ht="17">
+      <c r="A1863" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C1863" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1863" s="24" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:4" ht="17">
+      <c r="A1864" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C1864" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1864" s="24" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:4" ht="17">
+      <c r="A1865" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C1865" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1865" s="24" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:4" ht="17">
+      <c r="A1866" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C1866" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1866" s="24" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:4" ht="17">
+      <c r="A1867" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C1867" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1867" s="24" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:4" ht="17">
+      <c r="A1868" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>3797</v>
+      </c>
+      <c r="C1868" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1868" s="24" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:4" ht="17">
+      <c r="A1869" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C1869" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1869" s="24" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:4" ht="17">
+      <c r="A1870" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C1870" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1870" s="24" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:4" ht="17">
+      <c r="A1871" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C1871" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1871" s="24" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:4" ht="17">
+      <c r="A1872" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>971</v>
+      </c>
+      <c r="C1872" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1872" s="24" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:4" ht="17">
+      <c r="A1873" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>3803</v>
+      </c>
+      <c r="C1873" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1873" s="24" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:4" ht="17">
+      <c r="A1874" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1874" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1874" s="24" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:4" ht="17">
+      <c r="A1875" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>3803</v>
+      </c>
+      <c r="C1875" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1875" s="24" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:4" ht="17">
+      <c r="A1876" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1876" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1876" s="24" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:4" ht="17">
+      <c r="A1877" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1877" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1877" s="24" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:4" ht="17">
+      <c r="A1878" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C1878" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1878" s="24" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:4" ht="17">
+      <c r="A1879" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C1879" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1879" s="24" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:4" ht="17">
+      <c r="A1880" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C1880" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1880" s="24" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:4" ht="17">
+      <c r="A1881" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C1881" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1881" s="24" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:4" ht="17">
+      <c r="A1882" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1882" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1882" s="24" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:4" ht="17">
+      <c r="A1883" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C1883" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1883" s="24" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:4" ht="17">
+      <c r="A1884" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C1884" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1884" s="24" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:4" ht="17">
+      <c r="A1885" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1885" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1885" s="24" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:4" ht="17">
+      <c r="A1886" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C1886" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1886" s="24" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:4" ht="17">
+      <c r="A1887" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C1887" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1887" s="24" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:4" ht="17">
+      <c r="A1888" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C1888" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1888" s="24" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:4" ht="17">
+      <c r="A1889" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C1889" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1889" s="24" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:4" ht="17">
+      <c r="A1890" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C1890" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1890" s="24" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" ht="17">
+      <c r="A1891" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C1891" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1891" s="24" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" ht="17">
+      <c r="A1892" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C1892" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1892" s="24" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:4" ht="17">
+      <c r="A1893" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C1893" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1893" s="24" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:4" ht="17">
+      <c r="A1894" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C1894" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1894" s="24" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:4" ht="17">
+      <c r="A1895" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C1895" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1895" s="24" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:4" ht="17">
+      <c r="A1896" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C1896" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1896" s="24" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:4" ht="17">
+      <c r="A1897" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>3841</v>
+      </c>
+      <c r="C1897" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1897" s="24" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:4" ht="17">
+      <c r="A1898" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>3841</v>
+      </c>
+      <c r="C1898" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1898" s="24" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:4" ht="17">
+      <c r="A1899" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C1899" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1899" s="24" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:4" ht="17">
+      <c r="A1900" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C1900" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1900" s="24" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:4" ht="17">
+      <c r="A1901" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C1901" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1901" s="24" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" ht="17">
+      <c r="A1902" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C1902" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1902" s="24" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:4" ht="17">
+      <c r="A1903" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C1903" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1903" s="24" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" ht="17">
+      <c r="A1904" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C1904" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1904" s="24" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:4" ht="17">
+      <c r="A1905" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C1905" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1905" s="24" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:4" ht="17">
+      <c r="A1906" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C1906" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1906" s="24" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:4" ht="17">
+      <c r="A1907" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C1907" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1907" s="24" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:4" ht="17">
+      <c r="A1908" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C1908" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1908" s="24" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:4" ht="17">
+      <c r="A1909" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C1909" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1909" s="24" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:4" ht="17">
+      <c r="A1910" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C1910" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1910" s="24" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:4" ht="17">
+      <c r="A1911" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C1911" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1911" s="24" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:4" ht="17">
+      <c r="A1912" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C1912" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1912" s="24" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:4" ht="17">
+      <c r="A1913" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C1913" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1913" s="24" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:4" ht="17">
+      <c r="A1914" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>3859</v>
+      </c>
+      <c r="C1914" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1914" s="24" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:4" ht="17">
+      <c r="A1915" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C1915" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1915" s="24" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:4" ht="17">
+      <c r="A1916" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C1916" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1916" s="24" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:4" ht="17">
+      <c r="A1917" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C1917" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1917" s="24" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:4" ht="17">
+      <c r="A1918" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C1918" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1918" s="24" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:4" ht="17">
+      <c r="A1919" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C1919" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1919" s="24" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:4" ht="17">
+      <c r="A1920" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C1920" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1920" s="24" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:4" ht="17">
+      <c r="A1921" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C1921" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1921" s="24" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:4" ht="17">
+      <c r="A1922" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C1922" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1922" s="24" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:4" ht="17">
+      <c r="A1923" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1923" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1923" s="24" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:4" ht="17">
+      <c r="A1924" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C1924" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1924" s="24" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:4" ht="17">
+      <c r="A1925" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C1925" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1925" s="24" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:4" ht="17">
+      <c r="A1926" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1926" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1926" s="24" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:4" ht="17">
+      <c r="A1927" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C1927" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1927" s="24" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:4" ht="17">
+      <c r="A1928" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1928" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1928" s="24" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:4" ht="17">
+      <c r="A1929" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1929" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1929" s="24" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:4" ht="17">
+      <c r="A1930" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C1930" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1930" s="24" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:4" ht="17">
+      <c r="A1931" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>3883</v>
+      </c>
+      <c r="C1931" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1931" s="24" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:4" ht="17">
+      <c r="A1932" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C1932" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1932" s="24" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:4" ht="17">
+      <c r="A1933" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>3883</v>
+      </c>
+      <c r="C1933" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1933" s="24" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:4" ht="17">
+      <c r="A1934" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>3887</v>
+      </c>
+      <c r="C1934" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1934" s="24" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:4" ht="17">
+      <c r="A1935" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C1935" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1935" s="24" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:4" ht="17">
+      <c r="A1936" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>3783</v>
+      </c>
+      <c r="C1936" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1936" s="24" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:4" ht="17">
+      <c r="A1937" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C1937" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1937" s="24" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:4" ht="17">
+      <c r="A1938" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C1938" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1938" s="24" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:4" ht="17">
+      <c r="A1939" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C1939" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1939" s="24" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:4" ht="17">
+      <c r="A1940" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C1940" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1940" s="24" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:4" ht="17">
+      <c r="A1941" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C1941" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1941" s="24" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:4" ht="17">
+      <c r="A1942" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C1942" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1942" s="24" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:4" ht="17">
+      <c r="A1943" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C1943" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1943" s="24" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:4" ht="17">
+      <c r="A1944" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C1944" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1944" s="24" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4" ht="17">
+      <c r="A1945" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>3907</v>
+      </c>
+      <c r="C1945" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1945" s="24" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:4" ht="17">
+      <c r="A1946" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>3907</v>
+      </c>
+      <c r="C1946" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1946" s="24" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:4" ht="17">
+      <c r="A1947" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1947" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1947" s="24" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4" ht="17">
+      <c r="A1948" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C1948" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1948" s="24" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:4" ht="17">
+      <c r="A1949" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C1949" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1949" s="24" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:4" ht="17">
+      <c r="A1950" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>3917</v>
+      </c>
+      <c r="C1950" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1950" s="24" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:4" ht="17">
+      <c r="A1951" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C1951" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1951" s="24" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4" ht="17">
+      <c r="A1952" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C1952" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1952" s="24" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:4" ht="17">
+      <c r="A1953" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>3921</v>
+      </c>
+      <c r="C1953" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1953" s="24" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:4" ht="17">
+      <c r="A1954" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>3925</v>
+      </c>
+      <c r="C1954" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1954" s="24" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:4" ht="17">
+      <c r="A1955" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C1955" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1955" s="24" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:4" ht="17">
+      <c r="A1956" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C1956" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1956" s="24" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4" ht="17">
+      <c r="A1957" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>3928</v>
+      </c>
+      <c r="C1957" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1957" s="24" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:4" ht="17">
+      <c r="A1958" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>3929</v>
+      </c>
+      <c r="C1958" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1958" s="24" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:4" ht="17">
+      <c r="A1959" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>3929</v>
+      </c>
+      <c r="C1959" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1959" s="24" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:4" ht="17">
+      <c r="A1960" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>3932</v>
+      </c>
+      <c r="C1960" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1960" s="24" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:4" ht="17">
+      <c r="A1961" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>3935</v>
+      </c>
+      <c r="C1961" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1961" s="24" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4" ht="17">
+      <c r="A1962" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C1962" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1962" s="24" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" ht="17">
+      <c r="A1963" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C1963" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1963" s="24" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:4" ht="17">
+      <c r="A1964" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C1964" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1964" s="24" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:4" ht="17">
+      <c r="A1965" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C1965" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1965" s="24" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:4" ht="17">
+      <c r="A1966" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C1966" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1966" s="24" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" ht="17">
+      <c r="A1967" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C1967" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1967" s="24" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4" ht="17">
+      <c r="A1968" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C1968" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1968" s="24" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:4" ht="17">
+      <c r="A1969" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C1969" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1969" s="24" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:4" ht="17">
+      <c r="A1970" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C1970" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1970" s="24" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:4" ht="17">
+      <c r="A1971" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C1971" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1971" s="24" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4" ht="17">
+      <c r="A1972" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C1972" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1972" s="24" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4" ht="17">
+      <c r="A1973" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C1973" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1973" s="24" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:4" ht="17">
+      <c r="A1974" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1974" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1974" s="24" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:4" ht="17">
+      <c r="A1975" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1975" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C1975" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1975" s="24" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:4" ht="17">
+      <c r="A1976" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C1976" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1976" s="24" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4" ht="17">
+      <c r="A1977" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B1977" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1977" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1977" s="24" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4" ht="17">
+      <c r="A1978" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C1978" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1978" s="24" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:4" ht="17">
+      <c r="A1979" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C1979" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1979" s="24" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4" ht="17">
+      <c r="A1980" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C1980" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1980" s="24" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:4" ht="17">
+      <c r="A1981" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C1981" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1981" s="24" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4" ht="17">
+      <c r="A1982" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C1982" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1982" s="24" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4" ht="17">
+      <c r="A1983" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B1983" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C1983" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1983" s="24" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4" ht="17">
+      <c r="A1984" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C1984" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1984" s="24" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:4" ht="17">
+      <c r="A1985" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1985" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C1985" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1985" s="24" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:4" ht="17">
+      <c r="A1986" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C1986" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1986" s="24" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:4" ht="17">
+      <c r="A1987" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C1987" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1987" s="24" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4" ht="17">
+      <c r="A1988" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C1988" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1988" s="24" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:4" ht="17">
+      <c r="A1989" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C1989" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1989" s="24" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:4" ht="17">
+      <c r="A1990" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C1990" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1990" s="24" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4" ht="17">
+      <c r="A1991" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C1991" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1991" s="24" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:4" ht="17">
+      <c r="A1992" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C1992" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1992" s="24" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4" ht="17">
+      <c r="A1993" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C1993" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1993" s="24" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4" ht="17">
+      <c r="A1994" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C1994" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1994" s="24" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:4" ht="17">
+      <c r="A1995" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C1995" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1995" s="24" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4" ht="17">
+      <c r="A1996" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C1996" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1996" s="24" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:4" ht="17">
+      <c r="A1997" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C1997" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1997" s="24" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:4" ht="17">
+      <c r="A1998" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C1998" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1998" s="24" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4" ht="17">
+      <c r="A1999" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C1999" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1999" s="24" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:4" ht="17">
+      <c r="A2000" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C2000" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2000" s="24" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4" ht="17">
+      <c r="A2001" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C2001" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2001" s="24" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:4" ht="17">
+      <c r="A2002" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C2002" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2002" s="24" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:4" ht="17">
+      <c r="A2003" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C2003" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2003" s="24" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:4" ht="17">
+      <c r="A2004" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C2004" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2004" s="24" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:4" ht="17">
+      <c r="A2005" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C2005" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2005" s="24" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:4" ht="17">
+      <c r="A2006" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C2006" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2006" s="24" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:4" ht="17">
+      <c r="A2007" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B2007" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C2007" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2007" s="24" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:4" ht="17">
+      <c r="A2008" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C2008" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2008" s="24" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:4" ht="17">
+      <c r="A2009" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B2009" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C2009" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2009" s="24" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:4" ht="17">
+      <c r="A2010" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C2010" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2010" s="24" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:4" ht="17">
+      <c r="A2011" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B2011" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C2011" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2011" s="24" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:4" ht="17">
+      <c r="A2012" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C2012" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2012" s="24" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:4" ht="17">
+      <c r="A2013" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C2013" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2013" s="24" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:4" ht="17">
+      <c r="A2014" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C2014" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2014" s="24" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:4" ht="17">
+      <c r="A2015" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C2015" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2015" s="24" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:4" ht="17">
+      <c r="A2016" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C2016" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2016" s="24" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:4" ht="17">
+      <c r="A2017" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C2017" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2017" s="24" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:4" ht="17">
+      <c r="A2018" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C2018" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2018" s="24" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:4" ht="18">
+      <c r="A2019" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C2019" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2019" s="24" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:4" ht="17">
+      <c r="A2020" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>4021</v>
+      </c>
+      <c r="C2020" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2020" s="24" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:4" ht="17">
+      <c r="A2021" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>4024</v>
+      </c>
+      <c r="C2021" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2021" s="24" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:4" ht="17">
+      <c r="A2022" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>4025</v>
+      </c>
+      <c r="C2022" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2022" s="24" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:4" ht="17">
+      <c r="A2023" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C2023" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2023" s="24" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:4" ht="17">
+      <c r="A2024" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>4025</v>
+      </c>
+      <c r="C2024" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2024" s="24" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:4" ht="17">
+      <c r="A2025" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C2025" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2025" s="24" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:4" ht="17">
+      <c r="A2026" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C2026" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2026" s="24" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:4" ht="17">
+      <c r="A2027" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C2027" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2027" s="24" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:4" ht="17">
+      <c r="A2028" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C2028" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2028" s="24" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:4" ht="17">
+      <c r="A2029" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C2029" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2029" s="24" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:4" ht="17">
+      <c r="A2030" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C2030" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2030" s="24" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:4" ht="17">
+      <c r="A2031" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C2031" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2031" s="24" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:4" ht="17">
+      <c r="A2032" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C2032" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2032" s="24" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:4" ht="17">
+      <c r="A2033" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C2033" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2033" s="24" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:4" ht="17">
+      <c r="A2034" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C2034" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2034" s="24" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:4" ht="17">
+      <c r="A2035" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C2035" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2035" s="24" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:4" ht="17">
+      <c r="A2036" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C2036" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2036" s="24" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:4" ht="17">
+      <c r="A2037" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C2037" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2037" s="24" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:4" ht="17">
+      <c r="A2038" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C2038" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2038" s="24" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:4" ht="17">
+      <c r="A2039" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B2039" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C2039" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2039" s="24" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:4" ht="17">
+      <c r="A2040" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C2040" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2040" s="24" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:4" ht="17">
+      <c r="A2041" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>4051</v>
+      </c>
+      <c r="C2041" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2041" s="24" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:4" ht="17">
+      <c r="A2042" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C2042" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2042" s="24" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:4" ht="17">
+      <c r="A2043" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C2043" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2043" s="24" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:4" ht="17">
+      <c r="A2044" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C2044" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2044" s="24" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:4" ht="17">
+      <c r="A2045" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C2045" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2045" s="24" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:4" ht="17">
+      <c r="A2046" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C2046" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2046" s="24" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:4" ht="17">
+      <c r="A2047" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C2047" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2047" s="24" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:4" ht="17">
+      <c r="A2048" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C2048" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2048" s="24" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:4" ht="17">
+      <c r="A2049" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C2049" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2049" s="24" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:4" ht="17">
+      <c r="A2050" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C2050" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2050" s="24" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:4" ht="17">
+      <c r="A2051" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C2051" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2051" s="24" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:4" ht="17">
+      <c r="A2052" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C2052" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2052" s="24" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4" ht="17">
+      <c r="A2053" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C2053" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2053" s="24" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:4" ht="17">
+      <c r="A2054" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C2054" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2054" s="24" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4" ht="17">
+      <c r="A2055" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C2055" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2055" s="24" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4" ht="17">
+      <c r="A2056" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C2056" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2056" s="24" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:4" ht="17">
+      <c r="A2057" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C2057" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2057" s="24" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4" ht="17">
+      <c r="A2058" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C2058" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2058" s="24" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:4" ht="17">
+      <c r="A2059" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C2059" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2059" s="24" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:4" ht="17">
+      <c r="A2060" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C2060" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2060" s="24" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4" ht="17">
+      <c r="A2061" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C2061" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2061" s="24" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:4" ht="17">
+      <c r="A2062" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C2062" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2062" s="24" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4" ht="17">
+      <c r="A2063" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C2063" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2063" s="24" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:4" ht="17">
+      <c r="A2064" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C2064" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2064" s="24" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:4" ht="17">
+      <c r="A2065" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C2065" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2065" s="24" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:4" ht="17">
+      <c r="A2066" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C2066" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2066" s="24" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4" ht="17">
+      <c r="A2067" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C2067" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2067" s="24" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:4" ht="17">
+      <c r="A2068" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C2068" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2068" s="24" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4" ht="17">
+      <c r="A2069" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C2069" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2069" s="24" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:4" ht="17">
+      <c r="A2070" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C2070" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2070" s="24" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:4" ht="17">
+      <c r="A2071" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C2071" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2071" s="24" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:4" ht="17">
+      <c r="A2072" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C2072" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2072" s="24" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:4" ht="17">
+      <c r="A2073" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C2073" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2073" s="24" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:4" ht="17">
+      <c r="A2074" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C2074" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2074" s="24" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:4" ht="17">
+      <c r="A2075" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>4096</v>
+      </c>
+      <c r="C2075" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2075" s="24" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:4" ht="17">
+      <c r="A2076" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C2076" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2076" s="24" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:4" ht="17">
+      <c r="A2077" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>4097</v>
+      </c>
+      <c r="C2077" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2077" s="24" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:4" ht="17">
+      <c r="A2078" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>4096</v>
+      </c>
+      <c r="C2078" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2078" s="24" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:4" ht="17">
+      <c r="A2079" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C2079" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2079" s="24" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:4" ht="17">
+      <c r="A2080" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>4097</v>
+      </c>
+      <c r="C2080" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2080" s="24" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:4" ht="17">
+      <c r="A2081" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C2081" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2081" s="24" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:4" ht="17">
+      <c r="A2082" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>4097</v>
+      </c>
+      <c r="C2082" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2082" s="24" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:4" ht="17">
+      <c r="A2083" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>4097</v>
+      </c>
+      <c r="C2083" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2083" s="24" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:4" ht="17">
+      <c r="A2084" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C2084" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2084" s="24" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:4" ht="17">
+      <c r="A2085" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C2085" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2085" s="24" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:4" ht="17">
+      <c r="A2086" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C2086" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2086" s="24" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:4" ht="17">
+      <c r="A2087" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C2087" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2087" s="24" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:4" ht="17">
+      <c r="A2088" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C2088" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2088" s="24" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:4" ht="17">
+      <c r="A2089" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C2089" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2089" s="24" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:4" ht="17">
+      <c r="A2090" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C2090" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2090" s="24" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:4" ht="17">
+      <c r="A2091" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C2091" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2091" s="24" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:4" ht="17">
+      <c r="A2092" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C2092" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2092" s="24" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:4" ht="17">
+      <c r="A2093" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>4114</v>
+      </c>
+      <c r="C2093" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2093" s="24" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:4" ht="17">
+      <c r="A2094" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C2094" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2094" s="24" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:4" ht="17">
+      <c r="A2095" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>4119</v>
+      </c>
+      <c r="C2095" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2095" s="24" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:4" ht="17">
+      <c r="A2096" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>4120</v>
+      </c>
+      <c r="C2096" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2096" s="24" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:4" ht="17">
+      <c r="A2097" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>4120</v>
+      </c>
+      <c r="C2097" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2097" s="24" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:4" ht="17">
+      <c r="A2098" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C2098" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2098" s="24" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:4" ht="17">
+      <c r="A2099" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C2099" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2099" s="24" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:4" ht="17">
+      <c r="A2100" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C2100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2100" s="24" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:4" ht="17">
+      <c r="A2101" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C2101" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2101" s="24" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:4" ht="17">
+      <c r="A2102" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>4135</v>
+      </c>
+      <c r="C2102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2102" s="24" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:4" ht="17">
+      <c r="A2103" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C2103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2103" s="24" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:4" ht="17">
+      <c r="A2104" t="s">
+        <v>4135</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C2104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2104" s="24" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:4" ht="17">
+      <c r="A2105" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C2105" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2105" s="24" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:4" ht="17">
+      <c r="A2106" t="s">
+        <v>4139</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>4140</v>
+      </c>
+      <c r="C2106" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2106" s="24" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:4" ht="17">
+      <c r="A2107" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>4144</v>
+      </c>
+      <c r="C2107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2107" s="24" t="s">
+        <v>4142</v>
       </c>
     </row>
   </sheetData>

--- a/data/人物关系表.xlsx
+++ b/data/人物关系表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/people_relation_extract/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46A29B3-1F96-C841-AEC7-6B2B665FA24F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0803F49A-F6AF-2945-B1DA-43D61B2F27E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8426" uniqueCount="4145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8978" uniqueCount="4337">
   <si>
     <t>人物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15083,6 +15083,751 @@
   <si>
     <t>哈文</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐高宗</t>
+  </si>
+  <si>
+    <t>傅作义营担任警戒任务，表现出色，得到晋军前敌总指挥张培梅的嘉许，力保其升任第4旅第8团团长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅作义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张培梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康有为最早的教师是他的祖父康赞修。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康有为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康赞修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇祯四年（1630年），张溥在南京召集“金陵大会”，当时恰好也在南京的黄宗羲经友人周镳介绍参加复社，成为社中活跃人物之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇祯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张溥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周镳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇祯四年（1631年），张溥在南京召集“金陵大会”，当时恰好也在南京的黄宗羲经友人周镳介绍参加复社，成为社中活跃人物之一。</t>
+  </si>
+  <si>
+    <t>崇祯四年（1632年），张溥在南京召集“金陵大会”，当时恰好也在南京的黄宗羲经友人周镳介绍参加复社，成为社中活跃人物之一。</t>
+  </si>
+  <si>
+    <t>崇祯四年（1633年），张溥在南京召集“金陵大会”，当时恰好也在南京的黄宗羲经友人周镳介绍参加复社，成为社中活跃人物之一。</t>
+  </si>
+  <si>
+    <t>崇祯四年（1634年），张溥在南京召集“金陵大会”，当时恰好也在南京的黄宗羲经友人周镳介绍参加复社，成为社中活跃人物之一。</t>
+  </si>
+  <si>
+    <t>崇祯四年（1635年），张溥在南京召集“金陵大会”，当时恰好也在南京的黄宗羲经友人周镳介绍参加复社，成为社中活跃人物之一。</t>
+  </si>
+  <si>
+    <t>陈初哲的父亲陈树勋，博通古今，沉毅阔达，为人所重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈初哲</t>
+  </si>
+  <si>
+    <t>陈初哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈树勋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时，陈初哲与他弟弟陈希哲二人以词赋闻名江南，号称“二陈”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈希哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈希曾是陈元次子，与他的兄弟一起跟从鲁仕骥求学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈希曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁仕骥</t>
+  </si>
+  <si>
+    <t>孙娫，孙中山与原配卢慕贞所生长女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙娫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢慕贞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1906年，张荔英出生于法国巴黎，她是中国国民党元老张静江和夫人姚蕙的第四个女儿，当时张静江正在巴黎经商，经营中国古董、丝绸、茶叶的贸易。张荔英先后在巴黎、纽约和上海接受教育。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张荔英</t>
+  </si>
+  <si>
+    <t>张静江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚蕙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006年，与周曦一同拜入黄煦涛门下的，还有颜水成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周曦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄煦涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜水成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007年，与周曦一同拜入黄煦涛门下的，还有颜水成。</t>
+  </si>
+  <si>
+    <t>2008年，与周曦一同拜入黄煦涛门下的，还有颜水成。</t>
+  </si>
+  <si>
+    <t>而韩旭的同门师兄弟宁华中，离开UIUC后则前后辗转于Facebook和Google。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩旭</t>
+  </si>
+  <si>
+    <t>宁华中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗松：王丽萍的同门师兄，极度花心，一直跟随这吴先齐，在其手下做事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗松</t>
+  </si>
+  <si>
+    <t>王丽萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此次来厦办展的5位画家分别是沈舜茂、吴建富、许惠玲、蒋亚鹏、刘卫民，5人还是同门师兄弟，目前均是福建省美术家协会会员。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈舜茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴建富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许惠玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋亚鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘卫民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对周春来说，影响她“医生”的是她的带教老师——上海中医药大学原校长、博导陆德铭，当年她跟随陆德铭学习中医治疗肿瘤及甲状腺疾病。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周春</t>
+  </si>
+  <si>
+    <t>陆德铭</t>
+  </si>
+  <si>
+    <t>陆德铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与周春一样，蔡慧莲也是陆德铭的徒弟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡慧莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当地时间29日，英国新任首相鲍里斯·约翰逊与其女友卡丽·西蒙兹一同入住唐宁街10号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍里斯·约翰逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡丽·西蒙兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尚平的妻子刘珍（化名）虽然离开了家乡益阳，后改嫁他人，但7月10日，她87岁的母亲去世时留下了最后一句话：“李尚平的案子破了没有？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尚平</t>
+  </si>
+  <si>
+    <t>李尚平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《一线》从台媒处独家获悉，梁静茹与赵元同已处于分居状态，而且梁静茹似乎受伤颇深，一周二会好友钟成虎，倾诉情变的内心苦痛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁静茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵元同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟成虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道是舆论的力量还是想通过与郑秀文秀恩爱挽回事业，近日许志安开始走好男人人设，被港媒拍到与老婆郑秀文一起跑步，还陪老婆排练。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑秀文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许志安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省人大常委会副主任向力力，湘潭市领导曹炯芳、张迎春、陈忠红、吴小月、颜集成、陈小山等出席活动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向力力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹炯芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张迎春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈忠红</t>
+  </si>
+  <si>
+    <t>吴小月</t>
+  </si>
+  <si>
+    <t>颜集成</t>
+  </si>
+  <si>
+    <t>陈小山</t>
+  </si>
+  <si>
+    <t>2018年6月，为纪念其父亲鲁冠球，鲁伟鼎捐出万向三农全部股权，设立鲁冠球三农扶志基金慈善信托，市值49.6亿元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁冠球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁伟鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由张嘉译、闫妮、赵今麦、郭俊辰等主演的都市家庭剧《少年派》正在播出，记者专访剧中饰演学霸钱三一的郭俊辰和饰演林妙妙的赵今麦，听这两位年轻演员剖析角色和回忆塑造角色过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嘉译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵今麦</t>
+  </si>
+  <si>
+    <t>郭俊辰</t>
+  </si>
+  <si>
+    <t>钱三一</t>
+  </si>
+  <si>
+    <t>林妙妙</t>
+  </si>
+  <si>
+    <t>在这场据称花费6000万元的活动上，赛麟全球代言人杰森·斯坦森和知名歌手吴亦凡的同台亮相，更是让现场达到了高潮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰森·斯坦森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴亦凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近日，宝马汽车集团继承人苏珊娜·克拉腾与斯特芬·科万特姐弟罕见接受了德国媒体《经理人杂志》采访。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏珊娜·克拉腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯特芬·科万特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫言与同乡的女子杜勤兰结婚，1981年，女儿管笑笑出生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜勤兰</t>
+  </si>
+  <si>
+    <t>管笑笑</t>
+  </si>
+  <si>
+    <t>莫言与同乡的女子杜勤兰结婚，1982年，女儿管笑笑出生。</t>
+  </si>
+  <si>
+    <t>莫言与同乡的女子杜勤兰结婚，1983年，女儿管笑笑出生。</t>
+  </si>
+  <si>
+    <t>《破冰行动》中，林耀东听儿子林景文言之凿凿地说，现在都通过“暗网”进行交易，买卖双方都不知晓彼此的真实身份。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林耀东</t>
+  </si>
+  <si>
+    <t>林景文</t>
+  </si>
+  <si>
+    <t>邱晓华和妻子聂春榕（又一说“聂春荣”）原是高中同学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱晓华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂春榕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂春荣</t>
+  </si>
+  <si>
+    <t>近日，黄奕前夫黄毅清又在微博爆料，称张雨绮被新欢张钱豪骗财骗色，对方是个假富豪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄奕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄毅清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张雨绮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张钱豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田福军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年2月，河南新飞科技有限公司、河南新飞数码科技有限公司法人李天桢因涉嫌国有公司人员滥用职权被刑拘，而与其没有业务往来的姐姐李金桢的数千万元资产也因此被冻结。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李天桢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李金桢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔丹出身于一个“红色家庭”，父亲孔原为原中共中央调查部部长，母亲许明为原国务院副秘书长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3段视频的拍摄者、自称是镇党委书记贾鼎妻子的吴女士，8月29日中午曾对上游新闻记者表示，目前不对此事作出回应，不接受采访。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴女士</t>
+  </si>
+  <si>
+    <t>艾德另有一私生的儿子琼恩·雪诺，其母身份不明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾德</t>
+  </si>
+  <si>
+    <t>琼恩·雪诺</t>
+  </si>
+  <si>
+    <t>巴菲特的父亲——霍华德·巴菲特虽然在待人处事上不同于刻薄的祖父，但他将家族的“吝啬”传统上升到了另一个层面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍华德·巴菲特</t>
+  </si>
+  <si>
+    <t>巴菲特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南希·里根，94岁，美国前第一夫人，罗纳德·里根遗孀，心脏衰竭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南希·里根</t>
+  </si>
+  <si>
+    <t>罗纳德·里根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋介石和夫人宋美龄五次居住于此，又称蒋宋官邸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋美龄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张欧影和同在圣地亚哥的朋友王玮聊起，国家队集训，半年全封闭强化训练，春节都不让回家，只是在年三十全队放假一天，一起包饺子庆祝新年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张欧影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙玉厚急得脱下一只鞋要打她，被当时十七岁的儿子少安挡住了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙玉厚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于兰香不再打算退学，把好朋友金秀高兴得笑逐颜开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰香</t>
+  </si>
+  <si>
+    <t>兰香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《使徒行者2:谍影行动》由张家辉、古天乐、吴镇宇主演，谁是卧底是最大看点；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家辉</t>
+  </si>
+  <si>
+    <t>古天乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴镇宇</t>
+  </si>
+  <si>
+    <t>《使徒行者3:谍影行动》由张家辉、古天乐、吴镇宇主演，谁是卧底是最大看点；</t>
+  </si>
+  <si>
+    <t>《使徒行者4:谍影行动》由张家辉、古天乐、吴镇宇主演，谁是卧底是最大看点；</t>
+  </si>
+  <si>
+    <t>6月26日，汪峰旧爱葛荟婕在微博发文：“我。。。。。。终于可以不再爱你了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛荟婕</t>
+  </si>
+  <si>
+    <t>但李尚平去世后，4岁的儿子李文博（化名）突然没人照顾了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文博</t>
+  </si>
+  <si>
+    <t>“反腐英雄郭建民女儿郭桂芳失踪”一案取得了进一步进展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就连黔军二十八师师长王天锡也惊慌失措，用侗语打电话急告兄长王天培：“哥，不好了，袁总在常德被人刺杀了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王天锡</t>
+  </si>
+  <si>
+    <t>王天培</t>
+  </si>
+  <si>
+    <t>但李维民汇报，马云波的爱人于慧曾替马云波挡毒贩的枪，弹丸至今仍未全部取出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李维民</t>
+  </si>
+  <si>
+    <t>马云波</t>
+  </si>
+  <si>
+    <t>于慧</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月20日，韩国演员李必模通过经纪公司公布妻子徐秀妍怀孕的喜讯，虽然没有透露具体的预产期日期，但是经纪公司也表示两人的宝宝应该是今年出生，消息传出后后也立刻得到了众多粉丝的祝福。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李必模</t>
+  </si>
+  <si>
+    <t>徐秀妍</t>
+  </si>
+  <si>
+    <t>孙玉亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙少安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公社主任周文龙和石圪节公社主任白明川是高中的同班同学，也是同一年当了公社武装专干的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周文龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白明川</t>
+  </si>
+  <si>
+    <t>孙玉厚一听就火了，正要开口数落老婆，就听见女儿兰香在灶火圪崂里说：“妈，猪我已经喂过了……”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但在北京一家事业单位上班的郭凤发现，她的女儿果果却不能理解用抽象的数学语言表述“1+1=2”，因为果果是一名自闭症儿童。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果果</t>
+  </si>
+  <si>
+    <t>李玉琴，（1928-2001）爱新觉罗·溥仪的第四位妻子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱新觉罗·溥仪</t>
+  </si>
+  <si>
+    <t>此外，其他在这封信上签名的还包括Facebook联合创始人克里斯·休斯，伯克希尔副董事长查理·芒格的女儿莫莉·芒格等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克里斯·休斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查理·芒格</t>
+  </si>
+  <si>
+    <t>莫莉·芒格</t>
+  </si>
+  <si>
+    <t>2007年秋天，六年级的王连彪见到了人生中的第一个英语老师——蔡沅鋹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王连彪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡沅鋹</t>
+  </si>
+  <si>
+    <t>登云过去一直是徐国强的老下级，是老汉一手提拔起来的，因此李主任一直对徐老很尊敬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登云</t>
+  </si>
+  <si>
+    <t>贺耀宗和他的大女儿秀英、女婿常有林也满心喜欢他，这亲事竟然三锤两棒就定了音。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺耀宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀英</t>
+  </si>
+  <si>
+    <t>常有林</t>
   </si>
 </sst>
 </file>
@@ -15733,10 +16478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E723F4E-CCCC-CB4F-8E00-CADB81944E23}">
-  <dimension ref="A1:D2107"/>
+  <dimension ref="A1:D2245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2101" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D2108" sqref="D2108"/>
+    <sheetView tabSelected="1" topLeftCell="A2237" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D2243" sqref="D2243:D2245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21570,7 +22315,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" ht="32">
       <c r="A417" s="1" t="s">
         <v>651</v>
       </c>
@@ -45244,6 +45989,1938 @@
       </c>
       <c r="D2107" s="24" t="s">
         <v>4142</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:4" ht="17">
+      <c r="A2108" t="s">
+        <v>892</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>903</v>
+      </c>
+      <c r="C2108" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2108" s="24" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:4" ht="17">
+      <c r="A2109" t="s">
+        <v>892</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>4145</v>
+      </c>
+      <c r="C2109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2109" s="24" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:4" ht="17">
+      <c r="A2110" t="s">
+        <v>903</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>4145</v>
+      </c>
+      <c r="C2110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2110" s="24" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:4" ht="17">
+      <c r="A2111" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>4148</v>
+      </c>
+      <c r="C2111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2111" s="24" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:4" ht="17">
+      <c r="A2112" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>4151</v>
+      </c>
+      <c r="C2112" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2112" s="24" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:4" ht="17">
+      <c r="A2113" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>4154</v>
+      </c>
+      <c r="C2113" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2113" s="24" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:4" ht="17">
+      <c r="A2114" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2114" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2114" s="24" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:4" ht="17">
+      <c r="A2115" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C2115" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2115" s="24" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:4" ht="17">
+      <c r="A2116" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2116" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2116" s="24" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:4" ht="17">
+      <c r="A2117" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C2117" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2117" s="24" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:4" ht="17">
+      <c r="A2118" t="s">
+        <v>807</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C2118" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2118" s="24" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:4" ht="17">
+      <c r="A2119" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>4164</v>
+      </c>
+      <c r="C2119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2119" s="24" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4" ht="17">
+      <c r="A2120" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C2120" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2120" s="24" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4" ht="17">
+      <c r="A2121" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C2121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2121" s="24" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4" ht="17">
+      <c r="A2122" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C2122" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2122" s="24" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4" ht="17">
+      <c r="A2123" t="s">
+        <v>4169</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C2123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2123" s="24" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:4" ht="17">
+      <c r="A2124" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2124" s="24" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:4" ht="17">
+      <c r="A2125" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C2125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2125" s="24" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:4" ht="17">
+      <c r="A2126" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C2126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2126" s="24" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4" ht="17">
+      <c r="A2127" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>4176</v>
+      </c>
+      <c r="C2127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2127" s="24" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:4" ht="17">
+      <c r="A2128" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C2128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2128" s="24" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:4" ht="17">
+      <c r="A2129" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C2129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2129" s="24" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:4" ht="17">
+      <c r="A2130" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C2130" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2130" s="24" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:4" ht="17">
+      <c r="A2131" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>4181</v>
+      </c>
+      <c r="C2131" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2131" s="24" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:4" ht="17">
+      <c r="A2132" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>4181</v>
+      </c>
+      <c r="C2132" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2132" s="24" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4" ht="17">
+      <c r="A2133" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>4186</v>
+      </c>
+      <c r="C2133" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2133" s="24" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4" ht="17">
+      <c r="A2134" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>4189</v>
+      </c>
+      <c r="C2134" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2134" s="24" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4" ht="17">
+      <c r="A2135" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C2135" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2135" s="24" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4" ht="17">
+      <c r="A2136" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>4193</v>
+      </c>
+      <c r="C2136" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2136" s="24" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4" ht="17">
+      <c r="A2137" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C2137" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2137" s="24" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4" ht="17">
+      <c r="A2138" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>4195</v>
+      </c>
+      <c r="C2138" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2138" s="24" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4" ht="17">
+      <c r="A2139" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>4193</v>
+      </c>
+      <c r="C2139" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2139" s="24" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4" ht="17">
+      <c r="A2140" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C2140" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2140" s="24" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4" ht="17">
+      <c r="A2141" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>4195</v>
+      </c>
+      <c r="C2141" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2141" s="24" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:4" ht="17">
+      <c r="A2142" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C2142" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2142" s="24" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4" ht="17">
+      <c r="A2143" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>4195</v>
+      </c>
+      <c r="C2143" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2143" s="24" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:4" ht="17">
+      <c r="A2144" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>4195</v>
+      </c>
+      <c r="C2144" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2144" s="24" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4" ht="17">
+      <c r="A2145" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>4199</v>
+      </c>
+      <c r="C2145" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2145" s="24" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4" ht="17">
+      <c r="A2146" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C2146" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2146" s="24" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:4" ht="17">
+      <c r="A2147" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C2147" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2147" s="24" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:4" ht="17">
+      <c r="A2148" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C2148" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2148" s="24" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:4" ht="17">
+      <c r="A2149" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>4205</v>
+      </c>
+      <c r="C2149" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2149" s="24" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" ht="17">
+      <c r="A2150" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>4209</v>
+      </c>
+      <c r="C2150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2150" s="24" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" ht="17">
+      <c r="A2151" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C2151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2151" s="24" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" ht="17">
+      <c r="A2152" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>4213</v>
+      </c>
+      <c r="C2152" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2152" s="24" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:4" ht="17">
+      <c r="A2153" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>4213</v>
+      </c>
+      <c r="C2153" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2153" s="24" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:4" ht="17">
+      <c r="A2154" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>4216</v>
+      </c>
+      <c r="C2154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2154" s="24" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:4" ht="17">
+      <c r="A2155" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>4219</v>
+      </c>
+      <c r="C2155" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2155" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:4" ht="17">
+      <c r="A2156" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>4220</v>
+      </c>
+      <c r="C2156" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2156" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:4" ht="17">
+      <c r="A2157" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C2157" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2157" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:4" ht="17">
+      <c r="A2158" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>4222</v>
+      </c>
+      <c r="C2158" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2158" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:4" ht="17">
+      <c r="A2159" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C2159" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2159" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:4" ht="17">
+      <c r="A2160" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C2160" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2160" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:4" ht="17">
+      <c r="A2161" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>4220</v>
+      </c>
+      <c r="C2161" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2161" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:4" ht="17">
+      <c r="A2162" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C2162" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2162" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:4" ht="17">
+      <c r="A2163" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>4222</v>
+      </c>
+      <c r="C2163" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2163" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:4" ht="17">
+      <c r="A2164" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C2164" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2164" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:4" ht="17">
+      <c r="A2165" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C2165" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2165" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:4" ht="17">
+      <c r="A2166" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C2166" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2166" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:4" ht="17">
+      <c r="A2167" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>4222</v>
+      </c>
+      <c r="C2167" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2167" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:4" ht="17">
+      <c r="A2168" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C2168" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2168" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:4" ht="17">
+      <c r="A2169" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C2169" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2169" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:4" ht="17">
+      <c r="A2170" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>4222</v>
+      </c>
+      <c r="C2170" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2170" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" ht="17">
+      <c r="A2171" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C2171" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2171" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" ht="17">
+      <c r="A2172" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C2172" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2172" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" ht="17">
+      <c r="A2173" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C2173" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2173" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" ht="17">
+      <c r="A2174" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C2174" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2174" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" ht="17">
+      <c r="A2175" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C2175" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2175" s="24" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:4" ht="17">
+      <c r="A2176" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C2176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2176" s="24" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" ht="17">
+      <c r="A2177" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C2177" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2177" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" ht="17">
+      <c r="A2178" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C2178" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2178" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" ht="17">
+      <c r="A2179" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C2179" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2179" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:4" ht="17">
+      <c r="A2180" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C2180" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2180" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:4" ht="17">
+      <c r="A2181" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C2181" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2181" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:4" ht="17">
+      <c r="A2182" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C2182" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2182" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:4" ht="17">
+      <c r="A2183" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C2183" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2183" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:4" ht="17">
+      <c r="A2184" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C2184" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2184" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:4" ht="17">
+      <c r="A2185" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C2185" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2185" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:4" ht="17">
+      <c r="A2186" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C2186" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2186" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:4" ht="17">
+      <c r="A2187" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C2187" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2187" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:4" ht="17">
+      <c r="A2188" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C2188" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2188" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:4" ht="17">
+      <c r="A2189" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C2189" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2189" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:4" ht="17">
+      <c r="A2190" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C2190" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2190" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:4" ht="17">
+      <c r="A2191" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C2191" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2191" s="24" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:4" ht="17">
+      <c r="A2192" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C2192" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2192" s="24" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:4" ht="17">
+      <c r="A2193" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>4239</v>
+      </c>
+      <c r="C2193" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2193" s="24" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:4" ht="17">
+      <c r="A2194" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C2194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2194" s="24" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:4" ht="17">
+      <c r="A2195" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>4243</v>
+      </c>
+      <c r="C2195" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2195" s="24" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:4" ht="17">
+      <c r="A2196" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>4243</v>
+      </c>
+      <c r="C2196" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2196" s="24" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:4" ht="17">
+      <c r="A2197" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C2197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2197" s="24" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:4" ht="17">
+      <c r="A2198" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>4251</v>
+      </c>
+      <c r="C2198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2198" s="24" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:4" ht="17">
+      <c r="A2199" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C2199" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2199" s="24" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:4" ht="17">
+      <c r="A2200" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C2200" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2200" s="24" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:4" ht="17">
+      <c r="A2201" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>4255</v>
+      </c>
+      <c r="C2201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2201" s="24" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:4" ht="17">
+      <c r="A2202" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C2202" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2202" s="24" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:4" ht="17">
+      <c r="A2203" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>4257</v>
+      </c>
+      <c r="C2203" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2203" s="24" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:4" ht="17">
+      <c r="A2204" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C2204" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2204" s="24" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:4" ht="17">
+      <c r="A2205" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>4257</v>
+      </c>
+      <c r="C2205" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2205" s="24" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:4" ht="17">
+      <c r="A2206" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>4257</v>
+      </c>
+      <c r="C2206" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2206" s="24" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:4" ht="17">
+      <c r="A2207" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>4259</v>
+      </c>
+      <c r="C2207" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2207" s="24" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:4" ht="18">
+      <c r="A2208" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C2208" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2208" s="25" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:4" ht="17">
+      <c r="A2209" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>4265</v>
+      </c>
+      <c r="C2209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2209" s="24" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:4" ht="17">
+      <c r="A2210" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C2210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2210" s="24" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:4" ht="17">
+      <c r="A2211" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C2211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2211" s="24" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:4" ht="17">
+      <c r="A2212" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>4269</v>
+      </c>
+      <c r="C2212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2212" s="24" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:4" ht="17">
+      <c r="A2213" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>4272</v>
+      </c>
+      <c r="C2213" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2213" s="24" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:4" ht="17">
+      <c r="A2214" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>4275</v>
+      </c>
+      <c r="C2214" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2214" s="24" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:4" ht="17">
+      <c r="A2215" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>4278</v>
+      </c>
+      <c r="C2215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2215" s="24" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:4" ht="17">
+      <c r="A2216" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>4280</v>
+      </c>
+      <c r="C2216" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2216" s="24" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:4" ht="17">
+      <c r="A2217" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C2217" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2217" s="24" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:4" ht="17">
+      <c r="A2218" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>4286</v>
+      </c>
+      <c r="C2218" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2218" s="24" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:4" ht="17">
+      <c r="A2219" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>4290</v>
+      </c>
+      <c r="C2219" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2219" s="24" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:4" ht="17">
+      <c r="A2220" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>4293</v>
+      </c>
+      <c r="C2220" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2220" s="24" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:4" ht="17">
+      <c r="A2221" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>4294</v>
+      </c>
+      <c r="C2221" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2221" s="24" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:4" ht="17">
+      <c r="A2222" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>4293</v>
+      </c>
+      <c r="C2222" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2222" s="24" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:4" ht="17">
+      <c r="A2223" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C2223" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2223" s="24" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:4" ht="17">
+      <c r="A2224" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C2224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2224" s="24" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:4" ht="17">
+      <c r="A2225" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2225" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2225" s="24" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:4" ht="17">
+      <c r="A2226" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>4304</v>
+      </c>
+      <c r="C2226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2226" s="24" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:4" ht="17">
+      <c r="A2227" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C2227" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2227" s="24" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:4" ht="17">
+      <c r="A2228" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C2228" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2228" s="24" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:4" ht="17">
+      <c r="A2229" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C2229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2229" s="24" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:4" ht="18">
+      <c r="A2230" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C2230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2230" s="25" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:4" ht="17">
+      <c r="A2231" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C2231" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2231" s="24" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:4" ht="17">
+      <c r="A2232" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C2232" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2232" s="24" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:4" ht="17">
+      <c r="A2233" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C2233" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2233" s="24" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:4" ht="17">
+      <c r="A2234" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C2234" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2234" s="24" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:4" ht="17">
+      <c r="A2235" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>4288</v>
+      </c>
+      <c r="C2235" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2235" s="24" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:4" ht="17">
+      <c r="A2236" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C2236" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2236" s="24" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:4" ht="17">
+      <c r="A2237" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C2237" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2237" s="24" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:4" ht="17">
+      <c r="A2238" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C2238" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2238" s="24" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:4" ht="17">
+      <c r="A2239" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C2239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2239" s="24" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:4" ht="17">
+      <c r="A2240" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C2240" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2240" s="24" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:4" ht="17">
+      <c r="A2241" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>4330</v>
+      </c>
+      <c r="C2241" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2241" s="24" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:4" ht="17">
+      <c r="A2242" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C2242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2242" s="24" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:4" ht="17">
+      <c r="A2243" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>4335</v>
+      </c>
+      <c r="C2243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2243" s="24" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:4" ht="17">
+      <c r="A2244" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>4336</v>
+      </c>
+      <c r="C2244" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2244" s="24" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:4" ht="17">
+      <c r="A2245" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>4336</v>
+      </c>
+      <c r="C2245" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2245" s="24" t="s">
+        <v>4333</v>
       </c>
     </row>
   </sheetData>

--- a/data/人物关系表.xlsx
+++ b/data/人物关系表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/people_relation_extract/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0803F49A-F6AF-2945-B1DA-43D61B2F27E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965F0D1E-D8B2-A746-AE71-9B41BE5CB867}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8978" uniqueCount="4337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10186" uniqueCount="4770">
   <si>
     <t>人物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15829,12 +15829,1890 @@
   <si>
     <t>常有林</t>
   </si>
+  <si>
+    <t>航宇是路遥的同乡、同事、朋友，在路遥生命最后的两年，他如亲人般陪伴、照顾路遥，也见证了路遥最后的沉重、抗争和无奈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航宇</t>
+  </si>
+  <si>
+    <t>路遥</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月12日与13日两天，知名歌手曲婉婷的母亲张明杰又一次站在了哈尔滨市中级人民法院的审判席上出庭受审。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲婉婷</t>
+  </si>
+  <si>
+    <t>张明杰</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日，新加坡总理李显龙夫人何晶在其个人脸书转发撑警大联盟官方讨论区的帖子，力挺香港警察。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李显龙</t>
+  </si>
+  <si>
+    <t>何晶</t>
+  </si>
+  <si>
+    <t>被常仁尧掌掴的班主任老师张清林，是他初二年级的班主任兼英语老师，仅带了常仁尧初二一学年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常仁尧</t>
+  </si>
+  <si>
+    <t>张清林</t>
+  </si>
+  <si>
+    <t>李萍小儿子石祥林去北京寻求答案，找到中国人体器官捐献管理中心，在系统里完全查不到母亲的捐献信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李萍</t>
+  </si>
+  <si>
+    <t>石祥林</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1989</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，宋卫平的好基友周庆治也到了珠海。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋卫平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周庆治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Drive.ai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联合创始人兼CEO坦顿是吴恩达的学生。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦顿</t>
+  </si>
+  <si>
+    <t>吴恩达</t>
+  </si>
+  <si>
+    <t>李飞通过林宗辉的女儿林兰约见林宗辉，李飞告诉他们林三宝的车祸不是意外，而是林天昊安排人故意杀害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林宗辉</t>
+  </si>
+  <si>
+    <t>林兰</t>
+  </si>
+  <si>
+    <t>林三宝</t>
+  </si>
+  <si>
+    <t>林天昊</t>
+  </si>
+  <si>
+    <t>报道称，上面还有美国总统奥巴马和第一夫人米歇尔的签名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥巴马</t>
+  </si>
+  <si>
+    <t>米歇尔</t>
+  </si>
+  <si>
+    <t>安瓦尔此前曾是马哈蒂尔的助手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安瓦尔</t>
+  </si>
+  <si>
+    <t>马哈蒂尔</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>780</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，利奥四世在准备攻打保加利亚时去世，临终前任命其妻伊琳娜为其子君士坦丁六世的唯一监护人。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利奥四世</t>
+  </si>
+  <si>
+    <t>伊琳娜</t>
+  </si>
+  <si>
+    <t>君士坦丁六世</t>
+  </si>
+  <si>
+    <t>田雨，解放军华东军区后方医院护士，李云龙第二任妻子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李云龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思力娶唐高祖李渊之女九江公主为妻，并赐铁劵，官驸马都尉，封安国公。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九江公主</t>
+  </si>
+  <si>
+    <t>杨超宇女友韩一玮告诉北青报记者，杨超宇鼻子不舒服有一段时间了，最近则越来越严重，影响到了睡眠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨超宇</t>
+  </si>
+  <si>
+    <t>韩一玮</t>
+  </si>
+  <si>
+    <t>而聂腾飞的弟弟聂腾云离开申通创办了“韵达”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂腾飞</t>
+  </si>
+  <si>
+    <t>聂腾云</t>
+  </si>
+  <si>
+    <t>原来大汉奸吴三桂的大儿子吴应熊，来到了京城。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴三桂</t>
+  </si>
+  <si>
+    <t>吴应熊</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月11日，相声演员曹云金宣布自己和妻子唐菀因性格不合协议离婚，孩子归双方同抚养。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹云金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐菀</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月22日，李玟晒出了自己助阵师姐郑秀文演唱会的照片。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玟</t>
+  </si>
+  <si>
+    <t>郑秀文</t>
+  </si>
+  <si>
+    <t>林震南纵身下马，只见妻子王夫人铁青着脸，道：“你瞧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王夫人</t>
+  </si>
+  <si>
+    <t>公告指出，周良璋和李小青之子周君鹤持有海兴控股37.40%的股份，根据海兴控股《公司章程》约定，周君鹤将其持有的27.40%股份表决权授予了周良璋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周良璋</t>
+  </si>
+  <si>
+    <t>李小青</t>
+  </si>
+  <si>
+    <t>周君鹤</t>
+  </si>
+  <si>
+    <t>公告指出，周良璋和李小青之子周君鹤持有海兴控股37.40%的股份，根据海兴控股《公司章程》约定，周君鹤将其持有的27.41%股份表决权授予了周良璋。</t>
+  </si>
+  <si>
+    <t>公告指出，周良璋和李小青之子周君鹤持有海兴控股37.40%的股份，根据海兴控股《公司章程》约定，周君鹤将其持有的27.42%股份表决权授予了周良璋。</t>
+  </si>
+  <si>
+    <t>中午吃饭时，王婆婆的大孙媳妇梁翠华给老人做了绿豆稀饭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王婆婆</t>
+  </si>
+  <si>
+    <t>梁翠华</t>
+  </si>
+  <si>
+    <t>如果这姑娘象贺凤英一样，那孙少安这辈子就别想过好日子了，他二爸孙玉亭就是他的“榜样”！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺凤英</t>
+  </si>
+  <si>
+    <t>润叶嘿嘿笑了，赶忙对二爸说：“金波是金俊海的小子。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润叶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，陈小英的第二任丈夫奚春阳出任天天快递董事长。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈小英</t>
+  </si>
+  <si>
+    <t>奚春阳</t>
+  </si>
+  <si>
+    <t>时任中信业务部副总经理、孔丹的老大哥王军也极力说服孔丹去中信。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔丹</t>
+  </si>
+  <si>
+    <t>王军</t>
+  </si>
+  <si>
+    <t>冯鑫被称为贾跃亭的学徒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾跃亭</t>
+  </si>
+  <si>
+    <t>冯鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺阳公主嫁给北燕皇室后裔冯穆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺阳公主</t>
+  </si>
+  <si>
+    <t>冯穆</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1998</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，聂腾飞因车祸不幸离世，陈小英与其兄陈德军一起接盘了申通快递。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈德军</t>
+  </si>
+  <si>
+    <t>林宗辉想起儿子林三宝遭遇车祸的场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛荟婕在18岁那年为比自己大16岁的汪峰生下了一个女儿小苹果，只可惜这段感情来的快去得也快，两人最终分道扬镳彼此各奔东西，而女儿小苹果则归汪峰抚养。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小苹果</t>
+  </si>
+  <si>
+    <t>作者：童教英（浙江大学教授、童书业先生之女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童教英</t>
+  </si>
+  <si>
+    <t>童书业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾德公爵娶奔流城徒利家族的长女凯特琳·徒利为妻，二人共育三子二女，分别为长子罗柏、长女珊莎、次女艾莉亚、次子布兰和幼子瑞肯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾德公爵</t>
+  </si>
+  <si>
+    <t>凯特琳·徒利</t>
+  </si>
+  <si>
+    <t>罗柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾莉亚</t>
+  </si>
+  <si>
+    <t>布兰</t>
+  </si>
+  <si>
+    <t>瑞肯</t>
+  </si>
+  <si>
+    <t>在朝鲜群众浪潮般的欢呼声中，习近平和夫人彭丽媛步出舱门，金正恩和夫人李雪主在舷梯旁热情迎接。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金正恩</t>
+  </si>
+  <si>
+    <t>李雪主</t>
+  </si>
+  <si>
+    <t>除开长沙朗佳的持股，威佳创建持有威胜集团100%股权，吉为是威胜集团实际控制人，且吉为是吉喆之父。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉为</t>
+  </si>
+  <si>
+    <t>吉喆</t>
+  </si>
+  <si>
+    <t>马云波说曾想要发展林宗辉的儿子林三宝作为线人，然而蔡永强并不积极，随后林三宝车祸死亡，肇事司机刘志也在一年后死于肺癌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡永强</t>
+  </si>
+  <si>
+    <t>刘志</t>
+  </si>
+  <si>
+    <t>护村队员黑飘的丈夫央曾也是一名吸毒人员，黑飘加入女子护村队后举报央曾，警察将央曾抓去强制戒毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑飘</t>
+  </si>
+  <si>
+    <t>央曾</t>
+  </si>
+  <si>
+    <t>刘菊花，中国科普作家方舟子的妻子，新华社记者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘菊花</t>
+  </si>
+  <si>
+    <t>方舟子</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年6月18日伍咏薇大方回应丈夫练海棠被拍摄到与女伴在一起。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍咏薇</t>
+  </si>
+  <si>
+    <t>练海棠</t>
+  </si>
+  <si>
+    <t>蔡晓芳为蔡祖明、王茶英之女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡晓芳</t>
+  </si>
+  <si>
+    <t>蔡祖明</t>
+  </si>
+  <si>
+    <t>王茶英</t>
+  </si>
+  <si>
+    <t>陈小英与陈德军是兄妹关系，陈小英的第一任丈夫为聂腾飞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林平之被岳不群救回成了唯一幸存者并收为旗下弟子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活中，于谦收了搭档郭德纲的儿子郭麒麟为徒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于谦</t>
+  </si>
+  <si>
+    <t>郭麒麟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他表示，李嘉诚这么做存在如下考虑：一方面，李嘉诚要扶持儿子李泽钜接班，这需要让李泽钜向股东们表现出有接班的能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李嘉诚</t>
+  </si>
+  <si>
+    <t>李泽钜</t>
+  </si>
+  <si>
+    <t>其中不少人的父母是民乐手，崔健的父亲崔雄济是一名小号演奏家，窦唯的父亲窦绍儒是一名管乐手，刘元的父亲刘凤桐是著名的唢呐演奏家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔健</t>
+  </si>
+  <si>
+    <t>崔雄济</t>
+  </si>
+  <si>
+    <t>窦唯</t>
+  </si>
+  <si>
+    <t>窦绍儒</t>
+  </si>
+  <si>
+    <t>刘元</t>
+  </si>
+  <si>
+    <t>刘凤桐</t>
+  </si>
+  <si>
+    <t>前阵子，山口百惠的儿子佑太郎曾经在节目中自曝，母亲如今已经不太记得早年做明星时的种种，甚至连昔日的签名都忘了怎么写。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山口百惠</t>
+  </si>
+  <si>
+    <t>佑太郎</t>
+  </si>
+  <si>
+    <t>爆料还指出，张雨绮前夫袁巴元支付给她的千万赡养费，也被张钱豪骗走了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张雨绮</t>
+  </si>
+  <si>
+    <t>袁巴元</t>
+  </si>
+  <si>
+    <t>张钱豪</t>
+  </si>
+  <si>
+    <t>今年5月，李晓江和李世华夫妇的神经科学研究团队被佐治亚州埃默里大学解雇，原因是他们被指控未能披露与中国的资金关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晓江</t>
+  </si>
+  <si>
+    <t>李世华</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1949</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年后，格拉娘随陈昌浩到中国，结识了李立三夫人李莎，成为密友。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格拉娘</t>
+  </si>
+  <si>
+    <t>陈昌浩</t>
+  </si>
+  <si>
+    <t>李立三</t>
+  </si>
+  <si>
+    <t>李莎</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1950年后，格拉娘随陈昌浩到中国，结识了李立三夫人李莎，成为密友。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1951年后，格拉娘随陈昌浩到中国，结识了李立三夫人李莎，成为密友。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1952年后，格拉娘随陈昌浩到中国，结识了李立三夫人李莎，成为密友。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1953年后，格拉娘随陈昌浩到中国，结识了李立三夫人李莎，成为密友。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1954年后，格拉娘随陈昌浩到中国，结识了李立三夫人李莎，成为密友。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>陈安宁的前任是现任福特亚太区总裁傅礼德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈安宁</t>
+  </si>
+  <si>
+    <t>傅礼德</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年1月，李兆会从父亲李海仓手里接手海鑫钢铁集团。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李兆会</t>
+  </si>
+  <si>
+    <t>李海仓</t>
+  </si>
+  <si>
+    <t>张嘉玲毕业于警官学校，2012年，蔡英文首度参加台湾地区领导人选举时，就曾担任过蔡英文的随扈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嘉玲</t>
+  </si>
+  <si>
+    <t>蔡英文</t>
+  </si>
+  <si>
+    <t>近日，随着法槌重重落下，吕忠福、吕键微父子二人通过虚报方式，骗取、贪污国家农业补贴资金一案在浙江省东阳市人民法院作出判决，吕忠福犯诈骗罪、贪污罪，被判处有期徒刑一年六个月，并处罚金人民币110000元；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕忠福</t>
+  </si>
+  <si>
+    <t>吕键微</t>
+  </si>
+  <si>
+    <t>据中国新闻周刊披露，秦岭是云南省委原书记秦光荣之子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦岭</t>
+  </si>
+  <si>
+    <t>秦光荣</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1978</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年孔丹考上著名经济学家吴敬琏的硕士研究生，成为其开门弟子。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴敬琏</t>
+  </si>
+  <si>
+    <t>付国豪高一时的班主任雷颖告诉记者，他在高中时学习就很好，是三好学生，还是数学课代表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付国豪</t>
+  </si>
+  <si>
+    <t>雷颖</t>
+  </si>
+  <si>
+    <t>据企查查显示，尹氏家族四人持有力帆控股100%股权，其中尹明善持股26.5%，其妻陈巧凤及儿子尹喜地、女儿尹索微分别持股24.5%。也就是说，力帆股份的实际控制人为尹氏家族四人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹明善</t>
+  </si>
+  <si>
+    <t>陈巧凤</t>
+  </si>
+  <si>
+    <t>尹喜地</t>
+  </si>
+  <si>
+    <t>尹索微</t>
+  </si>
+  <si>
+    <t>据企查查显示，尹氏家族四人持有力帆控股100%股权，其中尹明善持股26.5%，其妻陈巧凤及儿子尹喜地、女儿尹索微分别持股24.6%。也就是说，力帆股份的实际控制人为尹氏家族四人。</t>
+  </si>
+  <si>
+    <t>据企查查显示，尹氏家族四人持有力帆控股100%股权，其中尹明善持股26.5%，其妻陈巧凤及儿子尹喜地、女儿尹索微分别持股24.7%。也就是说，力帆股份的实际控制人为尹氏家族四人。</t>
+  </si>
+  <si>
+    <t>据企查查显示，尹氏家族四人持有力帆控股100%股权，其中尹明善持股26.5%，其妻陈巧凤及儿子尹喜地、女儿尹索微分别持股24.8%。也就是说，力帆股份的实际控制人为尹氏家族四人。</t>
+  </si>
+  <si>
+    <t>据企查查显示，尹氏家族四人持有力帆控股100%股权，其中尹明善持股26.5%，其妻陈巧凤及儿子尹喜地、女儿尹索微分别持股24.9%。也就是说，力帆股份的实际控制人为尹氏家族四人。</t>
+  </si>
+  <si>
+    <t>据企查查显示，尹氏家族四人持有力帆控股100%股权，其中尹明善持股26.5%，其妻陈巧凤及儿子尹喜地、女儿尹索微分别持股24.10%。也就是说，力帆股份的实际控制人为尹氏家族四人。</t>
+  </si>
+  <si>
+    <t>与以上不准备让子女继承公司的企业不同，2016年11月21日美特斯邦威创始人周成建宣布退位，由30岁的女儿胡佳佳接任董事长、总裁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周成建</t>
+  </si>
+  <si>
+    <t>胡佳佳</t>
+  </si>
+  <si>
+    <t>这女孩儿李沅芷是总兵李可秀的独生女儿，是他在湘西做参将任内所生，给女儿取这名字，是纪念生地之意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李可秀</t>
+  </si>
+  <si>
+    <t>李沅芷</t>
+  </si>
+  <si>
+    <t>电影讲述了法国王后玛丽·安东妮的生平故事，从15岁的她被母亲玛利亚·泰瑞莎告知她即将嫁给路易十六，到最终走上断头台的一生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛丽·安东</t>
+  </si>
+  <si>
+    <t>玛利亚·泰瑞莎</t>
+  </si>
+  <si>
+    <t>路易十六</t>
+  </si>
+  <si>
+    <t>电影讲述了法国王后玛丽·安东妮的生平故事，从16岁的她被母亲玛利亚·泰瑞莎告知她即将嫁给路易十六，到最终走上断头台的一生。</t>
+  </si>
+  <si>
+    <t>电影讲述了法国王后玛丽·安东妮的生平故事，从17岁的她被母亲玛利亚·泰瑞莎告知她即将嫁给路易十六，到最终走上断头台的一生。</t>
+  </si>
+  <si>
+    <t>据台湾媒体报道，梁静茹[微博]今（15日）惊传与结婚9年的老公Tony赵元同签字离婚，对此，梁静茹经纪公司高层斩钉截铁回应说：“没离婚！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵元同</t>
+  </si>
+  <si>
+    <t>罗佳怡是被她的未婚夫何瑞龙雇人杀害的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗佳怡</t>
+  </si>
+  <si>
+    <t>何瑞龙</t>
+  </si>
+  <si>
+    <t>李筱筱与陈静高中时就是好闺蜜，陈静来宁波上大学，李筱筱到宁波工作，两人还一起合租房子，关系很亲密。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李筱筱</t>
+  </si>
+  <si>
+    <t>陈静</t>
+  </si>
+  <si>
+    <t>2009年12月底媒体曝料：雪村娇妻俞晴沿街乞讨愈演愈烈，不论网友的反应如何激烈，俞晴还是不断的公开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪村</t>
+  </si>
+  <si>
+    <t>俞晴</t>
+  </si>
+  <si>
+    <t>许亚军的现任妻子张澍，也是一位演员，比许亚军小了12岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许亚军</t>
+  </si>
+  <si>
+    <t>张澍</t>
+  </si>
+  <si>
+    <t>许亚军毕业于中央戏剧学院表演系，和蔡国庆是同班同学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡国庆</t>
+  </si>
+  <si>
+    <t>现年55岁的戴志康是南通海门人，晚清状元、近代民族工业家张蹇的老乡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张蹇</t>
+  </si>
+  <si>
+    <t>此次权益变动后，何金明与妻子宋琦、其子何浩不再拥有对上市公司的控制权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何金明</t>
+  </si>
+  <si>
+    <t>宋琦</t>
+  </si>
+  <si>
+    <t>何浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴钰璋生于1940年，北京人，自幼随父吴松岩学习花脸，宗金（少山）派。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴钰璋</t>
+  </si>
+  <si>
+    <t>吴松岩</t>
+  </si>
+  <si>
+    <t>李现是杨紫北京电影学院同班同学，所以合作起来自然更是熟悉亲切，组CP的感觉还比较逼真。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李现</t>
+  </si>
+  <si>
+    <t>杨紫</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1956</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，82岁的老沃森离开了人世，小沃森正式接任IBM公司的总裁。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老沃森</t>
+  </si>
+  <si>
+    <t>你可曾听说，余观主的师父长青子少年之时，曾栽在林远图的辟邪剑下？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余观主</t>
+  </si>
+  <si>
+    <t>长青子</t>
+  </si>
+  <si>
+    <t>史小翠,白自在之妻，白阿绣之祖母，石破天的师父。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史小翠</t>
+  </si>
+  <si>
+    <t>白自在</t>
+  </si>
+  <si>
+    <t>白阿绣</t>
+  </si>
+  <si>
+    <t>石破天</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1975</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，何鸿燊的父亲何世光去世，享年87岁。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何鸿燊</t>
+  </si>
+  <si>
+    <t>何世光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴绮莉99年11月为已婚国际巨星成龙诞下私生女吴卓林，此后两母女的一举一动都成为大众关注的焦点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴绮莉</t>
+  </si>
+  <si>
+    <t>吴卓林</t>
+  </si>
+  <si>
+    <t>吴绮莉99年12月为已婚国际巨星成龙诞下私生女吴卓林，此后两母女的一举一动都成为大众关注的焦点。</t>
+  </si>
+  <si>
+    <t>吴绮莉99年13月为已婚国际巨星成龙诞下私生女吴卓林，此后两母女的一举一动都成为大众关注的焦点。</t>
+  </si>
+  <si>
+    <t>对于女儿的付出，傅园慧的父亲傅春昇也十分心疼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅园慧</t>
+  </si>
+  <si>
+    <t>傅春昇</t>
+  </si>
+  <si>
+    <t>甄子丹与第一任妻子梁静慈所生的儿子甄文焯如今已经24岁了，在甄子丹罕见公开的合照中虽然戴着墨镜但是还是看得出来甄文焯和父亲长得颇为相似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁静慈</t>
+  </si>
+  <si>
+    <t>甄文焯</t>
+  </si>
+  <si>
+    <t>文革时期，马海德遭到批斗、抄家，其妻子苏菲被抓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马海德</t>
+  </si>
+  <si>
+    <t>苏菲</t>
+  </si>
+  <si>
+    <t>季杨杨却不太理解自己的爸爸，当众给季胜利难堪，当众说出自己不该影响到季胜利当官的前程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季杨杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日前黄子佼透露说，自己和女友孟耿如，即将在明年四月举办婚礼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄子佼</t>
+  </si>
+  <si>
+    <t>孟耿如</t>
+  </si>
+  <si>
+    <t>邓世平的女儿邓玲(化名)和家人苦苦寻找了16年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓世平</t>
+  </si>
+  <si>
+    <t>邓玲</t>
+  </si>
+  <si>
+    <t>严惠明，是大理镇南王段正淳的情妇之一，后为丐帮副帮主马大元夫人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严惠明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段正淳</t>
+  </si>
+  <si>
+    <t>马大元</t>
+  </si>
+  <si>
+    <t>这中年美妇正是段正淳的另一个情人修罗刀秦红棉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段正淳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据台湾媒体报道，资深艺人马如龙6月9日因肺腺癌病逝，享年80岁，生前最后一段路，是由爱妻沛小岚陪在身边。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马如龙</t>
+  </si>
+  <si>
+    <t>沛小岚</t>
+  </si>
+  <si>
+    <t>杜少平正是校长黄炳松的外甥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜少平</t>
+  </si>
+  <si>
+    <t>黄炳松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘建波是甘厚美的长孙,在文家市集镇上经营一家文具店。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘厚美</t>
+  </si>
+  <si>
+    <t>白茶原名梁科栋，把笔名定为白茶，也是从创作出发考量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白茶</t>
+  </si>
+  <si>
+    <t>梁科栋</t>
+  </si>
+  <si>
+    <t>目前戴辛尉、谢霆锋是关系和睦的朋友，两家的交往也一如既往。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴辛尉</t>
+  </si>
+  <si>
+    <t>谢霆锋</t>
+  </si>
+  <si>
+    <t>共和党全国委员会主席罗娜·麦克丹尼尔，共和党“大佬”米特·罗姆尼的侄女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗娜·麦克丹尼</t>
+  </si>
+  <si>
+    <t>米特·罗姆尼</t>
+  </si>
+  <si>
+    <t>肖潇和韦琳（均为化名）既是大学同班同学，又在同一家托管所勤工俭学——这家托管所设立在江西南昌青山湖区佛塔魏村一处民宅内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖潇</t>
+  </si>
+  <si>
+    <t>韦琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尚家记得，专案组最后一任组长是蔡毅之，读书时与李尚平是同学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尚家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡毅之</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年初，时任省政府副秘书长的蒋兆岗，在与朋友聚餐过程中，认识了未婚女性龚某，此后两人迅速发展为情人关系</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋兆岗</t>
+  </si>
+  <si>
+    <t>龚某</t>
+  </si>
+  <si>
+    <t>董明珠联合王健林、刘强东等好友以个人名义共同增资30亿元，获得了珠海银隆22.388%的股权；此后的四个月内，董明珠又曾两次增资，最新的股东名单显示，董明珠个人持股比例达17.46%，位列珠海银隆的第二大股东，持股比例仅次于广东银通投资控股集团有限公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董明珠</t>
+  </si>
+  <si>
+    <t>王健林</t>
+  </si>
+  <si>
+    <t>刘强东</t>
+  </si>
+  <si>
+    <t>董明珠联合王健林、刘强东等好友以个人名义共同增资30亿元，获得了珠海银隆22.388%的股权；此后的四个月内，董明珠又曾两次增资，最新的股东名单显示，董明珠个人持股比例达17.47%，位列珠海银隆的第二大股东，持股比例仅次于广东银通投资控股集团有限公司。</t>
+  </si>
+  <si>
+    <t>董明珠联合王健林、刘强东等好友以个人名义共同增资30亿元，获得了珠海银隆22.388%的股权；此后的四个月内，董明珠又曾两次增资，最新的股东名单显示，董明珠个人持股比例达17.48%，位列珠海银隆的第二大股东，持股比例仅次于广东银通投资控股集团有限公司。</t>
+  </si>
+  <si>
+    <t>何绍周，生于贵州省兴义县，何应钦之侄，国民革命军中将。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何绍周</t>
+  </si>
+  <si>
+    <t>何应钦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年9月9日，刘翔在微博公布照片，他在9月结婚，妻子为演员葛天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘翔</t>
+  </si>
+  <si>
+    <t>葛天</t>
+  </si>
+  <si>
+    <t>自从与日籍丈夫黑泽良平结婚后，婚姻生活便是林志玲逃不开的话题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑泽良平</t>
+  </si>
+  <si>
+    <t>在这样辛苦的条件下，孙振元却和侄子孙志伟在长城上接力巡查，一走就是40余年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙振元</t>
+  </si>
+  <si>
+    <t>孙志伟</t>
+  </si>
+  <si>
+    <t>王铮是哥哥，王鹏是弟弟，一个前往深圳，一个去往上海，两条线路虽未交汇，却方向一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王铮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万枚子的祖父万际轩，是清光绪二年（1876）以进士身份从潜江城区万氏家族走入仕途的最高学历者，他一生虽然宦迹平平，但教育培养子孙及家族后人读书立世尤为成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万枚子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万际轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛瑾定居曲阿后，与当地名人张承、步骘等人相友善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛瑾</t>
+  </si>
+  <si>
+    <t>诸葛瑾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐悲鸿（1895-1953年），汉族，原名徐寿康，江苏宜兴市屺亭镇人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐悲鸿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐寿康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近，王菲和李亚鹏的女儿李嫣在个人社交平台发了一张小学毕业照。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王菲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐帆是冯小刚的妻子，应该是代替老公来参加的了，冯小刚和成龙的私交不错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐帆</t>
+  </si>
+  <si>
+    <t>冯小刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘正风的女儿刘菁怒骂：“奸贼，你嵩山派比魔教奸恶万倍！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘正风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘菁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时还传出，谢长廷妻子游芳枝2016年8月从日本专程返台，就是为了帮他清理欠款，但事后谢长廷发出声明否认。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本案主人公徐瑞丽，正是原云南农信联社党委书记蒋兆岗的妻子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐瑞丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋兆岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛瑾，(174-240)诸葛亮之兄，诸葛恪之父，经鲁肃推荐，为东吴效力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛恪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁肃</t>
+  </si>
+  <si>
+    <t>诸葛瑾(174～241年)，字子瑜，徐州琅琊郡阳都(山东沂南)人，诸葛亮之兄，为东吴大将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那年，清河口边防连连长石旭峰妻子刘海亭第一次来队探亲，坐汽车走在戈壁滩“搓板路”上，一路颠簸，一路心凉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石旭峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘海亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沈阳女儿沈佳润当初露相时，其脸的相似度也震惊了所有人，但众所周知小沈阳并不是什么神仙颜值，当时外界一度嘲笑沈佳润皮肤黝黑长相土气，但几年过后沈佳润成功逆袭高级脸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沈阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈佳润</t>
+  </si>
+  <si>
+    <t>梁玛丽于1926年病故后，1930年，张静江与国民党元老陈友仁之女张荔英在巴黎结婚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁玛丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈友仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁玛丽于1926年病故后，1931年，张静江与国民党元老陈友仁之女张荔英在巴黎结婚。</t>
+  </si>
+  <si>
+    <t>梁玛丽于1926年病故后，1932年，张静江与国民党元老陈友仁之女张荔英在巴黎结婚。</t>
+  </si>
+  <si>
+    <t>梁玛丽于1926年病故后，1933年，张静江与国民党元老陈友仁之女张荔英在巴黎结婚。</t>
+  </si>
+  <si>
+    <t>梁玛丽于1926年病故后，1934年，张静江与国民党元老陈友仁之女张荔英在巴黎结婚。</t>
+  </si>
+  <si>
+    <t>梁玛丽于1926年病故后，1935年，张静江与国民党元老陈友仁之女张荔英在巴黎结婚。</t>
+  </si>
+  <si>
+    <t>邓世平的弟弟邓晃平告诉《人物》，当4月听说有嫌疑人要指认藏尸地点时，他还曾想通知记者，但内心拉扯一阵，又怕打草惊蛇，又怕结果是‘干脆不挖了’，只得作罢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓世平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓晃平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勇和妻子舒萍绝对想不到，开了25年的火锅店，凭借在“吃货圈”的口碑，竟帮他们站上了中国餐饮首富的位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万枚子（1905～2005），原名万德涵，号养和，笔名枚子，潜江（今园林办事处辉煌居委会）人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万德涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨森（1884年2月20日－1977年5月15日），字子惠，原名淑泽，又名伯坚，现四川广安市广安区龙台镇红日村人（原川东广安县龙台镇寺），川军著名将领。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨森</t>
+  </si>
+  <si>
+    <t>淑泽</t>
+  </si>
+  <si>
+    <t>伯坚</t>
+  </si>
+  <si>
+    <t>彭雪枫 (1907～1944)，原名彭修道，乳名兴隆，曾化名望敏、彭雪峰，河南镇平人，中国工农红军和新四军高级指挥员、军事家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭雪枫</t>
+  </si>
+  <si>
+    <t>彭修道</t>
+  </si>
+  <si>
+    <t>望敏</t>
+  </si>
+  <si>
+    <t>彭雪峰</t>
+  </si>
+  <si>
+    <t>彭雪枫 (1907～1945)，原名彭修道，乳名兴隆，曾化名望敏、彭雪峰，河南镇平人，中国工农红军和新四军高级指挥员、军事家。</t>
+  </si>
+  <si>
+    <t>彭雪枫 (1907～1946)，原名彭修道，乳名兴隆，曾化名望敏、彭雪峰，河南镇平人，中国工农红军和新四军高级指挥员、军事家。</t>
+  </si>
+  <si>
+    <t>彭雪枫 (1907～1947)，原名彭修道，乳名兴隆，曾化名望敏、彭雪峰，河南镇平人，中国工农红军和新四军高级指挥员、军事家。</t>
+  </si>
+  <si>
+    <t>彭雪枫 (1907～1948)，原名彭修道，乳名兴隆，曾化名望敏、彭雪峰，河南镇平人，中国工农红军和新四军高级指挥员、军事家。</t>
+  </si>
+  <si>
+    <t>彭雪枫 (1907～1949)，原名彭修道，乳名兴隆，曾化名望敏、彭雪峰，河南镇平人，中国工农红军和新四军高级指挥员、军事家。</t>
+  </si>
+  <si>
+    <t>1904年，杨森中学毕业，1906年入四川陆军弁目队，1908年入四川陆军速成学堂，与刘湘、唐式遵、潘文华等同学，这些人后来形成以刘湘、杨森为首的“速成系”四川军阀集团核心人物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘湘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐式遵</t>
+  </si>
+  <si>
+    <t>潘文华</t>
+  </si>
+  <si>
+    <t>平鑫涛子女平莹、平珩与平云在给媒体的信指出，将不举行公祭或任何追悼仪式，仅简单家祭后火化花葬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平鑫涛</t>
+  </si>
+  <si>
+    <t>平莹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平珩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林心如和霍建华的女儿，名字叫：小海豚，名字可爱，本人更可爱，现在明星对孩子的保护很好，严防死守怕被拍到正面照，但是林心如在接受采访的时候自曝小海豚眼睛很大，睫毛很长，长得很好看，霍建华见她第一面都哭了，对女儿爱不释手的，可见小海豚颜值有多高了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林心如</t>
+  </si>
+  <si>
+    <t>霍建华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海豚</t>
+  </si>
+  <si>
+    <t>6月20日，陆毅夫妇携大女儿贝儿现身机场，一家三口打扮精致，在机场走出了红毯的既视感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝儿</t>
+  </si>
+  <si>
+    <t>中华煤气公告指，李兆基两名儿子李家杰及李家诚，将获委任为公司联席主席、提名委员会成员兼联席主席，及薪酬委员会成员，目前两人均为公司非执行董事，又指出两人在2018年均收取25万元董事袍金。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李兆基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尚平的父亲李三保上访多年，2012年带着怨愤离世；母亲王玲秀经历了丧子、丧夫之痛，在家里对着两个牌位哭泣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李三保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玲秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近日，有媒体拍到黄晓明带着儿子小海绵和妈妈在商场打电玩，黄晓明还打出了14：0的碾压比分，被网友调侃“真是亲爸”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海绵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泗泾古镇，人杰地灵，这方水土曾孕育了一批杰出的文人学士，其中包括元代著名诗人陶宗仪、上海《申报》创始人史量才、复旦大学创始人马相伯等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶宗仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史量才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马相伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳子公主出生于1994年，是日本秋筱宫文仁亲王和秋筱宫文仁亲王妃纪子的次女，明仁天皇的孙女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳子公主</t>
+  </si>
+  <si>
+    <t>文仁亲王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明仁天皇</t>
+  </si>
+  <si>
+    <t>纪子</t>
+  </si>
+  <si>
+    <t>纪子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英媒称，巴西总统博索纳罗的儿子爱德华多·博索纳罗8月30日将会见美国总统唐纳德·特朗普。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱德华多·博索纳罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博索纳罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐纳德·特朗普</t>
+  </si>
+  <si>
+    <t>唐纳德·特朗普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女儿沈氏嫁给了郭暧和升平公主之子郭钊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈氏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭暧</t>
+  </si>
+  <si>
+    <t>升平公主</t>
+  </si>
+  <si>
+    <t>郭钊</t>
+  </si>
+  <si>
+    <t>李飞和宋杨在林胜文情妇周琳家中调查时得知林胜文被取保候审。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林胜文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周琳</t>
+  </si>
+  <si>
+    <t>许亚军的大儿子，是与第三任妻子何晴所生，名叫许何，小名仔仔，今年19岁了，许何不仅学习成绩非常优秀，长相也十分帅气，遗传到了爸妈的优点，曾被称为最帅星二代。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许何</t>
+  </si>
+  <si>
+    <t>仔仔</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -16068,6 +17946,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -16091,7 +17976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16162,6 +18047,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16478,10 +18366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E723F4E-CCCC-CB4F-8E00-CADB81944E23}">
-  <dimension ref="A1:D2245"/>
+  <dimension ref="A1:D2547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2237" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D2243" sqref="D2243:D2245"/>
+    <sheetView tabSelected="1" topLeftCell="A2529" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D2548" sqref="D2548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -47923,6 +49811,4234 @@
         <v>4333</v>
       </c>
     </row>
+    <row r="2246" spans="1:4" ht="17">
+      <c r="A2246" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>4339</v>
+      </c>
+      <c r="C2246" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2246" s="24" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:4" ht="18">
+      <c r="A2247" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>4342</v>
+      </c>
+      <c r="C2247" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2247" s="25" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:4" ht="18">
+      <c r="A2248" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C2248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2248" s="25" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:4" ht="17">
+      <c r="A2249" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C2249" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2249" s="24" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:4" ht="17">
+      <c r="A2250" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>4351</v>
+      </c>
+      <c r="C2250" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2250" s="24" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:4" ht="18">
+      <c r="A2251" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>4354</v>
+      </c>
+      <c r="C2251" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2251" s="25" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:4" ht="18">
+      <c r="A2252" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>4357</v>
+      </c>
+      <c r="C2252" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2252" s="25" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:4" ht="17">
+      <c r="A2253" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>4359</v>
+      </c>
+      <c r="C2253" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2253" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:4" ht="17">
+      <c r="A2254" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>4360</v>
+      </c>
+      <c r="C2254" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2254" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:4" ht="17">
+      <c r="A2255" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C2255" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2255" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:4" ht="17">
+      <c r="A2256" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C2256" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2256" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:4" ht="17">
+      <c r="A2257" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>4360</v>
+      </c>
+      <c r="C2257" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2257" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:4" ht="17">
+      <c r="A2258" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C2258" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2258" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:4" ht="17">
+      <c r="A2259" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C2259" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2259" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:4" ht="17">
+      <c r="A2260" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C2260" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2260" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:4" ht="17">
+      <c r="A2261" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C2261" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2261" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:4" ht="17">
+      <c r="A2262" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C2262" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2262" s="24" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:4" ht="17">
+      <c r="A2263" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C2263" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2263" s="24" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:4" ht="17">
+      <c r="A2264" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>4365</v>
+      </c>
+      <c r="C2264" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2264" s="24" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:4" ht="17">
+      <c r="A2265" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>4368</v>
+      </c>
+      <c r="C2265" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2265" s="24" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:4" ht="18">
+      <c r="A2266" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C2266" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2266" s="25" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:4" ht="18">
+      <c r="A2267" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C2267" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2267" s="25" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:4" ht="18">
+      <c r="A2268" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C2268" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2268" s="25" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:4" ht="17">
+      <c r="A2269" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C2269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2269" s="24" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:4" ht="18">
+      <c r="A2270" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>4378</v>
+      </c>
+      <c r="C2270" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2270" s="26" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:4" ht="18">
+      <c r="A2271" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C2271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2271" s="26" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:4" ht="18">
+      <c r="A2272" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C2272" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2272" s="26" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:4" ht="18">
+      <c r="A2273" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C2273" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2273" s="26" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:4" ht="17">
+      <c r="A2274" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>4385</v>
+      </c>
+      <c r="C2274" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2274" s="24" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:4" ht="18">
+      <c r="A2275" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C2275" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2275" s="26" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:4" ht="18">
+      <c r="A2276" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C2276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2276" s="25" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:4" ht="18">
+      <c r="A2277" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C2277" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2277" s="25" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:4" ht="17">
+      <c r="A2278" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>4396</v>
+      </c>
+      <c r="C2278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2278" s="24" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:4" ht="17">
+      <c r="A2279" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>4399</v>
+      </c>
+      <c r="C2279" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2279" s="24" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:4" ht="17">
+      <c r="A2280" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C2280" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2280" s="24" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:4" ht="17">
+      <c r="A2281" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C2281" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2281" s="24" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:4" ht="17">
+      <c r="A2282" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>4405</v>
+      </c>
+      <c r="C2282" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2282" s="24" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:4" ht="17">
+      <c r="A2283" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C2283" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2283" s="24" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:4" ht="17">
+      <c r="A2284" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C2284" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2284" s="24" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:4" ht="17">
+      <c r="A2285" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C2285" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2285" s="24" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:4" ht="17">
+      <c r="A2286" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C2286" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2286" s="24" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:4" ht="17">
+      <c r="A2287" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C2287" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2287" s="24" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:4" ht="17">
+      <c r="A2288" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C2288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2288" s="24" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:4" ht="18">
+      <c r="A2289" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C2289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2289" s="25" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:4" ht="17">
+      <c r="A2290" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C2290" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2290" s="24" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:4" ht="17">
+      <c r="A2291" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C2291" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2291" s="24" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:4" ht="17">
+      <c r="A2292" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C2292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2292" s="24" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:4" ht="18">
+      <c r="A2293" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>4411</v>
+      </c>
+      <c r="C2293" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2293" s="25" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:4" ht="18">
+      <c r="A2294" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C2294" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2294" s="25" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:4" ht="18">
+      <c r="A2295" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C2295" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2295" s="25" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:4" ht="17">
+      <c r="A2296" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C2296" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2296" s="24" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:4" ht="17">
+      <c r="A2297" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C2297" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2297" s="24" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:4" ht="17">
+      <c r="A2298" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C2298" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2298" s="24" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:4" ht="17">
+      <c r="A2299" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C2299" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2299" s="24" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:4" ht="17">
+      <c r="A2300" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C2300" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2300" s="24" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:4" ht="17">
+      <c r="A2301" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C2301" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2301" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:4" ht="17">
+      <c r="A2302" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C2302" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2302" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:4" ht="17">
+      <c r="A2303" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C2303" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2303" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:4" ht="17">
+      <c r="A2304" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C2304" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2304" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:4" ht="17">
+      <c r="A2305" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C2305" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2305" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:4" ht="17">
+      <c r="A2306" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C2306" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2306" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:4" ht="17">
+      <c r="A2307" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C2307" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2307" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:4" ht="17">
+      <c r="A2308" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C2308" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2308" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:4" ht="17">
+      <c r="A2309" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C2309" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2309" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:4" ht="17">
+      <c r="A2310" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C2310" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2310" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:4" ht="17">
+      <c r="A2311" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C2311" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2311" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:4" ht="17">
+      <c r="A2312" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C2312" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2312" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:4" ht="17">
+      <c r="A2313" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C2313" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2313" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:4" ht="17">
+      <c r="A2314" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C2314" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2314" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:4" ht="17">
+      <c r="A2315" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C2315" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2315" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:4" ht="17">
+      <c r="A2316" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C2316" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2316" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:4" ht="17">
+      <c r="A2317" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C2317" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2317" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:4" ht="17">
+      <c r="A2318" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C2318" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2318" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:4" ht="17">
+      <c r="A2319" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C2319" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2319" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:4" ht="17">
+      <c r="A2320" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C2320" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2320" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:4" ht="17">
+      <c r="A2321" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C2321" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2321" s="24" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:4" ht="17">
+      <c r="A2322" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C2322" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2322" s="24" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:4" ht="17">
+      <c r="A2323" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C2323" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2323" s="24" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:4" ht="17">
+      <c r="A2324" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C2324" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2324" s="24" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:4" ht="17">
+      <c r="A2325" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C2325" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2325" s="24" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:4" ht="17">
+      <c r="A2326" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C2326" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2326" s="24" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:4" ht="17">
+      <c r="A2327" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C2327" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2327" s="24" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:4" ht="17">
+      <c r="A2328" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C2328" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2328" s="24" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:4" ht="17">
+      <c r="A2329" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>4359</v>
+      </c>
+      <c r="C2329" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2329" s="24" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:4" ht="17">
+      <c r="A2330" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C2330" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2330" s="24" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:4" ht="17">
+      <c r="A2331" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C2331" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2331" s="24" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:4" ht="17">
+      <c r="A2332" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C2332" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2332" s="24" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:4" ht="17">
+      <c r="A2333" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C2333" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2333" s="24" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:4" ht="17">
+      <c r="A2334" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C2334" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2334" s="24" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:4" ht="17">
+      <c r="A2335" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C2335" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2335" s="24" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:4" ht="17">
+      <c r="A2336" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C2336" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2336" s="24" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:4" ht="17">
+      <c r="A2337" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C2337" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2337" s="24" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:4" ht="17">
+      <c r="A2338" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C2338" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2338" s="24" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:4" ht="17">
+      <c r="A2339" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C2339" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2339" s="24" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:4" ht="17">
+      <c r="A2340" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C2340" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2340" s="24" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:4" ht="18">
+      <c r="A2341" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C2341" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2341" s="25" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:4" ht="17">
+      <c r="A2342" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C2342" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2342" s="24" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:4" ht="17">
+      <c r="A2343" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C2343" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2343" s="24" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:4" ht="17">
+      <c r="A2344" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C2344" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2344" s="24" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:4" ht="17">
+      <c r="A2345" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C2345" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2345" s="24" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:4" ht="17">
+      <c r="A2346" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C2346" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2346" s="24" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:4" ht="17">
+      <c r="A2347" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C2347" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2347" s="24" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:4" ht="17">
+      <c r="A2348" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C2348" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2348" s="24" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:4" ht="17">
+      <c r="A2349" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C2349" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2349" s="24" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:4" ht="17">
+      <c r="A2350" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C2350" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2350" s="24" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:4" ht="17">
+      <c r="A2351" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C2351" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2351" s="24" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:4" ht="17">
+      <c r="A2352" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C2352" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2352" s="24" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:4" ht="17">
+      <c r="A2353" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C2353" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2353" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:4" ht="17">
+      <c r="A2354" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C2354" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2354" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:4" ht="17">
+      <c r="A2355" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>4472</v>
+      </c>
+      <c r="C2355" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2355" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:4" ht="17">
+      <c r="A2356" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C2356" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2356" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:4" ht="17">
+      <c r="A2357" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C2357" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2357" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:4" ht="17">
+      <c r="A2358" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C2358" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2358" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:4" ht="17">
+      <c r="A2359" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>4472</v>
+      </c>
+      <c r="C2359" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2359" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:4" ht="17">
+      <c r="A2360" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C2360" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2360" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:4" ht="17">
+      <c r="A2361" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C2361" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2361" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:4" ht="17">
+      <c r="A2362" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>4472</v>
+      </c>
+      <c r="C2362" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2362" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:4" ht="17">
+      <c r="A2363" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C2363" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2363" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:4" ht="17">
+      <c r="A2364" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C2364" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2364" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:4" ht="17">
+      <c r="A2365" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C2365" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2365" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:4" ht="17">
+      <c r="A2366" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C2366" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2366" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:4" ht="17">
+      <c r="A2367" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C2367" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2367" s="24" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:4" ht="17">
+      <c r="A2368" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>4477</v>
+      </c>
+      <c r="C2368" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2368" s="24" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:4" ht="17">
+      <c r="A2369" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C2369" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2369" s="24" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:4" ht="17">
+      <c r="A2370" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C2370" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2370" s="24" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:4" ht="17">
+      <c r="A2371" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C2371" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2371" s="24" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:4" ht="17">
+      <c r="A2372" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C2372" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2372" s="24" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:4" ht="18">
+      <c r="A2373" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C2373" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2373" s="25" t="s">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:4" ht="18">
+      <c r="A2374" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C2374" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2374" s="25" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:4" ht="18">
+      <c r="A2375" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C2375" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2375" s="25" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:4" ht="18">
+      <c r="A2376" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C2376" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2376" s="25" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:4" ht="18">
+      <c r="A2377" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C2377" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2377" s="25" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:4" ht="18">
+      <c r="A2378" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C2378" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2378" s="25" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:4" ht="17">
+      <c r="A2379" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C2379" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2379" s="24" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:4" ht="18">
+      <c r="A2380" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C2380" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2380" s="25" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:4" ht="17">
+      <c r="A2381" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C2381" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2381" s="24" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:4" ht="17">
+      <c r="A2382" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C2382" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2382" s="24" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:4" ht="17">
+      <c r="A2383" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C2383" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2383" s="24" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:4" ht="18">
+      <c r="A2384" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C2384" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2384" s="25" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:4" ht="17">
+      <c r="A2385" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C2385" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2385" s="24" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:4" ht="17">
+      <c r="A2386" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C2386" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2386" s="24" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:4" ht="17">
+      <c r="A2387" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C2387" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2387" s="24" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:4" ht="17">
+      <c r="A2388" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C2388" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2388" s="24" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:4" ht="17">
+      <c r="A2389" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C2389" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2389" s="24" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:4" ht="17">
+      <c r="A2390" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C2390" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2390" s="24" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:4" ht="17">
+      <c r="A2391" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C2391" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2391" s="24" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:4" ht="17">
+      <c r="A2392" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C2392" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2392" s="24" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:4" ht="17">
+      <c r="A2393" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>4529</v>
+      </c>
+      <c r="C2393" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2393" s="24" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:4" ht="17">
+      <c r="A2394" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C2394" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2394" s="24" t="s">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:4" ht="17">
+      <c r="A2395" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C2395" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2395" s="24" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:4" ht="17">
+      <c r="A2396" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C2396" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2396" s="24" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:4" ht="17">
+      <c r="A2397" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C2397" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2397" s="24" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:4" ht="17">
+      <c r="A2398" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>4541</v>
+      </c>
+      <c r="C2398" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2398" s="24" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:4" ht="17">
+      <c r="A2399" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C2399" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2399" s="24" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:4" ht="17">
+      <c r="A2400" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C2400" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2400" s="24" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:4" ht="17">
+      <c r="A2401" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C2401" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2401" s="24" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:4" ht="17">
+      <c r="A2402" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>4552</v>
+      </c>
+      <c r="C2402" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2402" s="24" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:4" ht="17">
+      <c r="A2403" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C2403" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2403" s="24" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:4" ht="17">
+      <c r="A2404" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C2404" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2404" s="24" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:4" ht="17">
+      <c r="A2405" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C2405" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2405" s="24" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:4" ht="17">
+      <c r="A2406" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C2406" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2406" s="24" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:4" ht="17">
+      <c r="A2407" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C2407" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2407" s="24" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:4" ht="17">
+      <c r="A2408" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C2408" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2408" s="24" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:4" ht="18">
+      <c r="A2409" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C2409" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2409" s="25" t="s">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:4" ht="17">
+      <c r="A2410" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C2410" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2410" s="24" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:4" ht="17">
+      <c r="A2411" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2411" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2411" s="24" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:4" ht="17">
+      <c r="A2412" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2412" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2412" s="24" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:4" ht="17">
+      <c r="A2413" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C2413" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2413" s="24" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:4" ht="17">
+      <c r="A2414" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C2414" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2414" s="24" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:4" ht="17">
+      <c r="A2415" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C2415" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2415" s="24" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:4" ht="17">
+      <c r="A2416" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C2416" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2416" s="24" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:4" ht="17">
+      <c r="A2417" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C2417" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2417" s="24" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:4" ht="17">
+      <c r="A2418" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C2418" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2418" s="24" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:4" ht="18">
+      <c r="A2419" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>4577</v>
+      </c>
+      <c r="C2419" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2419" s="25" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:4" ht="17">
+      <c r="A2420" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C2420" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2420" s="24" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:4" ht="17">
+      <c r="A2421" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>4580</v>
+      </c>
+      <c r="C2421" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2421" s="24" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:4" ht="17">
+      <c r="A2422" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>4580</v>
+      </c>
+      <c r="C2422" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2422" s="24" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:4" ht="17">
+      <c r="A2423" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>4585</v>
+      </c>
+      <c r="C2423" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2423" s="24" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:4" ht="17">
+      <c r="A2424" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>4587</v>
+      </c>
+      <c r="C2424" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2424" s="24" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:4" ht="17">
+      <c r="A2425" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>4588</v>
+      </c>
+      <c r="C2425" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2425" s="24" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:4" ht="17">
+      <c r="A2426" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>4588</v>
+      </c>
+      <c r="C2426" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2426" s="24" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:4" ht="17">
+      <c r="A2427" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C2427" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2427" s="24" t="s">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:4" ht="17">
+      <c r="A2428" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>4594</v>
+      </c>
+      <c r="C2428" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2428" s="24" t="s">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:4" ht="17">
+      <c r="A2429" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>4597</v>
+      </c>
+      <c r="C2429" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2429" s="24" t="s">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:4" ht="17">
+      <c r="A2430" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>4600</v>
+      </c>
+      <c r="C2430" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2430" s="24" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:4" ht="17">
+      <c r="A2431" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>4603</v>
+      </c>
+      <c r="C2431" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2431" s="24" t="s">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:4" ht="17">
+      <c r="A2432" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>4604</v>
+      </c>
+      <c r="C2432" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2432" s="24" t="s">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:4" ht="17">
+      <c r="A2433" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>4604</v>
+      </c>
+      <c r="C2433" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2433" s="24" t="s">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:4" ht="17">
+      <c r="A2434" t="s">
+        <v>4606</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>3978</v>
+      </c>
+      <c r="C2434" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2434" s="24" t="s">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:4" ht="17">
+      <c r="A2435" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>4609</v>
+      </c>
+      <c r="C2435" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2435" s="24" t="s">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:4" ht="17">
+      <c r="A2436" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>4612</v>
+      </c>
+      <c r="C2436" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2436" s="24" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:4" ht="17">
+      <c r="A2437" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>4615</v>
+      </c>
+      <c r="C2437" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2437" s="24" t="s">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:4" ht="17">
+      <c r="A2438" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>4618</v>
+      </c>
+      <c r="C2438" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2438" s="24" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:4" ht="17">
+      <c r="A2439" t="s">
+        <v>4620</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>4621</v>
+      </c>
+      <c r="C2439" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2439" s="24" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:4" ht="17">
+      <c r="A2440" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>4624</v>
+      </c>
+      <c r="C2440" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2440" s="24" t="s">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:4" ht="17">
+      <c r="A2441" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>4627</v>
+      </c>
+      <c r="C2441" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2441" s="24" t="s">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:4" ht="17">
+      <c r="A2442" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>4630</v>
+      </c>
+      <c r="C2442" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2442" s="24" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:4" ht="17">
+      <c r="A2443" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>4207</v>
+      </c>
+      <c r="C2443" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2443" s="24" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:4" ht="17">
+      <c r="A2444" t="s">
+        <v>4630</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>4207</v>
+      </c>
+      <c r="C2444" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2444" s="24" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:4" ht="18">
+      <c r="A2445" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>4633</v>
+      </c>
+      <c r="C2445" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2445" s="25" t="s">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:4" ht="17">
+      <c r="A2446" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>4636</v>
+      </c>
+      <c r="C2446" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2446" s="24" t="s">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:4" ht="17">
+      <c r="A2447" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>4637</v>
+      </c>
+      <c r="C2447" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2447" s="24" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:4" ht="17">
+      <c r="A2448" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>4637</v>
+      </c>
+      <c r="C2448" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2448" s="24" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:4" ht="17">
+      <c r="A2449" t="s">
+        <v>4641</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>4642</v>
+      </c>
+      <c r="C2449" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2449" s="24" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:4" ht="17">
+      <c r="A2450" t="s">
+        <v>4644</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>4645</v>
+      </c>
+      <c r="C2450" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2450" s="24" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:4" ht="17">
+      <c r="A2451" t="s">
+        <v>4647</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C2451" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2451" s="24" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:4" ht="17">
+      <c r="A2452" t="s">
+        <v>4649</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>4650</v>
+      </c>
+      <c r="C2452" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2452" s="24" t="s">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:4" ht="17">
+      <c r="A2453" t="s">
+        <v>4652</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>4653</v>
+      </c>
+      <c r="C2453" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2453" s="24" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:4" ht="17">
+      <c r="A2454" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C2454" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2454" s="24" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:4" ht="17">
+      <c r="A2455" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>4660</v>
+      </c>
+      <c r="C2455" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2455" s="24" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:4" ht="17">
+      <c r="A2456" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>4661</v>
+      </c>
+      <c r="C2456" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2456" s="24" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:4" ht="17">
+      <c r="A2457" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>4661</v>
+      </c>
+      <c r="C2457" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2457" s="24" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:4" ht="17">
+      <c r="A2458" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C2458" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2458" s="24" t="s">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:4" ht="17">
+      <c r="A2459" t="s">
+        <v>4666</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>4667</v>
+      </c>
+      <c r="C2459" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2459" s="24" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:4" ht="17">
+      <c r="A2460" t="s">
+        <v>4666</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2460" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2460" s="24" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:4" ht="17">
+      <c r="A2461" t="s">
+        <v>4667</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2461" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2461" s="24" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:4" ht="17">
+      <c r="A2462" t="s">
+        <v>4669</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>4670</v>
+      </c>
+      <c r="C2462" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2462" s="24" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:4" ht="17">
+      <c r="A2463" t="s">
+        <v>4669</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C2463" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2463" s="24" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:4" ht="17">
+      <c r="A2464" t="s">
+        <v>4670</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C2464" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2464" s="24" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:4" ht="17">
+      <c r="A2465" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>4673</v>
+      </c>
+      <c r="C2465" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2465" s="24" t="s">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:4" ht="17">
+      <c r="A2466" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C2466" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2466" s="24" t="s">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:4" ht="17">
+      <c r="A2467" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>4677</v>
+      </c>
+      <c r="C2467" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2467" s="24" t="s">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:4" ht="17">
+      <c r="A2468" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C2468" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2468" s="24" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:4" ht="17">
+      <c r="A2469" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>4680</v>
+      </c>
+      <c r="C2469" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2469" s="24" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:4" ht="17">
+      <c r="A2470" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>4681</v>
+      </c>
+      <c r="C2470" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2470" s="24" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:4" ht="17">
+      <c r="A2471" t="s">
+        <v>4679</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>4680</v>
+      </c>
+      <c r="C2471" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2471" s="24" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:4" ht="17">
+      <c r="A2472" t="s">
+        <v>4679</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>4681</v>
+      </c>
+      <c r="C2472" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2472" s="24" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:4" ht="17">
+      <c r="A2473" t="s">
+        <v>4680</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>4681</v>
+      </c>
+      <c r="C2473" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2473" s="24" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:4" ht="17">
+      <c r="A2474" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C2474" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2474" s="24" t="s">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:4" ht="17">
+      <c r="A2475" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C2475" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2475" s="24" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:4" ht="17">
+      <c r="A2476" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>4688</v>
+      </c>
+      <c r="C2476" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2476" s="24" t="s">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:4" ht="17">
+      <c r="A2477" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>4176</v>
+      </c>
+      <c r="C2477" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2477" s="24" t="s">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:4" ht="17">
+      <c r="A2478" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>4691</v>
+      </c>
+      <c r="C2478" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2478" s="24" t="s">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:4" ht="17">
+      <c r="A2479" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C2479" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2479" s="24" t="s">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:4" ht="17">
+      <c r="A2480" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>4691</v>
+      </c>
+      <c r="C2480" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2480" s="24" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:4" ht="17">
+      <c r="A2481" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C2481" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2481" s="24" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:4" ht="17">
+      <c r="A2482" t="s">
+        <v>4691</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C2482" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2482" s="24" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:4" ht="17">
+      <c r="A2483" t="s">
+        <v>4698</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C2483" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2483" s="24" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:4" ht="17">
+      <c r="A2484" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>4701</v>
+      </c>
+      <c r="C2484" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2484" s="24" t="s">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:4" ht="17">
+      <c r="A2485" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>4703</v>
+      </c>
+      <c r="C2485" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2485" s="24" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:4" ht="17">
+      <c r="A2486" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C2486" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2486" s="24" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:4" ht="17">
+      <c r="A2487" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>4707</v>
+      </c>
+      <c r="C2487" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2487" s="24" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:4" ht="17">
+      <c r="A2488" t="s">
+        <v>4706</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>4707</v>
+      </c>
+      <c r="C2488" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2488" s="24" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:4" ht="17">
+      <c r="A2489" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>4710</v>
+      </c>
+      <c r="C2489" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2489" s="24" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:4" ht="17">
+      <c r="A2490" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>4711</v>
+      </c>
+      <c r="C2490" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2490" s="24" t="s">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:4" ht="17">
+      <c r="A2491" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C2491" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2491" s="24" t="s">
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:4" ht="17">
+      <c r="A2492" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>4711</v>
+      </c>
+      <c r="C2492" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2492" s="24" t="s">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:4" ht="17">
+      <c r="A2493" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C2493" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2493" s="24" t="s">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:4" ht="17">
+      <c r="A2494" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C2494" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2494" s="24" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:4" ht="17">
+      <c r="A2495" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>4720</v>
+      </c>
+      <c r="C2495" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2495" s="24" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:4" ht="17">
+      <c r="A2496" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C2496" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2496" s="24" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:4" ht="17">
+      <c r="A2497" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C2497" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2497" s="24" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:4" ht="17">
+      <c r="A2498" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C2498" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2498" s="24" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:4" ht="17">
+      <c r="A2499" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C2499" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2499" s="24" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:4" ht="17">
+      <c r="A2500" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C2500" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2500" s="24" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:4" ht="17">
+      <c r="A2501" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C2501" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2501" s="24" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:4" ht="17">
+      <c r="A2502" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C2502" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2502" s="24" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:4" ht="17">
+      <c r="A2503" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C2503" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2503" s="24" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:4" ht="17">
+      <c r="A2504" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C2504" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2504" s="24" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:4" ht="17">
+      <c r="A2505" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C2505" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2505" s="24" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:4" ht="17">
+      <c r="A2506" t="s">
+        <v>4726</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C2506" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2506" s="24" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:4" ht="17">
+      <c r="A2507" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C2507" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2507" s="24" t="s">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:4" ht="17">
+      <c r="A2508" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C2508" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2508" s="24" t="s">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:4" ht="17">
+      <c r="A2509" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C2509" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2509" s="24" t="s">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:4" ht="17">
+      <c r="A2510" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>4734</v>
+      </c>
+      <c r="C2510" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2510" s="24" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:4" ht="17">
+      <c r="A2511" t="s">
+        <v>4736</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2511" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2511" s="24" t="s">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:4" ht="17">
+      <c r="A2512" t="s">
+        <v>4736</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2512" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2512" s="24" t="s">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:4" ht="17">
+      <c r="A2513" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2513" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2513" s="24" t="s">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:4" ht="17">
+      <c r="A2514" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>4738</v>
+      </c>
+      <c r="C2514" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2514" s="24" t="s">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:4" ht="17">
+      <c r="A2515" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>4739</v>
+      </c>
+      <c r="C2515" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2515" s="24" t="s">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:4" ht="17">
+      <c r="A2516" t="s">
+        <v>4738</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>4739</v>
+      </c>
+      <c r="C2516" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2516" s="24" t="s">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:4" ht="17">
+      <c r="A2517" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>4741</v>
+      </c>
+      <c r="C2517" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2517" s="24" t="s">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:4" ht="17">
+      <c r="A2518" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>4744</v>
+      </c>
+      <c r="C2518" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2518" s="24" t="s">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:4" ht="17">
+      <c r="A2519" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>4745</v>
+      </c>
+      <c r="C2519" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2519" s="24" t="s">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:4" ht="17">
+      <c r="A2520" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>4745</v>
+      </c>
+      <c r="C2520" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2520" s="24" t="s">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:4" ht="17">
+      <c r="A2521" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>4748</v>
+      </c>
+      <c r="C2521" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2521" s="24" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:4" ht="17">
+      <c r="A2522" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>4751</v>
+      </c>
+      <c r="C2522" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2522" s="24" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:4" ht="17">
+      <c r="A2523" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>4749</v>
+      </c>
+      <c r="C2523" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2523" s="24" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:4" ht="17">
+      <c r="A2524" t="s">
+        <v>4748</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>4750</v>
+      </c>
+      <c r="C2524" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2524" s="24" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:4" ht="17">
+      <c r="A2525" t="s">
+        <v>4748</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>4749</v>
+      </c>
+      <c r="C2525" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2525" s="24" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:4" ht="17">
+      <c r="A2526" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>4749</v>
+      </c>
+      <c r="C2526" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2526" s="24" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:4" ht="17">
+      <c r="A2527" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C2527" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2527" s="24" t="s">
+        <v>4752</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:4" ht="17">
+      <c r="A2528" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>4756</v>
+      </c>
+      <c r="C2528" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2528" s="24" t="s">
+        <v>4752</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:4" ht="17">
+      <c r="A2529" t="s">
+        <v>4754</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>4755</v>
+      </c>
+      <c r="C2529" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2529" s="24" t="s">
+        <v>4752</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:4" ht="17">
+      <c r="A2530" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>4759</v>
+      </c>
+      <c r="C2530" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2530" s="24" t="s">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:4" ht="17">
+      <c r="A2531" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>4760</v>
+      </c>
+      <c r="C2531" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2531" s="24" t="s">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:4" ht="17">
+      <c r="A2532" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>4761</v>
+      </c>
+      <c r="C2532" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2532" s="24" t="s">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:4" ht="17">
+      <c r="A2533" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>4760</v>
+      </c>
+      <c r="C2533" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2533" s="24" t="s">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:4" ht="17">
+      <c r="A2534" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>4761</v>
+      </c>
+      <c r="C2534" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2534" s="24" t="s">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:4" ht="17">
+      <c r="A2535" t="s">
+        <v>4760</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>4761</v>
+      </c>
+      <c r="C2535" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2535" s="24" t="s">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:4" ht="17">
+      <c r="A2536" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>4763</v>
+      </c>
+      <c r="C2536" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2536" s="24" t="s">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:4" ht="17">
+      <c r="A2537" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B2537" t="s">
+        <v>4764</v>
+      </c>
+      <c r="C2537" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2537" s="24" t="s">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:4" ht="17">
+      <c r="A2538" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>4765</v>
+      </c>
+      <c r="C2538" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2538" s="24" t="s">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:4" ht="17">
+      <c r="A2539" t="s">
+        <v>4763</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>4764</v>
+      </c>
+      <c r="C2539" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2539" s="24" t="s">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:4" ht="17">
+      <c r="A2540" t="s">
+        <v>4763</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>4765</v>
+      </c>
+      <c r="C2540" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2540" s="24" t="s">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:4" ht="17">
+      <c r="A2541" t="s">
+        <v>4764</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>4765</v>
+      </c>
+      <c r="C2541" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2541" s="24" t="s">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:4" ht="17">
+      <c r="A2542" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>4767</v>
+      </c>
+      <c r="C2542" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2542" s="24" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:4" ht="17">
+      <c r="A2543" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>4768</v>
+      </c>
+      <c r="C2543" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2543" s="24" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:4" ht="17">
+      <c r="A2544" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>4769</v>
+      </c>
+      <c r="C2544" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2544" s="24" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:4" ht="17">
+      <c r="A2545" t="s">
+        <v>4767</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>4768</v>
+      </c>
+      <c r="C2545" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2545" s="24" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:4" ht="17">
+      <c r="A2546" t="s">
+        <v>4767</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>4769</v>
+      </c>
+      <c r="C2546" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2546" s="24" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:4" ht="17">
+      <c r="A2547" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>4769</v>
+      </c>
+      <c r="C2547" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2547" s="24" t="s">
+        <v>4766</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1263" xr:uid="{2256DC32-02D8-D349-8B3E-F46775F2E74F}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/人物关系表.xlsx
+++ b/data/人物关系表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/people_relation_extract/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965F0D1E-D8B2-A746-AE71-9B41BE5CB867}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878BFB7D-E9E0-3F47-B971-0E48A65C4304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10186" uniqueCount="4770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="4868">
   <si>
     <t>人物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -17707,12 +17707,456 @@
   <si>
     <t>仔仔</t>
   </si>
+  <si>
+    <t>降巴克珠的爷爷罗布长寿和其他农奴一样翻身做了主人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降巴克珠</t>
+  </si>
+  <si>
+    <t>罗布长寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈佩斯的妻子叫王燕玲原来是一名护士，经人介绍嫁给陈佩斯，后来成为了陈佩斯的经纪人，夫妻婚后育有一子，取名陈大愚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈佩斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王燕玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈大愚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受父亲的影响，王玉宝的大儿子王铁军大学毕业后，曾经在通化县电视台做记者，后来一次偶然的机会，调到了长春广播电视台工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玉宝</t>
+  </si>
+  <si>
+    <t>王铁军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玉宝的孙子王方轶大学毕业后，也成了通化广播电视台的记者，而孙女王梓怡在填报高考志愿时，毫不犹豫地报考了辽宁一所传媒院校的新闻专业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玉宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王方轶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王梓怡</t>
+  </si>
+  <si>
+    <t>而更让它出名的则是蒋介石、蒋经国、蒋孝文祖孙三代都曾在此打卡留念，也为这里增添了几分神秘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋经国</t>
+  </si>
+  <si>
+    <t>蒋孝文</t>
+  </si>
+  <si>
+    <t>1941年，黄合林老人去世前，将装有红旗的小木箱交给儿子黄荣清和孙子黄光文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄合林</t>
+  </si>
+  <si>
+    <t>黄荣清</t>
+  </si>
+  <si>
+    <t>黄光文</t>
+  </si>
+  <si>
+    <t>或许真是古树显灵，2002年，王金下的儿子王雪溪考入浙江大学，如今定居在杭州。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金下</t>
+  </si>
+  <si>
+    <t>王雪溪</t>
+  </si>
+  <si>
+    <r>
+      <t>贝琳达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贝里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美国广播公司15日报道，贝琳达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贝里现年62岁，14日和现年25岁的孙女卡丽尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贝里一起走上台领取毕业证。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡丽尔・贝里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如今，侯启雄虽已退休多年，但他的儿子侯家华、孙子侯玮都成为马钢人，亲历了马钢的从无到有、从小到大、改革开放、走向辉煌的历程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯启雄</t>
+  </si>
+  <si>
+    <t>侯家华</t>
+  </si>
+  <si>
+    <t>侯玮</t>
+  </si>
+  <si>
+    <t>在《我和爷爷》组图的介绍里，石勐尧记录道：“我的爷爷石连启已于今年的元月初九离开了我们，享年83岁。他走的那天，天空忽然变的好美，我知道，那一定是他怕我伤心，为了安慰我，才会让我看见那么动人的景色……”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石勐尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石连启</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1980</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，侯启雄的儿子侯家华参加工作进了马钢。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯启雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如今，两个双胞胎儿子苏波和苏涛也成为哈密机务段乘务员，延续了父辈们的道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏涛</t>
+  </si>
+  <si>
+    <t>苏涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥哥苏波是2002年从部队转业到哈密铁路机务段工作，弟弟苏涛2005年铁路技校毕业后被分配至哈密机务段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙骜为蒙恬祖父，秦国名将，事秦昭王，官至上卿，曾经伐韩、攻赵、取魏国城，为秦立下了汗马功劳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙骜</t>
+  </si>
+  <si>
+    <t>蒙恬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦昭王</t>
+  </si>
+  <si>
+    <t>据介绍，此案的第一被告许燕（现为复旦新闻学院副教授）和原告韩元（现为上海某高校教师）同时于2003年进入复旦大学新闻学院博士后流动站，师从同一位老师李良荣教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李良荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据介绍，此案的第一被告许燕（现为复旦新闻学院副教授）和原告韩元（现为上海某高校教师）同时于2004年进入复旦大学新闻学院博士后流动站，师从同一位老师李良荣教授</t>
+  </si>
+  <si>
+    <t>据介绍，此案的第一被告许燕（现为复旦新闻学院副教授）和原告韩元（现为上海某高校教师）同时于2005年进入复旦大学新闻学院博士后流动站，师从同一位老师李良荣教授</t>
+  </si>
+  <si>
+    <t>比阿里大了10岁的彭切永曾经也是米尔顿凯恩斯的明星球员，本周日双方这两位出师同门的师兄弟将同场竞技。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭切永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得称道的是，二人不但在艺术理念和风格上颇有合辙之处，并且生活上情同手足，一道宴饮、雅集、会友、论艺，共同培养弟子，张善孖、张大千、马宗霍、胡小石等俊彦皆列其门墙，一时成为书画界美谈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张善孖</t>
+  </si>
+  <si>
+    <t>张善孖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马宗霍</t>
+  </si>
+  <si>
+    <t>胡小石</t>
+  </si>
+  <si>
+    <t>1922年曾熙在上海虹口寓所创办“衡阳书画学社”(“曾李同门会”前身)，该社以交流诗文书画为宗旨，入社弟子有张善孖、张大千、马企周、朱大可等数十人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马企周</t>
+  </si>
+  <si>
+    <t>朱大可</t>
+  </si>
+  <si>
+    <t>秦昊、郭涛与刘冠军是师兄弟，他说“我们师出同门，学生时代接受的是同一套表演体系的教育，所以一起演戏很默契，也很过瘾。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦昊</t>
+  </si>
+  <si>
+    <t>郭涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就像以前小编很喜欢的一名歌手金莎一样，她是林俊杰的同门师妹，曾经在娱乐圈里面沉浸过一段时间，如今又因为《你和我的倾城时光》再次走红，35岁如同一把岁一样！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林俊杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因在电影《梅兰芳》中出演青年梅兰芳而迅速走红的浙江越剧团演员余少群，昨天在北京签约海润经纪，与刘烨、蒋雯丽、孙俪等成为同门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余少群</t>
+  </si>
+  <si>
+    <t>刘烨</t>
+  </si>
+  <si>
+    <t>孙俪</t>
+  </si>
+  <si>
+    <t>据《每日经济新闻》了解，张育军与前日（9月15日）被查的中信证券总经理程博明是同门师兄弟，两人均为首任证监会主席刘鸿儒的学生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张育军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程博明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘鸿儒</t>
+  </si>
+  <si>
+    <t>周寿恺与钟父钟世藩，堪称莫逆之交，两家来往颇多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖家的后人中，有一位很受鼓浪屿人尊敬的廖医生，就是廖家三房的廖永廉，他可是钟南山院士和戴克戎院士的亲舅舅，他本身也是厦门医学界的翘楚，是医学博士，原设于鼓浪屿的厦门第二医院内科主任，1957年首先在厦门发现福建省第一例钩端螺旋体病。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖永廉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟南山</t>
+  </si>
+  <si>
+    <t>戴克戎</t>
+  </si>
+  <si>
+    <t>周寿恺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那也是钟南山父亲钟世藩，所在的单位，他是院长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然，林语堂心里对初恋情人陈锦端是念念不忘的，已到垂暮之年时，有一天突然听到别人说起陈锦端，他竟然从轮椅上站起来说要去看她。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林语堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈锦端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟南山舅妈陈锦彩：曾任厦门基督教女青年会青年部干事、鼓浪屿区侨联副秘书长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，按辈分来算，林语堂就是钟南山的姑外公。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林巧稚大家可能少有耳闻，她是钟南山院士的姑婆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈锦彩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林巧稚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最有趣的是，汪苏泷爆料：张韶涵是我的师妹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪苏泷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张韶涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“贵山窑”是由嵇锡贵和丈夫郭琳山的名字各取一字组合而成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵇锡贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭琳山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -17951,6 +18395,13 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -18366,10 +18817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E723F4E-CCCC-CB4F-8E00-CADB81944E23}">
-  <dimension ref="A1:D2547"/>
+  <dimension ref="A1:D2613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2529" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D2548" sqref="D2548"/>
+    <sheetView tabSelected="1" topLeftCell="A2603" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D2614" sqref="D2614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -54039,6 +54490,930 @@
         <v>4766</v>
       </c>
     </row>
+    <row r="2548" spans="1:4" ht="17">
+      <c r="A2548" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>4772</v>
+      </c>
+      <c r="C2548" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2548" s="24" t="s">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:4" ht="17">
+      <c r="A2549" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>4775</v>
+      </c>
+      <c r="C2549" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2549" s="24" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:4" ht="17">
+      <c r="A2550" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>4776</v>
+      </c>
+      <c r="C2550" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2550" s="24" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:4" ht="17">
+      <c r="A2551" t="s">
+        <v>4775</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>4776</v>
+      </c>
+      <c r="C2551" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2551" s="24" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:4" ht="17">
+      <c r="A2552" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C2552" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2552" s="24" t="s">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:4" ht="17">
+      <c r="A2553" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C2553" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2553" s="24" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:4" ht="17">
+      <c r="A2554" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>4783</v>
+      </c>
+      <c r="C2554" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2554" s="24" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:4" ht="17">
+      <c r="A2555" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>4783</v>
+      </c>
+      <c r="C2555" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2555" s="24" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:4" ht="17">
+      <c r="A2556" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>4785</v>
+      </c>
+      <c r="C2556" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2556" s="24" t="s">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:4" ht="17">
+      <c r="A2557" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>4786</v>
+      </c>
+      <c r="C2557" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2557" s="24" t="s">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:4" ht="17">
+      <c r="A2558" t="s">
+        <v>4785</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>4786</v>
+      </c>
+      <c r="C2558" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2558" s="24" t="s">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:4" ht="17">
+      <c r="A2559" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>4789</v>
+      </c>
+      <c r="C2559" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2559" s="24" t="s">
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:4" ht="17">
+      <c r="A2560" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>4790</v>
+      </c>
+      <c r="C2560" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2560" s="24" t="s">
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:4" ht="17">
+      <c r="A2561" t="s">
+        <v>4789</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>4790</v>
+      </c>
+      <c r="C2561" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2561" s="24" t="s">
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:4" ht="17">
+      <c r="A2562" t="s">
+        <v>4792</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>4793</v>
+      </c>
+      <c r="C2562" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2562" s="24" t="s">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:4" ht="18">
+      <c r="A2563" t="s">
+        <v>4794</v>
+      </c>
+      <c r="B2563" t="s">
+        <v>4796</v>
+      </c>
+      <c r="C2563" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2563" s="24" t="s">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:4" ht="17">
+      <c r="A2564" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>4799</v>
+      </c>
+      <c r="C2564" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2564" s="24" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:4" ht="17">
+      <c r="A2565" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>4800</v>
+      </c>
+      <c r="C2565" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2565" s="24" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:4" ht="17">
+      <c r="A2566" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>4800</v>
+      </c>
+      <c r="C2566" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2566" s="24" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:4" ht="17">
+      <c r="A2567" t="s">
+        <v>4802</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>4803</v>
+      </c>
+      <c r="C2567" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2567" s="24" t="s">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:4" ht="18">
+      <c r="A2568" t="s">
+        <v>4805</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>4799</v>
+      </c>
+      <c r="C2568" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2568" s="25" t="s">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:4" ht="17">
+      <c r="A2569" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>4809</v>
+      </c>
+      <c r="C2569" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2569" s="24" t="s">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:4" ht="17">
+      <c r="A2570" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>4808</v>
+      </c>
+      <c r="C2570" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2570" s="24" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:4" ht="17">
+      <c r="A2571" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>4813</v>
+      </c>
+      <c r="C2571" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2571" s="24" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:4" ht="17">
+      <c r="A2572" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>4814</v>
+      </c>
+      <c r="C2572" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2572" s="24" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:4" ht="17">
+      <c r="A2573" t="s">
+        <v>4813</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>4814</v>
+      </c>
+      <c r="C2573" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2573" s="24" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:4" ht="17">
+      <c r="A2574" t="s">
+        <v>4816</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>4817</v>
+      </c>
+      <c r="C2574" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2574" s="24" t="s">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:4" ht="17">
+      <c r="A2575" t="s">
+        <v>4816</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>4818</v>
+      </c>
+      <c r="C2575" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2575" s="24" t="s">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:4" ht="17">
+      <c r="A2576" t="s">
+        <v>4817</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>4818</v>
+      </c>
+      <c r="C2576" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2576" s="24" t="s">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:4" ht="17">
+      <c r="A2577" t="s">
+        <v>4822</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>4823</v>
+      </c>
+      <c r="C2577" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2577" s="24" t="s">
+        <v>4821</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:4" ht="17">
+      <c r="A2578" t="s">
+        <v>4826</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C2578" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2578" s="24" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:4" ht="17">
+      <c r="A2579" t="s">
+        <v>4826</v>
+      </c>
+      <c r="B2579" t="s">
+        <v>4827</v>
+      </c>
+      <c r="C2579" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2579" s="24" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:4" ht="17">
+      <c r="A2580" t="s">
+        <v>4826</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>4828</v>
+      </c>
+      <c r="C2580" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2580" s="24" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:4" ht="17">
+      <c r="A2581" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B2581" t="s">
+        <v>4827</v>
+      </c>
+      <c r="C2581" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2581" s="24" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:4" ht="17">
+      <c r="A2582" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B2582" t="s">
+        <v>4828</v>
+      </c>
+      <c r="C2582" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2582" s="24" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:4" ht="17">
+      <c r="A2583" t="s">
+        <v>4827</v>
+      </c>
+      <c r="B2583" t="s">
+        <v>4828</v>
+      </c>
+      <c r="C2583" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2583" s="24" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:4" ht="17">
+      <c r="A2584" t="s">
+        <v>4825</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C2584" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2584" s="24" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:4" ht="17">
+      <c r="A2585" t="s">
+        <v>4825</v>
+      </c>
+      <c r="B2585" t="s">
+        <v>4830</v>
+      </c>
+      <c r="C2585" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2585" s="24" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:4" ht="17">
+      <c r="A2586" t="s">
+        <v>4825</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>4831</v>
+      </c>
+      <c r="C2586" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2586" s="24" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:4" ht="17">
+      <c r="A2587" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B2587" t="s">
+        <v>4830</v>
+      </c>
+      <c r="C2587" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2587" s="24" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:4" ht="17">
+      <c r="A2588" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B2588" t="s">
+        <v>4831</v>
+      </c>
+      <c r="C2588" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2588" s="24" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:4" ht="17">
+      <c r="A2589" t="s">
+        <v>4830</v>
+      </c>
+      <c r="B2589" t="s">
+        <v>4831</v>
+      </c>
+      <c r="C2589" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2589" s="24" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:4" ht="17">
+      <c r="A2590" t="s">
+        <v>4833</v>
+      </c>
+      <c r="B2590" t="s">
+        <v>4834</v>
+      </c>
+      <c r="C2590" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2590" s="24" t="s">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:4" ht="17">
+      <c r="A2591" t="s">
+        <v>4833</v>
+      </c>
+      <c r="B2591" t="s">
+        <v>4835</v>
+      </c>
+      <c r="C2591" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2591" s="24" t="s">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:4" ht="17">
+      <c r="A2592" t="s">
+        <v>4834</v>
+      </c>
+      <c r="B2592" t="s">
+        <v>4835</v>
+      </c>
+      <c r="C2592" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2592" s="24" t="s">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:4">
+      <c r="A2593" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B2593" t="s">
+        <v>4838</v>
+      </c>
+      <c r="C2593" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2593" t="s">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:4" ht="17">
+      <c r="A2594" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>4841</v>
+      </c>
+      <c r="C2594" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2594" s="24" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:4" ht="17">
+      <c r="A2595" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B2595" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2595" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2595" s="24" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:4" ht="17">
+      <c r="A2596" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B2596" t="s">
+        <v>4842</v>
+      </c>
+      <c r="C2596" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2596" s="24" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:4" ht="17">
+      <c r="A2597" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B2597" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2597" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2597" s="24" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:4" ht="17">
+      <c r="A2598" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B2598" t="s">
+        <v>4842</v>
+      </c>
+      <c r="C2598" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2598" s="24" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4" ht="17">
+      <c r="A2599" t="s">
+        <v>873</v>
+      </c>
+      <c r="B2599" t="s">
+        <v>4842</v>
+      </c>
+      <c r="C2599" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2599" s="24" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4" ht="17">
+      <c r="A2600" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B2600" t="s">
+        <v>4845</v>
+      </c>
+      <c r="C2600" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2600" s="24" t="s">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4" ht="17">
+      <c r="A2601" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B2601" t="s">
+        <v>4846</v>
+      </c>
+      <c r="C2601" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2601" s="24" t="s">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:4" ht="17">
+      <c r="A2602" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B2602" t="s">
+        <v>4846</v>
+      </c>
+      <c r="C2602" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2602" s="24" t="s">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:4" ht="19">
+      <c r="A2603" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B2603" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C2603" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2603" s="18" t="s">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4" ht="17">
+      <c r="A2604" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C2604" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2604" s="24" t="s">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:4" ht="17">
+      <c r="A2605" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B2605" t="s">
+        <v>4850</v>
+      </c>
+      <c r="C2605" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2605" s="24" t="s">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:4" ht="17">
+      <c r="A2606" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>4851</v>
+      </c>
+      <c r="C2606" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2606" s="24" t="s">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:4" ht="17">
+      <c r="A2607" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B2607" t="s">
+        <v>4851</v>
+      </c>
+      <c r="C2607" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2607" s="24" t="s">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:4" ht="17">
+      <c r="A2608" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B2608" t="s">
+        <v>4856</v>
+      </c>
+      <c r="C2608" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2608" s="24" t="s">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4" ht="17">
+      <c r="A2609" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B2609" t="s">
+        <v>4860</v>
+      </c>
+      <c r="C2609" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2609" s="24" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:4" ht="17">
+      <c r="A2610" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B2610" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C2610" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2610" s="24" t="s">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4" ht="17">
+      <c r="A2611" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B2611" t="s">
+        <v>4850</v>
+      </c>
+      <c r="C2611" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2611" s="24" t="s">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:4" ht="17">
+      <c r="A2612" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B2612" t="s">
+        <v>4864</v>
+      </c>
+      <c r="C2612" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2612" s="24" t="s">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:4" ht="17">
+      <c r="A2613" t="s">
+        <v>4866</v>
+      </c>
+      <c r="B2613" t="s">
+        <v>4867</v>
+      </c>
+      <c r="C2613" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2613" s="24" t="s">
+        <v>4865</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1263" xr:uid="{2256DC32-02D8-D349-8B3E-F46775F2E74F}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/人物关系表.xlsx
+++ b/data/人物关系表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/people_relation_extract/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878BFB7D-E9E0-3F47-B971-0E48A65C4304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8AA4E6-F8BA-F245-A0C9-8030B03407A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="4868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10670" uniqueCount="4940">
   <si>
     <t>人物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18149,6 +18149,285 @@
   </si>
   <si>
     <t>郭琳山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄汝梁、钟柳芬有两个孩子，儿子今年7岁，女儿才2岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄汝梁</t>
+  </si>
+  <si>
+    <t>钟柳芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈起曾经一起求学的日子，王大牛非常怀念他的师妹李晓华。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王大牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晓华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨澜、倪萍、董浩、朱军、朱时茂、陈佩斯、马未都等赵忠祥的生前好友及同僚纷纷前往悼念，也有市民自发前往送别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨澜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱时茂</t>
+  </si>
+  <si>
+    <t>马未都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵忠祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿子霖故意大声问回家来的二儿子兆海：“上海的路怎么走？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿子霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车万翔, 刘挺, 李生. 实体关系自动抽取. 中文信息学报 ,2005 ,19 (2) : 126.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车万翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘挺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋凌志的爱人翟利平回忆道：“当天一家人正在吃午饭，接到通知时由于时间很紧，来不及送爱人去机场，只送到了小区门口。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋凌志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翟利平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICU外，张卫兵的妻子王芳五天五夜没有合眼，「你甚至怕自己去上个厕所，一出ICU，他就不在了。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张卫兵</t>
+  </si>
+  <si>
+    <t>王芳</t>
+  </si>
+  <si>
+    <t>大学时期的好朋友小冉回忆，吴花燕曾告诉她，高三时不仅父亲去世，她自己也经常生病，同一年弟弟吴江龙患上精神疾病，「开始胡言乱语，眼神呆滞，到处乱跑，连我都不认识了。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小冉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴花燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴江龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因病入院前，吴花燕实习的公司是盛华学院后勤处老师王珊帮她联系的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王珊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归侨子女、66届高三生、77级大学生、在杜润生门下做农村研究，前半生里，卢迈的每一个人生际遇都踩在国家的转折点上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜润生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢迈</t>
+  </si>
+  <si>
+    <t>卢迈则对《中国新闻周刊》引用昔日老领导王岐山对他的评价：得之于认真、失之于认真；要有理想，但不要理想主义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢迈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岐山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高人民法院原常务副院长沈德咏与王利明是多年的朋友。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈德咏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王利明</t>
+  </si>
+  <si>
+    <t>张仲伯在上世纪50年代毕业于中国人民大学，师从佟柔教授。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张仲伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佟柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王利明始终牢记佟柔的嘱托，对恩师充满敬仰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王利明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国政法大学商法学教授、曾师从王利明研习民商法的李建伟称，检索四十年来法学学者的著述，王利明教授一直是“双冠王”——发表论文与专著的数量第一、文章被引用次数第一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李建伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周娜是沈志华带过的博士生，研究中心成立的时候，周娜被调入研究中心工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈志华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009年5月，沈志华在北京的三味书屋作讲座，老朋友徐庆全找他，说晚上喝酒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐庆全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹妹丁永宁曾任新华社资深记者，离休后担任国家高端智库新华社世界问题研究中心的研究员，她常把国内外大事说给丁石孙听。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁永宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁石孙</t>
+  </si>
+  <si>
+    <t>民盟中央研究室主任刘圣宇曾担任丁石孙的秘书，他也常从网上搜集新闻，尤其是知识分子关心的事，打印一摞，带去念给丁石孙听。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘圣宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李忠和其他人都保留了当年的习惯，称呼丁石孙“老丁”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李忠</t>
+  </si>
+  <si>
+    <t>丁石孙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李锦文和刘伟强之间的合作，可以追溯到三十多年前。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李锦文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海明威和第一任妻子哈德莉1921年结婚后，开始计划一场海外探险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海明威</t>
+  </si>
+  <si>
+    <t>哈德莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅法作家、海明威的好友阿奇博尔德·迈克利什说，海明威“在完全默默无闻的时候就已决意当一个非常非常伟大的作家”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海明威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿奇博尔德·迈克利什</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪上加霜的是，在总部，海明威还遇到了难缠的上司哈里·欣德马什。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈里·欣德马什</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18817,10 +19096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E723F4E-CCCC-CB4F-8E00-CADB81944E23}">
-  <dimension ref="A1:D2613"/>
+  <dimension ref="A1:D2668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2603" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D2614" sqref="D2614"/>
+    <sheetView tabSelected="1" topLeftCell="A2650" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D2669" sqref="D2669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -55414,6 +55693,776 @@
         <v>4865</v>
       </c>
     </row>
+    <row r="2614" spans="1:4" ht="17">
+      <c r="A2614" t="s">
+        <v>4869</v>
+      </c>
+      <c r="B2614" t="s">
+        <v>4870</v>
+      </c>
+      <c r="C2614" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2614" s="24" t="s">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:4" ht="17">
+      <c r="A2615" t="s">
+        <v>4872</v>
+      </c>
+      <c r="B2615" t="s">
+        <v>4873</v>
+      </c>
+      <c r="C2615" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2615" s="24" t="s">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:4" ht="17">
+      <c r="A2616" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B2616" t="s">
+        <v>4876</v>
+      </c>
+      <c r="C2616" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2616" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:4" ht="17">
+      <c r="A2617" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B2617" t="s">
+        <v>4877</v>
+      </c>
+      <c r="C2617" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2617" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:4" ht="17">
+      <c r="A2618" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B2618" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C2618" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2618" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:4" ht="17">
+      <c r="A2619" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B2619" t="s">
+        <v>4878</v>
+      </c>
+      <c r="C2619" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2619" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:4" ht="17">
+      <c r="A2620" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B2620" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C2620" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2620" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4" ht="17">
+      <c r="A2621" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B2621" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C2621" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2621" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4" ht="17">
+      <c r="A2622" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B2622" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C2622" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2622" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4" ht="17">
+      <c r="A2623" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B2623" t="s">
+        <v>4877</v>
+      </c>
+      <c r="C2623" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2623" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:4" ht="17">
+      <c r="A2624" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B2624" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C2624" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2624" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:4" ht="17">
+      <c r="A2625" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B2625" t="s">
+        <v>4878</v>
+      </c>
+      <c r="C2625" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2625" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:4" ht="17">
+      <c r="A2626" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B2626" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C2626" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2626" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:4" ht="17">
+      <c r="A2627" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B2627" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C2627" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2627" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:4" ht="17">
+      <c r="A2628" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B2628" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C2628" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2628" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:4" ht="17">
+      <c r="A2629" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B2629" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C2629" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2629" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:4" ht="17">
+      <c r="A2630" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B2630" t="s">
+        <v>4878</v>
+      </c>
+      <c r="C2630" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2630" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:4" ht="17">
+      <c r="A2631" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B2631" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C2631" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2631" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:4" ht="17">
+      <c r="A2632" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B2632" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C2632" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2632" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:4" ht="17">
+      <c r="A2633" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B2633" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C2633" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2633" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:4" ht="17">
+      <c r="A2634" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B2634" t="s">
+        <v>4878</v>
+      </c>
+      <c r="C2634" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2634" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:4" ht="17">
+      <c r="A2635" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B2635" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C2635" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2635" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:4" ht="17">
+      <c r="A2636" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B2636" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C2636" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2636" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:4" ht="17">
+      <c r="A2637" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B2637" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C2637" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2637" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:4" ht="17">
+      <c r="A2638" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B2638" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C2638" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2638" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:4" ht="17">
+      <c r="A2639" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B2639" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C2639" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2639" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:4" ht="17">
+      <c r="A2640" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B2640" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C2640" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2640" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:4" ht="17">
+      <c r="A2641" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B2641" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C2641" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2641" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:4" ht="17">
+      <c r="A2642" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B2642" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C2642" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2642" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:4" ht="17">
+      <c r="A2643" t="s">
+        <v>4879</v>
+      </c>
+      <c r="B2643" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C2643" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2643" s="24" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:4" ht="17">
+      <c r="A2644" t="s">
+        <v>4882</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C2644" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2644" s="24" t="s">
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:4" ht="17">
+      <c r="A2645" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C2645" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2645" s="24" t="s">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:4" ht="17">
+      <c r="A2646" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C2646" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2646" s="24" t="s">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:4" ht="17">
+      <c r="A2647" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C2647" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2647" s="24" t="s">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:4" ht="17">
+      <c r="A2648" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C2648" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2648" s="24" t="s">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:4" ht="17">
+      <c r="A2649" t="s">
+        <v>4892</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C2649" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2649" s="24" t="s">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:4" ht="17">
+      <c r="A2650" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B2650" t="s">
+        <v>4896</v>
+      </c>
+      <c r="C2650" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2650" s="24" t="s">
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:4" ht="17">
+      <c r="A2651" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>4897</v>
+      </c>
+      <c r="C2651" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2651" s="24" t="s">
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:4" ht="17">
+      <c r="A2652" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>4897</v>
+      </c>
+      <c r="C2652" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2652" s="24" t="s">
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:4" ht="17">
+      <c r="A2653" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B2653" t="s">
+        <v>4899</v>
+      </c>
+      <c r="C2653" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2653" s="24" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:4" ht="17">
+      <c r="A2654" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B2654" t="s">
+        <v>4902</v>
+      </c>
+      <c r="C2654" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2654" s="24" t="s">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:4">
+      <c r="A2655" t="s">
+        <v>4904</v>
+      </c>
+      <c r="B2655" t="s">
+        <v>4905</v>
+      </c>
+      <c r="C2655" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2655" t="s">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:4" ht="17">
+      <c r="A2656" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B2656" t="s">
+        <v>4908</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2656" s="24" t="s">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:4">
+      <c r="A2657" t="s">
+        <v>4910</v>
+      </c>
+      <c r="B2657" t="s">
+        <v>4911</v>
+      </c>
+      <c r="C2657" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2657" t="s">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:4">
+      <c r="A2658" t="s">
+        <v>4913</v>
+      </c>
+      <c r="B2658" t="s">
+        <v>4911</v>
+      </c>
+      <c r="C2658" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2658" t="s">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:4">
+      <c r="A2659" t="s">
+        <v>4913</v>
+      </c>
+      <c r="B2659" t="s">
+        <v>4915</v>
+      </c>
+      <c r="C2659" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2659" t="s">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:4">
+      <c r="A2660" t="s">
+        <v>4917</v>
+      </c>
+      <c r="B2660" t="s">
+        <v>4918</v>
+      </c>
+      <c r="C2660" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2660" t="s">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:4">
+      <c r="A2661" t="s">
+        <v>4918</v>
+      </c>
+      <c r="B2661" t="s">
+        <v>4920</v>
+      </c>
+      <c r="C2661" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2661" t="s">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:4">
+      <c r="A2662" t="s">
+        <v>4922</v>
+      </c>
+      <c r="B2662" t="s">
+        <v>4923</v>
+      </c>
+      <c r="C2662" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2662" t="s">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:4">
+      <c r="A2663" t="s">
+        <v>4925</v>
+      </c>
+      <c r="B2663" t="s">
+        <v>4923</v>
+      </c>
+      <c r="C2663" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2663" t="s">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:4">
+      <c r="A2664" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B2664" t="s">
+        <v>4928</v>
+      </c>
+      <c r="C2664" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2664" t="s">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:4">
+      <c r="A2665" t="s">
+        <v>4930</v>
+      </c>
+      <c r="B2665" t="s">
+        <v>4931</v>
+      </c>
+      <c r="C2665" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2665" t="s">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:4">
+      <c r="A2666" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B2666" t="s">
+        <v>4934</v>
+      </c>
+      <c r="C2666" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2666" t="s">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:4">
+      <c r="A2667" t="s">
+        <v>4936</v>
+      </c>
+      <c r="B2667" t="s">
+        <v>4937</v>
+      </c>
+      <c r="C2667" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2667" t="s">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:4">
+      <c r="A2668" t="s">
+        <v>4936</v>
+      </c>
+      <c r="B2668" t="s">
+        <v>4939</v>
+      </c>
+      <c r="C2668" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2668" t="s">
+        <v>4938</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1263" xr:uid="{2256DC32-02D8-D349-8B3E-F46775F2E74F}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/人物关系表.xlsx
+++ b/data/人物关系表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/people_relation_extract/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8AA4E6-F8BA-F245-A0C9-8030B03407A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF81515-6E6E-3C4D-9294-695585D15893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10670" uniqueCount="4940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10782" uniqueCount="4981">
   <si>
     <t>人物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18428,6 +18428,160 @@
   </si>
   <si>
     <t>哈里·欣德马什</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此刻，杜富强的二姐杜富佳、三哥杜富民，同样也奔赴他们人生的“阿相比拉”：抗击新冠肺炎疫情一线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜富强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜富佳</t>
+  </si>
+  <si>
+    <t>杜富民</t>
+  </si>
+  <si>
+    <t>在这个事先约定好的时间，远在西藏边防的幺弟杜富强、身在抗疫一线的二姐杜富佳，以及三弟杜富民，与大哥杜富国一起“隔空”团圆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜富国</t>
+  </si>
+  <si>
+    <t>戴着墨镜的杜富国，在母亲李合兰的搀扶下走出房门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李合兰</t>
+  </si>
+  <si>
+    <t>可是哥哥杜富国已经7年没有回家过年了，杜富佳不知如何向哥哥开口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜富国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜富佳是四兄妹中唯一的女孩，也是哥哥杜富国最疼爱的妹妹，他敏锐地察觉到妹妹情绪的变化，率先张口问道：“富佳，你们医院现在什么情况啊？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜富佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他的生前好友，主持人吉米-坎摩尔不愿忘记的科比，是艺术家：“无数人曾被他激励，他不光是一个篮球运动员，还是一个艺术家。每一个他曾经接受过无尽嘘声的球场，他都在被想念着。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉米-坎摩尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+  </si>
+  <si>
+    <t>洛杉矶女篮传奇，“白曼巴”桃乐西不愿忘记的科比，是并肩的战友：“我们一起挣扎，一起成长，一起庆祝。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃乐西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老队友奥尼尔不愿忘记的科比，是年轻气盛的“冤家”：“你们都知道，我跟科比的关系很复杂，没有哪个队友能如此激发我……事实上，我跟科比一直都尊重彼此，爱着彼此。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尼尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而作为妻子，瓦妮莎不愿忘记的科比，是她的灵魂伴侣，是她孩子的父亲：“他是NBA名宿，拿过奥斯卡，绰号黑曼巴。但对我来说，他是我的koko，我的bobo，我没办法把他看作名人和运动员，他是我的丈夫，我孩子的父亲，我的一切。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦妮莎</t>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伟大高傲的迈克尔-乔丹，甚至从头到尾泪流满面：“我跟科比是非常亲密的朋友，他像我的弟弟一样亲，我也想努力成为他最好的大哥。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈克尔-乔丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京时间25日凌晨，已故篮球巨星科比及女儿吉安娜的追悼会在斯坦普斯中心举办。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉安娜</t>
+  </si>
+  <si>
+    <t>吉安娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉安娜是科比和妻子瓦妮莎的第二个女儿，大家喜欢叫她的昵称Gigi。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦妮莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gigi</t>
+  </si>
+  <si>
+    <t>还有更令大家惊讶的是，苏有朋之前也曾疯狂追求过高露，据说追了三年，可真是长情的，可令人遗憾的是，最终两人还是没能走到一起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏有朋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高露</t>
+  </si>
+  <si>
+    <t>组成希望联盟的四个政党中，人民公正党是最大政党，该党主席安瓦尔不担任公职，但他的妻子万·阿齐扎·万·伊斯梅尔担任政府副总理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安瓦尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万·阿齐扎·万·伊斯梅尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭碧婷向佐未领结婚证的消息出来后，引发回应。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭碧婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向佐</t>
+  </si>
+  <si>
+    <t>向佐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近日，向佐在节目中袒露，他与郭碧婷结婚还未领证，让吃瓜群众一时难以置信。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19096,10 +19250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E723F4E-CCCC-CB4F-8E00-CADB81944E23}">
-  <dimension ref="A1:D2668"/>
+  <dimension ref="A1:D2696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2650" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D2669" sqref="D2669"/>
+    <sheetView tabSelected="1" topLeftCell="A2681" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C2695" sqref="C2695:C2696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -56463,6 +56617,398 @@
         <v>4938</v>
       </c>
     </row>
+    <row r="2669" spans="1:4">
+      <c r="A2669" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B2669" t="s">
+        <v>4942</v>
+      </c>
+      <c r="C2669" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2669" t="s">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:4">
+      <c r="A2670" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B2670" t="s">
+        <v>4943</v>
+      </c>
+      <c r="C2670" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2670" t="s">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:4">
+      <c r="A2671" t="s">
+        <v>4942</v>
+      </c>
+      <c r="B2671" t="s">
+        <v>4943</v>
+      </c>
+      <c r="C2671" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2671" t="s">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:4">
+      <c r="A2672" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B2672" t="s">
+        <v>4942</v>
+      </c>
+      <c r="C2672" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:4">
+      <c r="A2673" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B2673" t="s">
+        <v>4943</v>
+      </c>
+      <c r="C2673" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2673" t="s">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:4">
+      <c r="A2674" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B2674" t="s">
+        <v>4945</v>
+      </c>
+      <c r="C2674" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2674" t="s">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:4">
+      <c r="A2675" t="s">
+        <v>4942</v>
+      </c>
+      <c r="B2675" t="s">
+        <v>4943</v>
+      </c>
+      <c r="C2675" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2675" t="s">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:4">
+      <c r="A2676" t="s">
+        <v>4942</v>
+      </c>
+      <c r="B2676" t="s">
+        <v>4945</v>
+      </c>
+      <c r="C2676" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2676" t="s">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:4">
+      <c r="A2677" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B2677" t="s">
+        <v>4945</v>
+      </c>
+      <c r="C2677" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:4">
+      <c r="A2678" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B2678" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C2678" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:4">
+      <c r="A2679" t="s">
+        <v>4949</v>
+      </c>
+      <c r="B2679" t="s">
+        <v>4942</v>
+      </c>
+      <c r="C2679" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2679" t="s">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:4">
+      <c r="A2680" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B2680" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C2680" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2680" t="s">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:4">
+      <c r="A2681" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B2681" t="s">
+        <v>4954</v>
+      </c>
+      <c r="C2681" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2681" t="s">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:4">
+      <c r="A2682" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B2682" t="s">
+        <v>4954</v>
+      </c>
+      <c r="C2682" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2682" t="s">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:4">
+      <c r="A2683" t="s">
+        <v>4958</v>
+      </c>
+      <c r="B2683" t="s">
+        <v>4954</v>
+      </c>
+      <c r="C2683" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2683" t="s">
+        <v>4957</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:4">
+      <c r="A2684" t="s">
+        <v>4960</v>
+      </c>
+      <c r="B2684" t="s">
+        <v>4961</v>
+      </c>
+      <c r="C2684" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2684" t="s">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:4">
+      <c r="A2685" t="s">
+        <v>4963</v>
+      </c>
+      <c r="B2685" t="s">
+        <v>4961</v>
+      </c>
+      <c r="C2685" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2685" t="s">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:4">
+      <c r="A2686" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B2686" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C2686" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2686" t="s">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:4">
+      <c r="A2687" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B2687" t="s">
+        <v>4961</v>
+      </c>
+      <c r="C2687" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2687" t="s">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:4">
+      <c r="A2688" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B2688" t="s">
+        <v>4968</v>
+      </c>
+      <c r="C2688" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2688" t="s">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:4">
+      <c r="A2689" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B2689" t="s">
+        <v>4969</v>
+      </c>
+      <c r="C2689" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2689" t="s">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:4">
+      <c r="A2690" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B2690" t="s">
+        <v>4968</v>
+      </c>
+      <c r="C2690" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2690" t="s">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:4">
+      <c r="A2691" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B2691" t="s">
+        <v>4969</v>
+      </c>
+      <c r="C2691" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2691" t="s">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:4">
+      <c r="A2692" t="s">
+        <v>4968</v>
+      </c>
+      <c r="B2692" t="s">
+        <v>4969</v>
+      </c>
+      <c r="C2692" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2692" t="s">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:4">
+      <c r="A2693" t="s">
+        <v>4971</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>4972</v>
+      </c>
+      <c r="C2693" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2693" t="s">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:4">
+      <c r="A2694" t="s">
+        <v>4974</v>
+      </c>
+      <c r="B2694" t="s">
+        <v>4975</v>
+      </c>
+      <c r="C2694" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2694" t="s">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:4">
+      <c r="A2695" t="s">
+        <v>4977</v>
+      </c>
+      <c r="B2695" t="s">
+        <v>4979</v>
+      </c>
+      <c r="C2695" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2695" t="s">
+        <v>4976</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:4">
+      <c r="A2696" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B2696" t="s">
+        <v>4977</v>
+      </c>
+      <c r="C2696" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2696" t="s">
+        <v>4980</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1263" xr:uid="{2256DC32-02D8-D349-8B3E-F46775F2E74F}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/人物关系表.xlsx
+++ b/data/人物关系表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/people_relation_extract/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF81515-6E6E-3C4D-9294-695585D15893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F1308-67BB-5F46-87A1-056875D491AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10782" uniqueCount="4981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11286" uniqueCount="5292">
   <si>
     <t>人物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18582,6 +18582,1223 @@
   </si>
   <si>
     <t>近日，向佐在节目中袒露，他与郭碧婷结婚还未领证，让吃瓜群众一时难以置信。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康桂芹</t>
+  </si>
+  <si>
+    <t>赵祯</t>
+  </si>
+  <si>
+    <t>刘铁刚</t>
+  </si>
+  <si>
+    <t>石齐</t>
+  </si>
+  <si>
+    <t>陈素屏</t>
+  </si>
+  <si>
+    <t>李岱春</t>
+  </si>
+  <si>
+    <t>杜广明</t>
+  </si>
+  <si>
+    <t>阮福玉琂</t>
+  </si>
+  <si>
+    <t>李永起</t>
+  </si>
+  <si>
+    <t>徐文乐</t>
+  </si>
+  <si>
+    <t>郭彦</t>
+  </si>
+  <si>
+    <t>赵襄子</t>
+  </si>
+  <si>
+    <t>顾乾</t>
+  </si>
+  <si>
+    <t>姬静</t>
+  </si>
+  <si>
+    <t>姚愔</t>
+  </si>
+  <si>
+    <t>孙庆国</t>
+  </si>
+  <si>
+    <t>孙振铎</t>
+  </si>
+  <si>
+    <t>郭晓龙</t>
+  </si>
+  <si>
+    <t>王邑</t>
+  </si>
+  <si>
+    <t>张小北</t>
+  </si>
+  <si>
+    <t>郝德元</t>
+  </si>
+  <si>
+    <t>何唯一</t>
+  </si>
+  <si>
+    <t>刘孟扬</t>
+  </si>
+  <si>
+    <t>王尧清</t>
+  </si>
+  <si>
+    <t>徐天明</t>
+  </si>
+  <si>
+    <t>冯春</t>
+  </si>
+  <si>
+    <t>张铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（原重庆警备区顾问）:张铭（1920—)，原名张克明，张陶乡小张庄人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阮征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李汴生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、李汴生，阮征，《非热杀菌技术与应用》，化学工业出版社，2004，北京.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9）黄权中,黄冠华.基于R-L定义的分数微分对流－弥散方程有限元解.武汉大学学报,2009,42(6):695-700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯启凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁宗第虽然据险拼杀，终因寡不敌众，将士阵亡和跳崖跌死的多达二千五六百人，被俘三百余名，部下新化伯冯启凤缴印投降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔6〕周红梅,方芳.航运集装箱空箱调运优化模型的研究.武汉理工大学学报(交通科学与工程版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宝初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李泽金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宝初(1904－1950)，又名李泽金，高小文化，军人出身，广西横县平马乡黄塘村人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周雪飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《图说环境保护》是2010年同济大学出版社出版的图书，作者是周雪飞，张亚雷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张国朝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张国朝（1955-），又名张驰，号危石，汉族，毕业于河南大学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐佛苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐佛苏简介:在日本与当时留学生的同盟会，日知会等交往.曾担任或黄兴先生的秘书；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱慧安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱禄新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱禄新，生卒年不详，海上画家钱慧安之子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林夕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林夕在电台访问中曾被好友杜琪峰逼供，终于剖白性取向，不讳言自视女人，望着床边心爱的男人，才能写出反映女性心声的歌词。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周生祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永蔚旋寄养至小姑克庄家，由姑父周生祥（周钦岳嫡侄）供其就读于重庆南开中学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙国章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（山东莱州人）:孙国章原名孙国胜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于是，去年底，冯明诗“有感而发”写出一首“打油诗”表达困惑，并由女儿冯君发表在了“麻辣社区”网上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一九二零年，刘鑫长子刘香久继任义聚永经理后，再次对玫瑰露和五加皮酒进行了技术改造，形成了独特的风格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱会作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上密村村民、邱会作的第三个侄女邱满秀兴奋地说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19李杨，吕占霞，张欣等，一种低含量低聚物烯烃共聚物的制备方法，ZL2004，10062498.0（2006）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢路军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘飞，哲学与宗教学博土，师从谢路军教授，目前从事佛教、道教等宗教文化方面工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪涛，戴斌(2014).城市微博：如何营造政府与群众的和谐沟通环境?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它由刘易的父亲、全国首届科学大会获奖者刘亚之先生命名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周墀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等到杜牧的好朋友周墀出任宰相，杜牧便接连写了三封信，请求出任湖州刺史。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《内科临床实习指南》作者汪悦，刘健。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马福祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1912年8月，袁世凯任马福祥为宁夏护军使。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯纯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《法学原理》是2011年8月中国铁道出版社出版的图书，作者是侯纯、武红羽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《活血降压食物》是2002年中原农民出版社出版的图书，作者是赵伟俊，路胜楠，王江。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚继仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚雅仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚继仙个人经历:1982年赴上海拜戚雅仙为师，成为戚派传人，并得到了老师的真传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵寅永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵秉夔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——赵秉夔（1821年—1858年，过继给叔父赵寅永）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯国伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯春旭的女儿冯国伟说，这块地被卖了之后，水沟被围了起来，村里人没办法抽水，很多村民包括她们家在内浇地都受到影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在洗脸的施丽清的妹妹施耀青，见状迅速扑在哥哥身上急急呼唤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪荭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、基于GONE理论的上市公司财务报告舞弊识别研究洪荭;胡华夏;郭春飞;84-90+97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东诺夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为最高统帅部的代表被派往高加索，这期间与贝利亚和安东诺夫结成了亲密战友。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘金和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创始人潘根生，1941年其子潘金和开始营业，以其风味独特，经营灵活，故生意兴隆，远近驰名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阮玲玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该片中与阮玲玉合作的则是有风流艳星之称的杨耐梅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江玲儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽,温柔的江玲儿和张涛原本就是一对情侣,由于林依草的闯入,张涛死于非命,江玲儿长睡不起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤俊羿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨向明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六年级学生汤俊羿至今记得当年杨向明老师对他的一次急救。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张秀茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在大家的催促、操持下，韩慕侠与张秀茹喜结连理，建立了家庭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王用之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安世家族状况:祖父：王用之，曾任卫尉寺丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许敬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生二子：曰许济、许敬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和志虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和志虹当年的班长陈英说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金民哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、徐天明，男，31岁，他跟陈爱华、金民哲同为大学同学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈爱华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐天明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张易简</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏洵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北宋庆历三年（1043年），苏洵送苏轼入天庆观北极院小学读书，以道士张易简为师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕产家族成员:祖父：吕公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁银丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.郝明德、梁银丽主编：《长武农业生态系统结构、功能及调控原理与技术》，气象出版社，北京，1998。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丽杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨奎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经成家的杨奎烈和妻子马丽杰还为此发生了一场争吵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵文理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵文理主要人员:父亲：赵洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴炳桓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县庠生周官营人吴德山怜其清苦，以长女招赘荫华，取名吴炳桓，字平阶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗孀尹马氏，在艰难的生活中，鼎力抚养年仅七岁的独生子文超。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎雄才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁剑虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1986-1989年先后拜黎雄才的弟子—汤青海教授、湖南画家丁剑虹先生为师，学习中国书画。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林永松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近年来，林永松又从李可染先生上溯李唐、龚半千，在用墨技法上痛下了几年的苦功夫，始终游弋于古今先贤的左右，不即不离。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李定国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明将李定国遣其将刘正国等据险拒战，击之溃，自水西走云南，取遵义及所属州县；复进克开州，并招降水西土司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘萼华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘萼华女士与王尧清先生(油田总工程师)伉俪现居广东省湛江市。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芮玮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶青和夏儿都惨遭简召舞的毒手，而此二人真可以说是最无辜的二人，也许真的只是因为她们是芮玮的妻妾而已。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张翊华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马新武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《珍稀动物性药材生产》是2004年农业出版社出版的图书，作者是张翊华，马新武。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛蛮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后丁玮与薛蛮子成婚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨尚清（1989—-），又名杨坤，男，河南光山县人·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何孟春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李东阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何孟春少年时代在李东阳门下求学，学问很广博。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因光武帝刘秀青年时代在南顿生活过（父刘钦做南顿县令时），称帝后，下旨免南顿县二年田租。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王逸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古界域王凤兰:王逸的妹妹，撑过了成仙战，不料在仙门战中为了助王逸成仙而灰飞烟灭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘清扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民国七年初夏（1918年），刘孟扬（天津回民，据说是刘清扬之胞弟）奉省令任磁县县长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧湘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不久，萧湘在日本参加孙中山先生领导的同盟会，并积极参加同盟会的各项活动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛斌去世时，薛寿童年仅五岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李靖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地人法内容简介:李沁是大洛朝第一猛将李靖庶出,其母原为一隐世宗派的弟子,因一些原因而被逐出师门,废去道行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚雨平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1911年春，姚雨平与黄兴等人发动广州“三·二九”起义，任调度课长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎次珊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤建英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在校园里，黎次珊、汤建英伉俪还亲手种下了常青树。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴国梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴国栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴国栋是巴国梁的哥哥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何唯一(1301～1363年)，又名太平(蒙古语)，字允中，鄠(今陕西户县)人，贺胜之子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝寿臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另有西跨院和数间附属房，1985年郝寿臣之子郝德元遵照其父遗嘱，将故居献给政府办幼儿福利事业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周咏欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许咏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案情：周咏欣因为姐姐许咏琳不肯收留以致被继父强奸，怀恨在心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱慈煊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱慈煊是明昭宗朱由榔第三子，永历五年（1651年）封为皇太子，成为中国史上第一个改信基督教之太子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱由榔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱慈煊家庭:朱慈煊父母:父亲：明昭宗朱由榔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈黎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷立华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈黎一直称殷立华为自己的“恩师”，在殷立华2000赛季执教当时的武汉队时，陈黎就是主力左前卫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李励庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈公博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李励庄和陈公博离婚，最后加入中国共产党。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张小北，本名张勇，著名影评人，编剧，“太空堡垒预告片工作室”联合创始人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭宠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆阳之战惨败之后，彭宠跟着王邑逃到洛阳（今河南洛阳）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳曦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏峻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏峻年龄25欧阳曦的男友。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011年10月16日，北京蜜恋婚礼策划有限公司于拉斐特城堡为著名影星鲁晓晓郭晓龙举办“浪漫水晶”主题婚礼；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章伯钧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李哲民从小受到新思想的熏陶，因而与章伯钧一见倾心，两人遂于同年结为伉俪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王焕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王彦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在此书中，王焕与贺怜怜乃是八字军首领王彦的父母。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁昌祚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严嵩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其时严嵩当权，见袁昌祚文才俊拔，年轻貌美，欲招他为婿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高金城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高金城与孙振铎虽有旧交，但孙肯不肯合作，很难预测。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刁夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗人刁夫，原名孙庆国，现在北京一家中央级杂志社供职。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙庆国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刁夫，原名孙庆国，男，山东临沂人，大学本科学历。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖清碧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张建国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在妻子廖清碧的眼里，张建国是个十足的“工作狂”：“一周回家一次，家里的事他没时间管。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后秦弘始十八年（416年），姚兴临终前，他的儿子南阳公姚愔图谋杀死太子，结果事情败露了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周宣王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周宣王叫姬静，他在位四十六年，比较有作为，他注重农业发展，废除了在井田上的奴隶集体耕作制度，这样使生产进一步得到发展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄炳垕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄炳垕（1815年—1893年），字慰亭，号了翁，是清代后期的天文、历算、史地学家，是黄宗羲的七世孙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李景逷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李昪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年16岁，入后宫乐部为官妓，得到李昪的临幸，938年生皇子李景逷（保宁王），时种氏年约18岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾福昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾氏三兄弟继承父业，经营蚕丝，以顾寿藏最有声望，曾任上海丝业公所董事长，有名的爱国教育家顾乾翰先生就是顾福昌的曾孙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后来赵武的曾孙赵襄子和韩氏、魏氏三家分晋，建立了赵国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵襄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵武以后三世至赵襄子，韩、赵、魏灭智伯，三家分晋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭彦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭采洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭采洁（1986年2月19日－），是一名台湾女歌手、女演员，在就读高中前本名郭彦君，是第六届北韵奖冠军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸的沉默歌手简介:郭采洁郭采洁（1986年2月19日－），是一名台湾女歌手、女演员，在就读高中前本名郭彦君。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张树声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1人物经历:张充和的曾祖是晚清名臣张树声，曾任两广总督。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张充和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张充和人物经历:张充和的曾祖是晚清名臣张树声，曾任两广总督。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康巴哈那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗波那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康巴哈那（Kumbhakarna）：罗波那的弟弟，被因陀罗陷害，向梵天祈求了永远沉睡的愿望。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林振国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这辈子,徐文乐作为是林振国的儿子重生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白玉霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们夫妻两个开了一个豆腐坊，李永起做豆腐，白玉霜卖，倒真的做起“豆腐西施”来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高琛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高欢兄弟:弟弟赵郡王高琛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗冠国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗伟的牺牲，父亲的去世，使罗冠国在精神上受到莫大的创伤，他化悲痛为力量，全力以赴地投入革命工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹秉衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹秉衡与王邦直义气相投，结为知己。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王邦直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁万达知道尹秉衡、王邦直等人都是一些忠勇敢死之士，分别与他们推心置腹，格外器重，众人都发誓效死力、报知己。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳贯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许谦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋亡，筑室隐居金华仁山下，讲学著书，以淑后进，许谦、柳贯皆出其门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元代著名学者许谦（金华人）、柳贯（兰溪人）即出其门人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎文燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阮福玉琂，安义贞丽公主，嫁黎文燕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭钗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据河北日报报道，2月27日上午10时左右，辛集市中医院护士郭钗带着儿子杜广明来到姐姐郭妥的幼儿园。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜广明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭钗倒下后，穷凶极恶的歹徒又把罪恶的斧头举向了在一旁哭闹着找妈妈、年仅4岁的杜广明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李岱春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晓平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李岱春，男，1976年出生，江苏南通人，师从陈晓平5段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李岱春人物简历:李岱春，男，1976年出生，江苏南通人，师从陈晓平5段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈沙兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈沙兵，原名陈素屏，1920年7月15日出生在永强上京（今龙湾区永中街道上京村），成长於市区屯前街一个贫民家庭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈素屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈沙兵（一九二o年七月至一九七九年五月）原名陈素屏，浙江省温州市人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈柱尊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈一百</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期间，陈柱尊和陈一百父子分别写下了许多动人的诗章。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘铁刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKSD室内设计事务所总裁刘铁刚先生自幼酷爱绘画艺术，师从银若湖、陈西川、石齐等艺术大师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘铁刚先生自幼酷爱绘画艺术，是绘画艺术界泰斗石齐先大师的学生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋克峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋克峰，艺名宋飞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋飞，原名宋克峰，河南舞钢人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚国公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚国公主，宋仁宗赵祯第五女，生母不详。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该片主要讲述了自幼双目失明的音乐神童刘浩在母亲康桂芹的帮助下，不畏艰难刻苦学琴的故事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康桂芹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他建议康桂芹带着刘浩去北京拜师求学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王廷义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王廷义，王景长子，外号“王当代”，官至横州团练使，后在随征太原战死，获赠建雄军节度使。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王廷义，王景子，莱州掖人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵欣欣</t>
+  </si>
+  <si>
+    <t>赵欣欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该片讲述了待嫁女赵欣欣和男友齐鹏恋爱三年，在最后冲刺阶段，两人关系却面临土崩瓦解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我男朋友的前女友们剧情梗概:赵欣欣为了给自己的感情问题找到一个答案，决定从男友齐鹏身上寻找线索。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19250,10 +20467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E723F4E-CCCC-CB4F-8E00-CADB81944E23}">
-  <dimension ref="A1:D2696"/>
+  <dimension ref="A1:D2822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2681" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C2695" sqref="C2695:C2696"/>
+    <sheetView tabSelected="1" topLeftCell="A2804" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D2824" sqref="D2824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -57009,6 +58226,1770 @@
         <v>4980</v>
       </c>
     </row>
+    <row r="2697" spans="1:4">
+      <c r="A2697" t="s">
+        <v>5007</v>
+      </c>
+      <c r="B2697" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C2697" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2697" t="s">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:4">
+      <c r="A2698" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B2698" t="s">
+        <v>5010</v>
+      </c>
+      <c r="C2698" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2698" t="s">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:4">
+      <c r="A2699" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B2699" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C2699" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2699" t="s">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:4">
+      <c r="A2700" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B2700" t="s">
+        <v>5013</v>
+      </c>
+      <c r="C2700" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2700" t="s">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:4">
+      <c r="A2701" t="s">
+        <v>5015</v>
+      </c>
+      <c r="B2701" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C2701" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2701" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:4">
+      <c r="A2702" t="s">
+        <v>5017</v>
+      </c>
+      <c r="B2702" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C2702" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2702" t="s">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:4">
+      <c r="A2703" t="s">
+        <v>5020</v>
+      </c>
+      <c r="B2703" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C2703" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2703" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:4">
+      <c r="A2704" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B2704" t="s">
+        <v>5023</v>
+      </c>
+      <c r="C2704" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2704" t="s">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:4">
+      <c r="A2705" t="s">
+        <v>5025</v>
+      </c>
+      <c r="B2705" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2705" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2705" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:4">
+      <c r="A2706" t="s">
+        <v>5027</v>
+      </c>
+      <c r="B2706" t="s">
+        <v>5028</v>
+      </c>
+      <c r="C2706" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2706" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:4">
+      <c r="A2707" t="s">
+        <v>5030</v>
+      </c>
+      <c r="B2707" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C2707" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2707" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:4">
+      <c r="A2708" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B2708" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C2708" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2708" t="s">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:4">
+      <c r="A2709" t="s">
+        <v>5035</v>
+      </c>
+      <c r="B2709" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C2709" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2709" t="s">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:4">
+      <c r="A2710" t="s">
+        <v>5037</v>
+      </c>
+      <c r="B2710" t="s">
+        <v>5038</v>
+      </c>
+      <c r="C2710" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2710" t="s">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:4">
+      <c r="A2711" t="s">
+        <v>5040</v>
+      </c>
+      <c r="B2711" t="s">
+        <v>5041</v>
+      </c>
+      <c r="C2711" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2711" t="s">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:4">
+      <c r="A2712" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B2712" t="s">
+        <v>5043</v>
+      </c>
+      <c r="C2712" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2712" t="s">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:4">
+      <c r="A2713" t="s">
+        <v>5045</v>
+      </c>
+      <c r="B2713" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C2713" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2713" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:4">
+      <c r="A2714" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B2714" t="s">
+        <v>5048</v>
+      </c>
+      <c r="C2714" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2714" t="s">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:4">
+      <c r="A2715" t="s">
+        <v>5050</v>
+      </c>
+      <c r="B2715" t="s">
+        <v>5051</v>
+      </c>
+      <c r="C2715" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2715" t="s">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:4">
+      <c r="A2716" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B2716" t="s">
+        <v>5053</v>
+      </c>
+      <c r="C2716" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2716" t="s">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:4">
+      <c r="A2717" t="s">
+        <v>5055</v>
+      </c>
+      <c r="B2717" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C2717" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2717" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:4">
+      <c r="A2718" t="s">
+        <v>5057</v>
+      </c>
+      <c r="B2718" t="s">
+        <v>5058</v>
+      </c>
+      <c r="C2718" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2718" t="s">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:4">
+      <c r="A2719" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B2719" t="s">
+        <v>5060</v>
+      </c>
+      <c r="C2719" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2719" t="s">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:4">
+      <c r="A2720" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B2720" t="s">
+        <v>5062</v>
+      </c>
+      <c r="C2720" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2720" t="s">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:4">
+      <c r="A2721" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B2721" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C2721" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2721" t="s">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:4">
+      <c r="A2722" t="s">
+        <v>5066</v>
+      </c>
+      <c r="B2722" t="s">
+        <v>5067</v>
+      </c>
+      <c r="C2722" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2722" t="s">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:4">
+      <c r="A2723" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B2723" t="s">
+        <v>5070</v>
+      </c>
+      <c r="C2723" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2723" t="s">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:4">
+      <c r="A2724" t="s">
+        <v>5006</v>
+      </c>
+      <c r="B2724" t="s">
+        <v>5072</v>
+      </c>
+      <c r="C2724" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2724" t="s">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:4">
+      <c r="A2725" t="s">
+        <v>5074</v>
+      </c>
+      <c r="B2725" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C2725" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2725" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:4">
+      <c r="A2726" t="s">
+        <v>5076</v>
+      </c>
+      <c r="B2726" t="s">
+        <v>5077</v>
+      </c>
+      <c r="C2726" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2726" t="s">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:4">
+      <c r="A2727" t="s">
+        <v>5079</v>
+      </c>
+      <c r="B2727" t="s">
+        <v>5080</v>
+      </c>
+      <c r="C2727" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2727" t="s">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:4">
+      <c r="A2728" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B2728" t="s">
+        <v>5082</v>
+      </c>
+      <c r="C2728" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2728" t="s">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:4">
+      <c r="A2729" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B2729" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C2729" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2729" t="s">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:4">
+      <c r="A2730" t="s">
+        <v>5086</v>
+      </c>
+      <c r="B2730" t="s">
+        <v>5087</v>
+      </c>
+      <c r="C2730" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2730" t="s">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:4">
+      <c r="A2731" t="s">
+        <v>5089</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>5090</v>
+      </c>
+      <c r="C2731" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2731" t="s">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:4">
+      <c r="A2732" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B2732" t="s">
+        <v>5092</v>
+      </c>
+      <c r="C2732" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2732" t="s">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:4">
+      <c r="A2733" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B2733" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C2733" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2733" t="s">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:4">
+      <c r="A2734" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B2734" t="s">
+        <v>5097</v>
+      </c>
+      <c r="C2734" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2734" t="s">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:4">
+      <c r="A2735" t="s">
+        <v>5099</v>
+      </c>
+      <c r="B2735" t="s">
+        <v>5100</v>
+      </c>
+      <c r="C2735" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2735" t="s">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:4">
+      <c r="A2736" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>5102</v>
+      </c>
+      <c r="C2736" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2736" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:4">
+      <c r="A2737" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C2737" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2737" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:4">
+      <c r="A2738" t="s">
+        <v>5105</v>
+      </c>
+      <c r="B2738" t="s">
+        <v>5104</v>
+      </c>
+      <c r="C2738" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2738" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:4">
+      <c r="A2739" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B2739" t="s">
+        <v>5107</v>
+      </c>
+      <c r="C2739" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2739" t="s">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:4">
+      <c r="A2740" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B2740" t="s">
+        <v>5109</v>
+      </c>
+      <c r="C2740" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2740" t="s">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:4">
+      <c r="A2741" t="s">
+        <v>5111</v>
+      </c>
+      <c r="B2741" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C2741" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2741" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:4">
+      <c r="A2742" t="s">
+        <v>5113</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C2742" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2742" t="s">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:4">
+      <c r="A2743" t="s">
+        <v>5116</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>5117</v>
+      </c>
+      <c r="C2743" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2743" t="s">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:4">
+      <c r="A2744" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>5119</v>
+      </c>
+      <c r="C2744" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2744" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:4">
+      <c r="A2745" t="s">
+        <v>5121</v>
+      </c>
+      <c r="B2745" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C2745" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2745" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:4">
+      <c r="A2746" t="s">
+        <v>5123</v>
+      </c>
+      <c r="B2746" t="s">
+        <v>5124</v>
+      </c>
+      <c r="C2746" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2746" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:4">
+      <c r="A2747" t="s">
+        <v>5126</v>
+      </c>
+      <c r="B2747" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2747" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2747" t="s">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:4">
+      <c r="A2748" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>5128</v>
+      </c>
+      <c r="C2748" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2748" t="s">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:4">
+      <c r="A2749" t="s">
+        <v>5130</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>5004</v>
+      </c>
+      <c r="C2749" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2749" t="s">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:4">
+      <c r="A2750" t="s">
+        <v>5132</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>5133</v>
+      </c>
+      <c r="C2750" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2750" t="s">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:4">
+      <c r="A2751" t="s">
+        <v>5135</v>
+      </c>
+      <c r="B2751" t="s">
+        <v>5136</v>
+      </c>
+      <c r="C2751" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2751" t="s">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:4">
+      <c r="A2752" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B2752" t="s">
+        <v>5138</v>
+      </c>
+      <c r="C2752" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2752" t="s">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:4">
+      <c r="A2753" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C2753" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2753" t="s">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:4">
+      <c r="A2754" t="s">
+        <v>5142</v>
+      </c>
+      <c r="B2754" t="s">
+        <v>5143</v>
+      </c>
+      <c r="C2754" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2754" t="s">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:4">
+      <c r="A2755" t="s">
+        <v>5145</v>
+      </c>
+      <c r="B2755" t="s">
+        <v>5146</v>
+      </c>
+      <c r="C2755" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2755" t="s">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:4">
+      <c r="A2756" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>5148</v>
+      </c>
+      <c r="C2756" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2756" t="s">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:4">
+      <c r="A2757" t="s">
+        <v>5150</v>
+      </c>
+      <c r="B2757" t="s">
+        <v>5003</v>
+      </c>
+      <c r="C2757" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2757" t="s">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:4">
+      <c r="A2758" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2758" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C2758" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2758" t="s">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:4">
+      <c r="A2759" t="s">
+        <v>5154</v>
+      </c>
+      <c r="B2759" t="s">
+        <v>5155</v>
+      </c>
+      <c r="C2759" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2759" t="s">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:4">
+      <c r="A2760" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B2760" t="s">
+        <v>5157</v>
+      </c>
+      <c r="C2760" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2760" t="s">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:4">
+      <c r="A2761" t="s">
+        <v>5159</v>
+      </c>
+      <c r="B2761" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2761" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2761" t="s">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:4">
+      <c r="A2762" t="s">
+        <v>5161</v>
+      </c>
+      <c r="B2762" t="s">
+        <v>5162</v>
+      </c>
+      <c r="C2762" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2762" t="s">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:4">
+      <c r="A2763" t="s">
+        <v>5164</v>
+      </c>
+      <c r="B2763" t="s">
+        <v>5165</v>
+      </c>
+      <c r="C2763" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2763" t="s">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:4">
+      <c r="A2764" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B2764" t="s">
+        <v>5167</v>
+      </c>
+      <c r="C2764" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2764" t="s">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:4">
+      <c r="A2765" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>5001</v>
+      </c>
+      <c r="C2765" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2765" t="s">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:4">
+      <c r="A2766" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C2766" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2766" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:4">
+      <c r="A2767" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C2767" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2767" t="s">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:4">
+      <c r="A2768" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B2768" t="s">
+        <v>5174</v>
+      </c>
+      <c r="C2768" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2768" t="s">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:4">
+      <c r="A2769" t="s">
+        <v>5176</v>
+      </c>
+      <c r="B2769" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C2769" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2769" t="s">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:4">
+      <c r="A2770" t="s">
+        <v>5178</v>
+      </c>
+      <c r="B2770" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C2770" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2770" t="s">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:4">
+      <c r="A2771" t="s">
+        <v>5181</v>
+      </c>
+      <c r="B2771" t="s">
+        <v>5182</v>
+      </c>
+      <c r="C2771" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2771" t="s">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:4">
+      <c r="A2772" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B2772" t="s">
+        <v>4099</v>
+      </c>
+      <c r="C2772" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2772" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773" t="s">
+        <v>5185</v>
+      </c>
+      <c r="B2773" t="s">
+        <v>4999</v>
+      </c>
+      <c r="C2773" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2773" t="s">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:4">
+      <c r="A2774" t="s">
+        <v>5187</v>
+      </c>
+      <c r="B2774" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C2774" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2774" t="s">
+        <v>5189</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:4">
+      <c r="A2775" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B2775" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C2775" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2775" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:4">
+      <c r="A2776" t="s">
+        <v>4998</v>
+      </c>
+      <c r="B2776" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C2776" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2776" t="s">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:4">
+      <c r="A2777" t="s">
+        <v>5191</v>
+      </c>
+      <c r="B2777" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C2777" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2777" t="s">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:4">
+      <c r="A2778" t="s">
+        <v>5193</v>
+      </c>
+      <c r="B2778" t="s">
+        <v>5194</v>
+      </c>
+      <c r="C2778" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2778" t="s">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:4">
+      <c r="A2779" t="s">
+        <v>5196</v>
+      </c>
+      <c r="B2779" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C2779" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2779" t="s">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:4">
+      <c r="A2780" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B2780" t="s">
+        <v>5199</v>
+      </c>
+      <c r="C2780" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2780" t="s">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:4">
+      <c r="A2781" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B2781" t="s">
+        <v>4996</v>
+      </c>
+      <c r="C2781" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2781" t="s">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:4">
+      <c r="A2782" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B2782" t="s">
+        <v>5203</v>
+      </c>
+      <c r="C2782" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2782" t="s">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:4">
+      <c r="A2783" t="s">
+        <v>5205</v>
+      </c>
+      <c r="B2783" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C2783" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2783" t="s">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:4">
+      <c r="A2784" t="s">
+        <v>4995</v>
+      </c>
+      <c r="B2784" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C2784" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2784" t="s">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:4">
+      <c r="A2785" t="s">
+        <v>5210</v>
+      </c>
+      <c r="B2785" t="s">
+        <v>4994</v>
+      </c>
+      <c r="C2785" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2785" t="s">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:4">
+      <c r="A2786" t="s">
+        <v>5212</v>
+      </c>
+      <c r="B2786" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2786" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2786" t="s">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:4">
+      <c r="A2787" t="s">
+        <v>5214</v>
+      </c>
+      <c r="B2787" t="s">
+        <v>5215</v>
+      </c>
+      <c r="C2787" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2787" t="s">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:4">
+      <c r="A2788" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B2788" t="s">
+        <v>5217</v>
+      </c>
+      <c r="C2788" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2788" t="s">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:4">
+      <c r="A2789" t="s">
+        <v>5219</v>
+      </c>
+      <c r="B2789" t="s">
+        <v>4992</v>
+      </c>
+      <c r="C2789" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2789" t="s">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:4">
+      <c r="A2790" t="s">
+        <v>5219</v>
+      </c>
+      <c r="B2790" t="s">
+        <v>5221</v>
+      </c>
+      <c r="C2790" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2790" t="s">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:4">
+      <c r="A2791" t="s">
+        <v>5223</v>
+      </c>
+      <c r="B2791" t="s">
+        <v>5224</v>
+      </c>
+      <c r="C2791" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2791" t="s">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:4">
+      <c r="A2792" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B2792" t="s">
+        <v>5224</v>
+      </c>
+      <c r="C2792" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2792" t="s">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:4">
+      <c r="A2793" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B2793" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C2793" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2793" t="s">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:4">
+      <c r="A2794" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B2794" t="s">
+        <v>5229</v>
+      </c>
+      <c r="C2794" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2794" t="s">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:4">
+      <c r="A2795" t="s">
+        <v>5231</v>
+      </c>
+      <c r="B2795" t="s">
+        <v>5232</v>
+      </c>
+      <c r="C2795" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2795" t="s">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:4">
+      <c r="A2796" t="s">
+        <v>4990</v>
+      </c>
+      <c r="B2796" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C2796" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2796" t="s">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:4">
+      <c r="A2797" t="s">
+        <v>5236</v>
+      </c>
+      <c r="B2797" t="s">
+        <v>4989</v>
+      </c>
+      <c r="C2797" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2797" t="s">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:4">
+      <c r="A2798" t="s">
+        <v>5238</v>
+      </c>
+      <c r="B2798" t="s">
+        <v>5239</v>
+      </c>
+      <c r="C2798" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2798" t="s">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:4">
+      <c r="A2799" t="s">
+        <v>5241</v>
+      </c>
+      <c r="B2799" t="s">
+        <v>5242</v>
+      </c>
+      <c r="C2799" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2799" t="s">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:4">
+      <c r="A2800" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B2800" t="s">
+        <v>5244</v>
+      </c>
+      <c r="C2800" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2800" t="s">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:4">
+      <c r="A2801" t="s">
+        <v>5246</v>
+      </c>
+      <c r="B2801" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C2801" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2801" t="s">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:4">
+      <c r="A2802" t="s">
+        <v>5248</v>
+      </c>
+      <c r="B2802" t="s">
+        <v>5249</v>
+      </c>
+      <c r="C2802" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2802" t="s">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:4">
+      <c r="A2803" t="s">
+        <v>5248</v>
+      </c>
+      <c r="B2803" t="s">
+        <v>5249</v>
+      </c>
+      <c r="C2803" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2803" t="s">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:4">
+      <c r="A2804" t="s">
+        <v>4988</v>
+      </c>
+      <c r="B2804" t="s">
+        <v>5252</v>
+      </c>
+      <c r="C2804" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2804" t="s">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:4">
+      <c r="A2805" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B2805" t="s">
+        <v>4987</v>
+      </c>
+      <c r="C2805" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2805" t="s">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:4">
+      <c r="A2806" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B2806" t="s">
+        <v>5256</v>
+      </c>
+      <c r="C2806" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2806" t="s">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:4">
+      <c r="A2807" t="s">
+        <v>5258</v>
+      </c>
+      <c r="B2807" t="s">
+        <v>5259</v>
+      </c>
+      <c r="C2807" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2807" t="s">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:4">
+      <c r="A2808" t="s">
+        <v>4986</v>
+      </c>
+      <c r="B2808" t="s">
+        <v>5259</v>
+      </c>
+      <c r="C2808" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2808" t="s">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:4">
+      <c r="A2809" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B2809" t="s">
+        <v>4985</v>
+      </c>
+      <c r="C2809" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2809" t="s">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:4">
+      <c r="A2810" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B2810" t="s">
+        <v>5264</v>
+      </c>
+      <c r="C2810" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2810" t="s">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:4">
+      <c r="A2811" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B2811" t="s">
+        <v>5267</v>
+      </c>
+      <c r="C2811" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2811" t="s">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:4">
+      <c r="A2812" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B2812" t="s">
+        <v>5269</v>
+      </c>
+      <c r="C2812" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2812" t="s">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:4">
+      <c r="A2813" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B2813" t="s">
+        <v>4983</v>
+      </c>
+      <c r="C2813" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2813" t="s">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:4">
+      <c r="A2814" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B2814" t="s">
+        <v>5274</v>
+      </c>
+      <c r="C2814" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2814" t="s">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:4">
+      <c r="A2815" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B2815" t="s">
+        <v>5274</v>
+      </c>
+      <c r="C2815" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2815" t="s">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:4">
+      <c r="A2816" t="s">
+        <v>4982</v>
+      </c>
+      <c r="B2816" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C2816" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2816" t="s">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:4">
+      <c r="A2817" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B2817" t="s">
+        <v>4981</v>
+      </c>
+      <c r="C2817" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2817" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:4">
+      <c r="A2818" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B2818" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C2818" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2818" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:4">
+      <c r="A2819" t="s">
+        <v>5283</v>
+      </c>
+      <c r="B2819" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C2819" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2819" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:4">
+      <c r="A2820" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B2820" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C2820" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2820" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:4" s="2" customFormat="1">
+      <c r="A2821" t="s">
+        <v>5288</v>
+      </c>
+      <c r="B2821" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C2821" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2821" t="s">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:4" s="2" customFormat="1">
+      <c r="A2822" t="s">
+        <v>5287</v>
+      </c>
+      <c r="B2822" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C2822" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2822" t="s">
+        <v>5291</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1263" xr:uid="{2256DC32-02D8-D349-8B3E-F46775F2E74F}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/人物关系表.xlsx
+++ b/data/人物关系表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/people_relation_extract/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F1308-67BB-5F46-87A1-056875D491AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFD61AD-DDA7-0547-9620-7E017242206A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11286" uniqueCount="5292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11306" uniqueCount="5307">
   <si>
     <t>人物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -19801,12 +19801,146 @@
     <t>我男朋友的前女友们剧情梗概:赵欣欣为了给自己的感情问题找到一个答案，决定从男友齐鹏身上寻找线索。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2019年3月，李彦宏通过内部信公布了百度高管退休计划，张亚勤是申请加入退休计划的第一位高管。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在研究了三年佛学后，蔡志忠又开始挑战物理，台大校长李嗣成先生是他的好朋友，蔡先生有一次碰到他，说自己要学物理，请李先生开出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>个最尖端的问题，然后买了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>本相关书籍自学，一下就闭关了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>年又</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>天。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡志忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此外，阿桑奇的父亲希普顿也发表了演讲。他说，长期监禁损害了儿子的健康，引渡到美国等同于判他死刑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李彦宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张亚勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李嗣成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿桑奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希普顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据美国媒体报道，前著名重量级世界拳王泰森宣布，如果谁能娶走他的女儿米切尔，他将把1000万美金赠给自己未来的女婿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当地时间2月29日，英国首相发言人正式宣布首相约翰逊和女友西蒙兹订婚，女友已怀孕，今夏迎来新生儿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米切尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -20053,6 +20187,18 @@
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -20467,10 +20613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E723F4E-CCCC-CB4F-8E00-CADB81944E23}">
-  <dimension ref="A1:D2822"/>
+  <dimension ref="A1:D2827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2804" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D2824" sqref="D2824"/>
+    <sheetView tabSelected="1" topLeftCell="A2808" zoomScale="140" workbookViewId="0">
+      <selection activeCell="A2825" sqref="A2825:D2827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -59990,6 +60136,76 @@
         <v>5291</v>
       </c>
     </row>
+    <row r="2823" spans="1:4">
+      <c r="A2823" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B2823" t="s">
+        <v>5297</v>
+      </c>
+      <c r="C2823" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2823" t="s">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:4" ht="18">
+      <c r="A2824" t="s">
+        <v>5294</v>
+      </c>
+      <c r="B2824" t="s">
+        <v>5298</v>
+      </c>
+      <c r="C2824" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2824" t="s">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:4">
+      <c r="A2825" t="s">
+        <v>5299</v>
+      </c>
+      <c r="B2825" t="s">
+        <v>5300</v>
+      </c>
+      <c r="C2825" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2825" t="s">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:4">
+      <c r="A2826" t="s">
+        <v>5303</v>
+      </c>
+      <c r="B2826" t="s">
+        <v>5304</v>
+      </c>
+      <c r="C2826" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2826" t="s">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:4">
+      <c r="A2827" t="s">
+        <v>5305</v>
+      </c>
+      <c r="B2827" t="s">
+        <v>5306</v>
+      </c>
+      <c r="C2827" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2827" t="s">
+        <v>5302</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1263" xr:uid="{2256DC32-02D8-D349-8B3E-F46775F2E74F}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/人物关系表.xlsx
+++ b/data/人物关系表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/people_relation_extract/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFD61AD-DDA7-0547-9620-7E017242206A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D8A77E-E30E-394E-B3E5-77702398A6AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11306" uniqueCount="5307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11614" uniqueCount="5404">
   <si>
     <t>人物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -19933,6 +19933,341 @@
   </si>
   <si>
     <t>西蒙兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他浑家包氏，闺名惜弱，便是红梅村私塾中教书先生的女儿，嫁给杨铁心还不到两年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惜弱</t>
+  </si>
+  <si>
+    <t>杨铁心</t>
+  </si>
+  <si>
+    <t>陆无双一呆，她自小得父母爱宠，难得见他如此不理睬自己，小嘴一撅，要待撒娇跟父亲不依，只见男仆阿根匆匆进来，垂手禀道：“少爷，外面来了客人。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆无双</t>
+  </si>
+  <si>
+    <t>阿根</t>
+  </si>
+  <si>
+    <t>两人均想，陆立鼎虽然藉藉无名，他兄长陆展元、何沅君夫妇却是侠名震于江湖，嘉兴陆家庄的名头在武林中向来是无人胆敢小觑的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆立鼎</t>
+  </si>
+  <si>
+    <t>陆展元</t>
+  </si>
+  <si>
+    <t>何沅君</t>
+  </si>
+  <si>
+    <t>武三通当年在大理国功极帝段智兴手下当御林军总管，后来段智兴出家，法名一灯，但武三通与两个孩子说起往事之时，仍是“咱们皇爷怎样怎样”，是以武修文也叫他“咱们皇爷”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武三通</t>
+  </si>
+  <si>
+    <t>段智兴</t>
+  </si>
+  <si>
+    <t>郭靖又几次去接大师父柯镇恶，请他到桃花岛来颐养天年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯镇恶</t>
+  </si>
+  <si>
+    <t>这二人正是郭靖、黄蓉夫妇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄蓉</t>
+  </si>
+  <si>
+    <t>黄蓉是洪七公的弟子，自是深知本门练功的诀窍，一试之下，果然便揭穿了他的真相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪七公</t>
+  </si>
+  <si>
+    <t>当年郭靖之父郭啸天与杨过的祖父杨铁心义结兄弟，两家妻室同时怀孕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭啸天</t>
+  </si>
+  <si>
+    <t>杨过</t>
+  </si>
+  <si>
+    <t>后来两家生下的各为男儿，郭靖与杨过之父杨康如约结为兄弟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨康</t>
+  </si>
+  <si>
+    <t>那道人鹿清笃是王处一的徒孙，适才死里逃生，心中急了，见到杨过就要扑上厮拚，全没理会掌教真人、师祖爷和丘祖师都在身旁，听得王处一这么一喝，才想到自己无礼，登时惊出一身冷汗，低头垂手，说道：“弟子该死。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王处一</t>
+  </si>
+  <si>
+    <t>鹿清笃</t>
+  </si>
+  <si>
+    <t>贫道丘处机率弟子郭靖，敬祝姑娘芳辰。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘处机</t>
+  </si>
+  <si>
+    <t>这日午后，玉阳子门下赵志敬、崔志方等人齐集东南角旷地之上，较武论艺。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉阳子</t>
+  </si>
+  <si>
+    <t>赵志敬</t>
+  </si>
+  <si>
+    <t>崔志方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵志敬是全真教第三代弟子中的第一高手，若论武功造诣，犹在尹志平之上，虽然身受重伤，出势仍是极为猛烈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹志平</t>
+  </si>
+  <si>
+    <t>原来她正是赤练仙子李莫愁的大弟子洪凌波，便是当日去杀陆立鼎满门而被武三娘逐走的小道姑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李莫愁</t>
+  </si>
+  <si>
+    <t>洪凌波</t>
+  </si>
+  <si>
+    <t>那人正是耶律晋的父亲，蒙古国大丞相耶律楚材。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶律晋</t>
+  </si>
+  <si>
+    <t>耶律楚材</t>
+  </si>
+  <si>
+    <t>窝阔台做了十三年大汗逝世，他儿子贵由继位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窝阔台</t>
+  </si>
+  <si>
+    <t>贵由</t>
+  </si>
+  <si>
+    <t>于是耶律楚材带了次子耶律齐、三女耶律燕，径来河南，此行名为宣抚，实为避祸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶律齐</t>
+  </si>
+  <si>
+    <t>耶律燕</t>
+  </si>
+  <si>
+    <t>心想先救了人再说，手中扣着一枚玉蜂针，正要往少女手腕上射去，只听得耶律楚材的女儿耶律燕叫道：“不得无礼！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨过见了双雕红马，早料到马上少女是郭靖、黄蓉的女儿郭芙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭芙</t>
+  </si>
+  <si>
+    <t>陆冠英的夫人程瑶迦是孙不二的弟子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆冠英</t>
+  </si>
+  <si>
+    <t>程瑶迦</t>
+  </si>
+  <si>
+    <t>孙不二</t>
+  </si>
+  <si>
+    <t>那脸削身瘦的藏僧是霍都的师兄达尔巴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍都</t>
+  </si>
+  <si>
+    <t>达尔巴</t>
+  </si>
+  <si>
+    <t>达尔巴见他脸上忽现书卷之气，哪里知他是在模仿唐代诗人白乐天之妾小蛮的舞姿，不禁一呆，金杵当头直击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达尔巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白乐天</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
+    <t>那张丽华是李后主的宠姬，发长七尺，光可鉴人，李后主为她废弃政事而亡国，其媚可知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张丽华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李后主</t>
+  </si>
+  <si>
+    <t>当年黄药师后悔一时意气用事，迁怒无辜，累得弟子曲灵风命丧敌手，因此收养曲灵风这个女儿傻姑，发愿要把一身本事倾囊以授。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲灵风</t>
+  </si>
+  <si>
+    <t>这老铁匠正是黄药师的小弟子冯默风。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯默风</t>
+  </si>
+  <si>
+    <t>杨过道：“公孙谷主之女，公孙绿萼。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙谷主</t>
+  </si>
+  <si>
+    <t>公孙绿萼</t>
+  </si>
+  <si>
+    <t>那年轻道人名叫祁志诚，也是丘处机的弟子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁志诚</t>
+  </si>
+  <si>
+    <t>丘处机的第二弟子李志常取出掌教真人法旨宣读，命尹志平接任掌教。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李志常</t>
+  </si>
+  <si>
+    <t>法王的弟子达尔巴和霍都一直守在师父身旁，眼见师父渐占优势，心中大喜，向前走近几步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众人一听，都感奇怪，想不到耶律齐竟是周伯通的弟子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周伯通</t>
+  </si>
+  <si>
+    <t>郭襄待要说姊夫耶律齐，觉得他武功虽高，终还够不上“大英雄”三字，要说武敦儒、武修文两位师兄罢，那更加谈不上，正自为难，突然灵机一动，说道：“好，又有一位：解困济急，锄强扶弱，众口称扬，神雕大侠！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭襄</t>
+  </si>
+  <si>
+    <t>耶律齐是郭靖、黄蓉的女婿，与丐帮大有渊源，四大长老和众八袋弟子都愿他当上帮主。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭靖、郭芙父女心中说的都是“终于来了”四字，但女儿指的是杨过，父亲心中所指却是“蒙古大军”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙哥虽贵为有史以来最大帝国的大汗，但自幼弓马娴熟，曾跟随祖父成吉思汗、父亲拖雷数次出征，于拔都西征欧洲之役中，他更建立殊勋，毕生长于马背之上、刀枪之中，这时变出非常，却并不慌乱，挽雕弓、搭长箭，双腿紧紧挟住马腹，回身向杨过便是一箭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙哥</t>
+  </si>
+  <si>
+    <t>成吉思汗</t>
+  </si>
+  <si>
+    <t>拖雷</t>
+  </si>
+  <si>
+    <t>陆无双耳边，忽地似乎响起了师父李莫愁细若游丝的歌声：“问世间，情是何物，直教生死相许？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说‘三国’故事的那先生还道：羊祜守襄阳之时，和他对抗的东吴大将是陆逊的儿子陆抗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊祜</t>
+  </si>
+  <si>
+    <t>陆逊</t>
+  </si>
+  <si>
+    <t>陆抗</t>
+  </si>
+  <si>
+    <t>郭芙在父母指点之下修习武功，丈夫耶律齐又是当代高手，日常切磋，比之十余年前自已大有进境，只是她心浮气躁，浅尝即止，不肯痛下苦功钻研，因此父母丈夫都是武学名家，她自己却始终徘徊于二三流之间，这时在史孟捷和大头鬼夹击下已渐渐支持不住，正焦躁间，忽听得妹子呼叫，喝道：“妹妹快来！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这美貌少妇便是郭芙，那少女是她妹妹郭襄，那少男则是郭襄的孪生兄弟郭破虏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭破虏</t>
+  </si>
+  <si>
+    <t>南向而斗的两个女子一是李莫愁，另一个是她弟子洪凌波。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那日黄蓉在林外以兰花拂穴手制住李莫愁，遍寻女儿郭襄不见，自是大为忧急，出得林来，向李莫愁喝问：“你使甚么诡计，将我女儿藏到哪里去啦？”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20613,10 +20948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E723F4E-CCCC-CB4F-8E00-CADB81944E23}">
-  <dimension ref="A1:D2827"/>
+  <dimension ref="A1:D2904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2808" zoomScale="140" workbookViewId="0">
-      <selection activeCell="A2825" sqref="A2825:D2827"/>
+    <sheetView tabSelected="1" topLeftCell="A2878" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D2904" sqref="D2904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -60206,6 +60541,1084 @@
         <v>5302</v>
       </c>
     </row>
+    <row r="2828" spans="1:4">
+      <c r="A2828" t="s">
+        <v>5309</v>
+      </c>
+      <c r="B2828" t="s">
+        <v>5308</v>
+      </c>
+      <c r="C2828" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2828" t="s">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:4">
+      <c r="A2829" t="s">
+        <v>5311</v>
+      </c>
+      <c r="B2829" t="s">
+        <v>5312</v>
+      </c>
+      <c r="C2829" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2829" t="s">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:4">
+      <c r="A2830" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B2830" t="s">
+        <v>5315</v>
+      </c>
+      <c r="C2830" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2830" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:4">
+      <c r="A2831" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B2831" t="s">
+        <v>5316</v>
+      </c>
+      <c r="C2831" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2831" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:4">
+      <c r="A2832" t="s">
+        <v>5315</v>
+      </c>
+      <c r="B2832" t="s">
+        <v>5316</v>
+      </c>
+      <c r="C2832" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2832" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:4">
+      <c r="A2833" t="s">
+        <v>5318</v>
+      </c>
+      <c r="B2833" t="s">
+        <v>5319</v>
+      </c>
+      <c r="C2833" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2833" t="s">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:4">
+      <c r="A2834" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2834" t="s">
+        <v>5321</v>
+      </c>
+      <c r="C2834" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2834" t="s">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:4">
+      <c r="A2835" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2835" t="s">
+        <v>5323</v>
+      </c>
+      <c r="C2835" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2835" t="s">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:4">
+      <c r="A2836" t="s">
+        <v>5323</v>
+      </c>
+      <c r="B2836" t="s">
+        <v>5325</v>
+      </c>
+      <c r="C2836" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2836" t="s">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:4">
+      <c r="A2837" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2837" t="s">
+        <v>5327</v>
+      </c>
+      <c r="C2837" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2837" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:4">
+      <c r="A2838" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2838" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C2838" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2838" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:4">
+      <c r="A2839" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2839" t="s">
+        <v>5309</v>
+      </c>
+      <c r="C2839" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2839" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:4">
+      <c r="A2840" t="s">
+        <v>5327</v>
+      </c>
+      <c r="B2840" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C2840" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2840" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:4">
+      <c r="A2841" t="s">
+        <v>5327</v>
+      </c>
+      <c r="B2841" t="s">
+        <v>5309</v>
+      </c>
+      <c r="C2841" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2841" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:4">
+      <c r="A2842" t="s">
+        <v>5328</v>
+      </c>
+      <c r="B2842" t="s">
+        <v>5309</v>
+      </c>
+      <c r="C2842" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2842" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:4">
+      <c r="A2843" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2843" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C2843" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2843" t="s">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:4">
+      <c r="A2844" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2844" t="s">
+        <v>5330</v>
+      </c>
+      <c r="C2844" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2844" t="s">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:4">
+      <c r="A2845" t="s">
+        <v>5328</v>
+      </c>
+      <c r="B2845" t="s">
+        <v>5330</v>
+      </c>
+      <c r="C2845" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2845" t="s">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:4">
+      <c r="A2846" t="s">
+        <v>5333</v>
+      </c>
+      <c r="B2846" t="s">
+        <v>5332</v>
+      </c>
+      <c r="C2846" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2846" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:4">
+      <c r="A2847" t="s">
+        <v>5333</v>
+      </c>
+      <c r="B2847" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C2847" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2847" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:4">
+      <c r="A2848" t="s">
+        <v>5332</v>
+      </c>
+      <c r="B2848" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C2848" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2848" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:4">
+      <c r="A2849" t="s">
+        <v>5335</v>
+      </c>
+      <c r="B2849" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C2849" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2849" t="s">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:4">
+      <c r="A2850" t="s">
+        <v>5337</v>
+      </c>
+      <c r="B2850" t="s">
+        <v>5338</v>
+      </c>
+      <c r="C2850" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2850" t="s">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:4">
+      <c r="A2851" t="s">
+        <v>5337</v>
+      </c>
+      <c r="B2851" t="s">
+        <v>5339</v>
+      </c>
+      <c r="C2851" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2851" t="s">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:4">
+      <c r="A2852" t="s">
+        <v>5338</v>
+      </c>
+      <c r="B2852" t="s">
+        <v>5339</v>
+      </c>
+      <c r="C2852" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2852" t="s">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:4">
+      <c r="A2853" t="s">
+        <v>5338</v>
+      </c>
+      <c r="B2853" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C2853" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2853" t="s">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:4">
+      <c r="A2854" t="s">
+        <v>5343</v>
+      </c>
+      <c r="B2854" t="s">
+        <v>5344</v>
+      </c>
+      <c r="C2854" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2854" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:4">
+      <c r="A2855" t="s">
+        <v>5346</v>
+      </c>
+      <c r="B2855" t="s">
+        <v>5347</v>
+      </c>
+      <c r="C2855" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2855" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:4">
+      <c r="A2856" t="s">
+        <v>5349</v>
+      </c>
+      <c r="B2856" t="s">
+        <v>5350</v>
+      </c>
+      <c r="C2856" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2856" t="s">
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:4">
+      <c r="A2857" t="s">
+        <v>5347</v>
+      </c>
+      <c r="B2857" t="s">
+        <v>5352</v>
+      </c>
+      <c r="C2857" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2857" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:4">
+      <c r="A2858" t="s">
+        <v>5347</v>
+      </c>
+      <c r="B2858" t="s">
+        <v>5353</v>
+      </c>
+      <c r="C2858" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2858" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:4">
+      <c r="A2859" t="s">
+        <v>5352</v>
+      </c>
+      <c r="B2859" t="s">
+        <v>5353</v>
+      </c>
+      <c r="C2859" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2859" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:4">
+      <c r="A2860" t="s">
+        <v>5347</v>
+      </c>
+      <c r="B2860" t="s">
+        <v>5353</v>
+      </c>
+      <c r="C2860" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2860" t="s">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:4">
+      <c r="A2861" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2861" t="s">
+        <v>5323</v>
+      </c>
+      <c r="C2861" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2861" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:4">
+      <c r="A2862" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2862" t="s">
+        <v>5356</v>
+      </c>
+      <c r="C2862" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2862" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:4">
+      <c r="A2863" t="s">
+        <v>5323</v>
+      </c>
+      <c r="B2863" t="s">
+        <v>5356</v>
+      </c>
+      <c r="C2863" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2863" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:4">
+      <c r="A2864" t="s">
+        <v>5358</v>
+      </c>
+      <c r="B2864" t="s">
+        <v>5359</v>
+      </c>
+      <c r="C2864" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2864" t="s">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:4">
+      <c r="A2865" t="s">
+        <v>5358</v>
+      </c>
+      <c r="B2865" t="s">
+        <v>5360</v>
+      </c>
+      <c r="C2865" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2865" t="s">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:4">
+      <c r="A2866" t="s">
+        <v>5359</v>
+      </c>
+      <c r="B2866" t="s">
+        <v>5360</v>
+      </c>
+      <c r="C2866" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2866" t="s">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:4">
+      <c r="A2867" t="s">
+        <v>5362</v>
+      </c>
+      <c r="B2867" t="s">
+        <v>5363</v>
+      </c>
+      <c r="C2867" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2867" t="s">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:4">
+      <c r="A2868" t="s">
+        <v>5365</v>
+      </c>
+      <c r="B2868" t="s">
+        <v>5366</v>
+      </c>
+      <c r="C2868" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2868" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:4">
+      <c r="A2869" t="s">
+        <v>5365</v>
+      </c>
+      <c r="B2869" t="s">
+        <v>5367</v>
+      </c>
+      <c r="C2869" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2869" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:4">
+      <c r="A2870" t="s">
+        <v>5366</v>
+      </c>
+      <c r="B2870" t="s">
+        <v>5367</v>
+      </c>
+      <c r="C2870" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2870" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:4">
+      <c r="A2871" t="s">
+        <v>5369</v>
+      </c>
+      <c r="B2871" t="s">
+        <v>5370</v>
+      </c>
+      <c r="C2871" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2871" t="s">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:4">
+      <c r="A2872" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B2872" t="s">
+        <v>5372</v>
+      </c>
+      <c r="C2872" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2872" t="s">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:4">
+      <c r="A2873" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B2873" t="s">
+        <v>5374</v>
+      </c>
+      <c r="C2873" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2873" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:4">
+      <c r="A2874" t="s">
+        <v>5328</v>
+      </c>
+      <c r="B2874" t="s">
+        <v>5376</v>
+      </c>
+      <c r="C2874" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2874" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:4">
+      <c r="A2875" t="s">
+        <v>5328</v>
+      </c>
+      <c r="B2875" t="s">
+        <v>5377</v>
+      </c>
+      <c r="C2875" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2875" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:4">
+      <c r="A2876" t="s">
+        <v>5376</v>
+      </c>
+      <c r="B2876" t="s">
+        <v>5377</v>
+      </c>
+      <c r="C2876" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2876" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:4">
+      <c r="A2877" t="s">
+        <v>5379</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>5335</v>
+      </c>
+      <c r="C2877" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2877" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:4">
+      <c r="A2878" t="s">
+        <v>5335</v>
+      </c>
+      <c r="B2878" t="s">
+        <v>5381</v>
+      </c>
+      <c r="C2878" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2878" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:4">
+      <c r="A2879" t="s">
+        <v>5335</v>
+      </c>
+      <c r="B2879" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C2879" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2879" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:4">
+      <c r="A2880" t="s">
+        <v>5381</v>
+      </c>
+      <c r="B2880" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C2880" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2880" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:4">
+      <c r="A2881" t="s">
+        <v>5363</v>
+      </c>
+      <c r="B2881" t="s">
+        <v>5383</v>
+      </c>
+      <c r="C2881" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2881" t="s">
+        <v>5382</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:4">
+      <c r="A2882" t="s">
+        <v>5352</v>
+      </c>
+      <c r="B2882" t="s">
+        <v>5385</v>
+      </c>
+      <c r="C2882" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2882" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:4">
+      <c r="A2883" t="s">
+        <v>5387</v>
+      </c>
+      <c r="B2883" t="s">
+        <v>5352</v>
+      </c>
+      <c r="C2883" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2883" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:4">
+      <c r="A2884" t="s">
+        <v>5352</v>
+      </c>
+      <c r="B2884" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C2884" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2884" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:4">
+      <c r="A2885" t="s">
+        <v>5352</v>
+      </c>
+      <c r="B2885" t="s">
+        <v>5323</v>
+      </c>
+      <c r="C2885" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2885" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:4">
+      <c r="A2886" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2886" t="s">
+        <v>5323</v>
+      </c>
+      <c r="C2886" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2886" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:4">
+      <c r="A2887" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2887" t="s">
+        <v>5356</v>
+      </c>
+      <c r="C2887" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2887" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:4">
+      <c r="A2888" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2888" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C2888" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2888" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:4">
+      <c r="A2889" t="s">
+        <v>5356</v>
+      </c>
+      <c r="B2889" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C2889" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2889" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:4">
+      <c r="A2890" t="s">
+        <v>5391</v>
+      </c>
+      <c r="B2890" t="s">
+        <v>5392</v>
+      </c>
+      <c r="C2890" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2890" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:4">
+      <c r="A2891" t="s">
+        <v>5391</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>5393</v>
+      </c>
+      <c r="C2891" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2891" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:4">
+      <c r="A2892" t="s">
+        <v>5392</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>5393</v>
+      </c>
+      <c r="C2892" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:4">
+      <c r="A2893" t="s">
+        <v>5311</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>5343</v>
+      </c>
+      <c r="C2893" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2893" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:4">
+      <c r="A2894" t="s">
+        <v>5396</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>5397</v>
+      </c>
+      <c r="C2894" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2894" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:4">
+      <c r="A2895" t="s">
+        <v>5396</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>5398</v>
+      </c>
+      <c r="C2895" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2895" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:4">
+      <c r="A2896" t="s">
+        <v>5397</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>5398</v>
+      </c>
+      <c r="C2896" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2896" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:4">
+      <c r="A2897" t="s">
+        <v>5356</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>5352</v>
+      </c>
+      <c r="C2897" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:4">
+      <c r="A2898" t="s">
+        <v>5356</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>5387</v>
+      </c>
+      <c r="C2898" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2898" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:4">
+      <c r="A2899" t="s">
+        <v>5356</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>5401</v>
+      </c>
+      <c r="C2899" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2899" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:4">
+      <c r="A2900" t="s">
+        <v>5387</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>5401</v>
+      </c>
+      <c r="C2900" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2900" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:4">
+      <c r="A2901" t="s">
+        <v>5343</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>5344</v>
+      </c>
+      <c r="C2901" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2901" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:4">
+      <c r="A2902" t="s">
+        <v>5323</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>5387</v>
+      </c>
+      <c r="C2902" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:4">
+      <c r="A2903" t="s">
+        <v>5323</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>5343</v>
+      </c>
+      <c r="C2903" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:4">
+      <c r="A2904" t="s">
+        <v>5387</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>5343</v>
+      </c>
+      <c r="C2904" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2904" t="s">
+        <v>5403</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1263" xr:uid="{2256DC32-02D8-D349-8B3E-F46775F2E74F}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/人物关系表.xlsx
+++ b/data/人物关系表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianmingjie/PycharmProjects/people_relation_extract/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D8A77E-E30E-394E-B3E5-77702398A6AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46799E-AAEA-0A4C-A17A-81A4108702F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{B2D720C9-A6FB-0D44-80E8-91AD78973330}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11614" uniqueCount="5404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11838" uniqueCount="5518">
   <si>
     <t>人物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20270,12 +20270,553 @@
     <t>那日黄蓉在林外以兰花拂穴手制住李莫愁，遍寻女儿郭襄不见，自是大为忧急，出得林来，向李莫愁喝问：“你使甚么诡计，将我女儿藏到哪里去啦？”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>毛楚雄是毛泽覃的遗子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛楚雄</t>
+  </si>
+  <si>
+    <t>毛泽覃</t>
+  </si>
+  <si>
+    <t>3月6日晚，贾静雯发微博为老公修杰楷庆生，她晒出几张老公的照片，其中一张是他面对蛋糕许愿，一张是夫妻两人的合影。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾静雯</t>
+  </si>
+  <si>
+    <t>修杰楷</t>
+  </si>
+  <si>
+    <t>去年年底，蒋梦婕被拍到探班尹正，不久后又被拍到与尹正戴同款帽子一同逛商场、用餐，且举止亲昵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋梦婕</t>
+  </si>
+  <si>
+    <t>尹正</t>
+  </si>
+  <si>
+    <t>而张必先曾是陈友谅的得力干将，他的死让百姓很是心慌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张必先</t>
+  </si>
+  <si>
+    <t>为了杀掉陈理，朱元璋可是没少费心思，然而只是杀掉了陈友谅曾经的一员大将张必先。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈理</t>
+  </si>
+  <si>
+    <t>朱元璋</t>
+  </si>
+  <si>
+    <t>陈友谅虽岁，但是他的二儿子陈理却逃走了，俗话说斩草不除根，必留祸患。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月7日，申军良夫妇与申聪认亲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申军良</t>
+  </si>
+  <si>
+    <t>申聪</t>
+  </si>
+  <si>
+    <t>3月6日，程莉莎在网上晒出与丈夫郭晓东的亲密自拍照，并发文称：“郭先森说，亲爱的，你戴口罩挺好看的！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程莉莎</t>
+  </si>
+  <si>
+    <t>郭晓东</t>
+  </si>
+  <si>
+    <t>北京时间3月8日消息，据香港媒体报导，周润发（发哥）母亲陈丽芳2月13日在睡梦中离世，享年98岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈丽芳</t>
+  </si>
+  <si>
+    <t>周润发的姐姐周聪玲表示2月13日当晚收到工人通知母亲走了，她不觉得突然，始终母亲年事已高，还有些老人病。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周聪玲</t>
+  </si>
+  <si>
+    <t>不过王心凌经纪人否认整形，男友姚元浩也保证她的五官“都是真的”，但表示支持女友整形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王心凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚元浩</t>
+  </si>
+  <si>
+    <t>汪峰曾有两段婚姻，他的第一任妻子是四川主持人齐丹，两人在汪峰成名前就已经相识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004年，已经在北京漂泊了3年的葛荟婕结识了比她大16岁的汪峰，18岁时葛荟婕为汪峰生下一女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三是夏俊峰被执行死刑的当日，夏妻张晶转发一则吁求最高院刀下留人的微博，配图是另一城管执法案的主角崔英杰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏俊峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔英杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李琦嗓音十分具有辨识度，能深情、能Rock，导师阿妹夸赞其快慢歌都能挑战，“磨菇头”形象已深入人心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿妹</t>
+  </si>
+  <si>
+    <t>接下来，毕夏还可能与另一位师兄金志文合作，携手为某汽车品牌代言。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金志文</t>
+  </si>
+  <si>
+    <t>声音乐团，由歌手彭鹏和文智敏组成的内地音乐组合，集演唱实力与创作演奏才华于一身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文智敏</t>
+  </si>
+  <si>
+    <t>据加拿大《星岛日报》报道，到访大温哥华的缅省首位华裔省督李绍麟及妻子刘巾眉，28日晚上接受世界广东同乡会加西分会会长梁立有邀请，在列治文一酒家与10余位友人聚餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李绍麟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘巾眉</t>
+  </si>
+  <si>
+    <t>梁立有</t>
+  </si>
+  <si>
+    <t>徐丽娜</t>
+  </si>
+  <si>
+    <r>
+      <t>徐丽娜是老挝现任副总理宋沙瓦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凌沙瓦的外甥女，她的故事颇富有传奇色彩，她的外公有英国和巴基斯坦的血统，她的外婆则是百分之百的老挝人。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宋沙瓦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>凌沙瓦</t>
+    </r>
+  </si>
+  <si>
+    <t>吴尊为自己曾记错结婚年份而感到抱歉，称自己“并非有意隐瞒”，林丽吟也表示“从来不过结婚纪念日，一直只过在一起的第一天”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴尊</t>
+  </si>
+  <si>
+    <t>林丽吟</t>
+  </si>
+  <si>
+    <t>据台媒，刘真住院抢救一个月，老公辛龙全面停工陪伴妻子，照顾4岁女儿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛龙</t>
+  </si>
+  <si>
+    <t>前段时间网上疯传罗志祥与女友周扬青已经分手，对于这样的传言我们听得多了见得也多了，自然就半信半疑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周扬青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1953年，适逢罗瑞卿的儿子罗峪华俄专毕业，被分配到公安军司令部任翻译。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗瑞卿</t>
+  </si>
+  <si>
+    <t>罗峪华</t>
+  </si>
+  <si>
+    <t>杨广是隋文帝杨坚的第二个儿子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨坚</t>
+  </si>
+  <si>
+    <t>杨广</t>
+  </si>
+  <si>
+    <t>三国时期，魏国有一个名叫卢毓(yù)的人，他是前朝东汉名臣卢植的小儿子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢毓</t>
+  </si>
+  <si>
+    <t>卢植</t>
+  </si>
+  <si>
+    <t>据加拿大CTVNews报道，加总理特鲁多的妻子苏菲的新型冠状病毒检测结果呈阳性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特鲁多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而孙杨的妈妈——杨明，身穿大红针织衫，戴着夸张的首饰来到庭审现场。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙杨</t>
+  </si>
+  <si>
+    <t>杨明</t>
+  </si>
+  <si>
+    <t>据美媒Deadline11日报道，好莱坞影星汤姆·汉克斯及其妻子丽塔·威尔森新冠病毒检测呈阳性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤姆·汉克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽塔·威尔森</t>
+  </si>
+  <si>
+    <t>说到文学史上的父子文豪，国内有“三苏”，西方最著名的则首推大仲马和小仲马了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大仲马</t>
+  </si>
+  <si>
+    <t>小仲马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大夏洛蒂是《简·爱》的作者，二姐艾米莉著有《呼啸山庄》，老三安妮相较而言名气则稍逊一些，代表作有《艾格尼斯·格雷》和《怀尔德菲尔府的房客》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏洛蒂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾米莉</t>
+  </si>
+  <si>
+    <t>安妮</t>
+  </si>
+  <si>
+    <t>冯沅君是冯友兰先生的妹妹，写过《隔绝》《隔绝之后》等，是现代文学史上比较有名的一个女作家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯沅君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言归正传，林觉民是林徽因父亲林长民的堂弟，也就是林徽因的叔叔。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林觉民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林徽因</t>
+  </si>
+  <si>
+    <t>林长民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈从文是我要说的这位黄永玉先生的表叔。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈从文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄永玉</t>
+  </si>
+  <si>
+    <t>作为张一鸣的左膀右臂，字节跳动的商业化负责人，张利东带着光环走上高位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张一鸣</t>
+  </si>
+  <si>
+    <t>张利东</t>
+  </si>
+  <si>
+    <t>朋友潘赫也是工人子弟，跟班宇年纪相仿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘赫</t>
+  </si>
+  <si>
+    <t>班宇</t>
+  </si>
+  <si>
+    <t>同日早晨，赵忠祥的儿子赵方通过赵忠祥的社交媒体账号证实了这一消息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵忠祥</t>
+  </si>
+  <si>
+    <t>赵方</t>
+  </si>
+  <si>
+    <t>有一年暑假，李安参加环岛巡回公演，父子俩吃饭，李升开训：“什么鬼样子，巡演跟跑江湖、耍马戏有什么区别，为什么不好好读书，将来当戏剧教授？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李安</t>
+  </si>
+  <si>
+    <t>李升</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>最近，已经息影数年的奥斯卡影帝尼古拉斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>凯奇与他的新婚韩国妻子艾丽丝将要迎来爱情结晶的降生。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼古拉斯·凯奇</t>
+  </si>
+  <si>
+    <t>艾丽丝</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>月，克林顿曾与前苏联领导人戈尔乔夫和意大利老牌女影星索菲亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>罗兰合作，为俄罗斯民间童话剧《彼得与狼》中的《狼迹》重新配音。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克林顿</t>
+  </si>
+  <si>
+    <t>戈尔乔夫</t>
+  </si>
+  <si>
+    <t>索菲亚·罗兰</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>在妻子苏菲新型冠状病毒检测结果呈阳性后，加拿大总理特鲁多于当地时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>日晚发推回应此事。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特鲁多</t>
+  </si>
+  <si>
+    <t>孙杨的妈妈叫杨明，孙杨的名字后面一个字也是来源于她的名字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="45">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -20535,6 +21076,46 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Menlo-Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Menlo-Regular"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -20558,7 +21139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -20632,6 +21213,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20948,10 +21538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E723F4E-CCCC-CB4F-8E00-CADB81944E23}">
-  <dimension ref="A1:D2904"/>
+  <dimension ref="A1:D2960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2878" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D2904" sqref="D2904"/>
+    <sheetView tabSelected="1" topLeftCell="A2955" zoomScale="140" workbookViewId="0">
+      <selection activeCell="A2960" sqref="A2960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -61619,6 +62209,790 @@
         <v>5403</v>
       </c>
     </row>
+    <row r="2905" spans="1:4">
+      <c r="A2905" t="s">
+        <v>5405</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>5406</v>
+      </c>
+      <c r="C2905" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2905" t="s">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:4">
+      <c r="A2906" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>5409</v>
+      </c>
+      <c r="C2906" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2906" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:4">
+      <c r="A2907" t="s">
+        <v>5411</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>5412</v>
+      </c>
+      <c r="C2907" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2907" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:4">
+      <c r="A2908" t="s">
+        <v>5414</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C2908" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2908" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:4">
+      <c r="A2909" t="s">
+        <v>5416</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>5417</v>
+      </c>
+      <c r="C2909" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2909" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:4">
+      <c r="A2910" t="s">
+        <v>5416</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C2910" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2910" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:4">
+      <c r="A2911" t="s">
+        <v>5416</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>5414</v>
+      </c>
+      <c r="C2911" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2911" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:4">
+      <c r="A2912" t="s">
+        <v>5417</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C2912" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2912" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:4">
+      <c r="A2913" t="s">
+        <v>5417</v>
+      </c>
+      <c r="B2913" t="s">
+        <v>5414</v>
+      </c>
+      <c r="C2913" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2913" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:4">
+      <c r="A2914" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B2914" t="s">
+        <v>5414</v>
+      </c>
+      <c r="C2914" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2914" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:4">
+      <c r="A2915" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B2915" t="s">
+        <v>5416</v>
+      </c>
+      <c r="C2915" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2915" t="s">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:4">
+      <c r="A2916" t="s">
+        <v>5420</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>5421</v>
+      </c>
+      <c r="C2916" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2916" t="s">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:4">
+      <c r="A2917" t="s">
+        <v>5423</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>5424</v>
+      </c>
+      <c r="C2917" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:4">
+      <c r="A2918" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>5426</v>
+      </c>
+      <c r="C2918" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2918" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:4">
+      <c r="A2919" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>5428</v>
+      </c>
+      <c r="C2919" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:4">
+      <c r="A2920" t="s">
+        <v>5430</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>5431</v>
+      </c>
+      <c r="C2920" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:4">
+      <c r="A2921" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C2921" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:4">
+      <c r="A2922" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C2922" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:4">
+      <c r="A2923" t="s">
+        <v>5435</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>5436</v>
+      </c>
+      <c r="C2923" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:4">
+      <c r="A2924" t="s">
+        <v>5435</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>5437</v>
+      </c>
+      <c r="C2924" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:4">
+      <c r="A2925" t="s">
+        <v>5436</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>5437</v>
+      </c>
+      <c r="C2925" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:4">
+      <c r="A2926" t="s">
+        <v>5439</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>5440</v>
+      </c>
+      <c r="C2926" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:4">
+      <c r="A2927" t="s">
+        <v>5442</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>5443</v>
+      </c>
+      <c r="C2927" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:4">
+      <c r="A2928" t="s">
+        <v>5445</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>5446</v>
+      </c>
+      <c r="C2928" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:4">
+      <c r="A2929" t="s">
+        <v>5448</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>5449</v>
+      </c>
+      <c r="C2929" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:4">
+      <c r="A2930" t="s">
+        <v>5448</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>5450</v>
+      </c>
+      <c r="C2930" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:4">
+      <c r="A2931" t="s">
+        <v>5449</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>5450</v>
+      </c>
+      <c r="C2931" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:4" ht="18">
+      <c r="A2932" t="s">
+        <v>5451</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>5453</v>
+      </c>
+      <c r="C2932" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:4">
+      <c r="A2933" t="s">
+        <v>5455</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>5456</v>
+      </c>
+      <c r="C2933" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:4">
+      <c r="A2934" t="s">
+        <v>5458</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>5459</v>
+      </c>
+      <c r="C2934" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:4">
+      <c r="A2935" t="s">
+        <v>5461</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>5462</v>
+      </c>
+      <c r="C2935" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:4">
+      <c r="A2936" t="s">
+        <v>5464</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>5465</v>
+      </c>
+      <c r="C2936" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:4">
+      <c r="A2937" t="s">
+        <v>5468</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>5467</v>
+      </c>
+      <c r="C2937" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>5466</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:4">
+      <c r="A2938" t="s">
+        <v>5470</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>5471</v>
+      </c>
+      <c r="C2938" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>5469</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:4">
+      <c r="A2939" t="s">
+        <v>5473</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C2939" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:4">
+      <c r="A2940" t="s">
+        <v>5475</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>5476</v>
+      </c>
+      <c r="C2940" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:4">
+      <c r="A2941" t="s">
+        <v>5478</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>5479</v>
+      </c>
+      <c r="C2941" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>5477</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:4">
+      <c r="A2942" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C2942" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:4">
+      <c r="A2943" t="s">
+        <v>5484</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>5485</v>
+      </c>
+      <c r="C2943" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:4">
+      <c r="A2944" t="s">
+        <v>5484</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>5486</v>
+      </c>
+      <c r="C2944" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2944" t="s">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:4">
+      <c r="A2945" t="s">
+        <v>5485</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>5486</v>
+      </c>
+      <c r="C2945" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:4">
+      <c r="A2946" t="s">
+        <v>5488</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C2946" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>5487</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:4">
+      <c r="A2947" t="s">
+        <v>5490</v>
+      </c>
+      <c r="B2947" t="s">
+        <v>5491</v>
+      </c>
+      <c r="C2947" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:4">
+      <c r="A2948" t="s">
+        <v>5490</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>5492</v>
+      </c>
+      <c r="C2948" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2948" t="s">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:4">
+      <c r="A2949" t="s">
+        <v>5491</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>5492</v>
+      </c>
+      <c r="C2949" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2949" t="s">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:4">
+      <c r="A2950" t="s">
+        <v>5494</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>5495</v>
+      </c>
+      <c r="C2950" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:4">
+      <c r="A2951" t="s">
+        <v>5497</v>
+      </c>
+      <c r="B2951" t="s">
+        <v>5498</v>
+      </c>
+      <c r="C2951" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:4">
+      <c r="A2952" t="s">
+        <v>5500</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>5501</v>
+      </c>
+      <c r="C2952" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:4">
+      <c r="A2953" t="s">
+        <v>5503</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>5504</v>
+      </c>
+      <c r="C2953" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>5502</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:4">
+      <c r="A2954" t="s">
+        <v>5506</v>
+      </c>
+      <c r="B2954" t="s">
+        <v>5507</v>
+      </c>
+      <c r="C2954" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:4">
+      <c r="A2955" t="s">
+        <v>5509</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>5510</v>
+      </c>
+      <c r="C2955" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2955" s="27" t="s">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:4">
+      <c r="A2956" t="s">
+        <v>5512</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>5513</v>
+      </c>
+      <c r="C2956" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2956" s="28" t="s">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:4">
+      <c r="A2957" t="s">
+        <v>5512</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>5514</v>
+      </c>
+      <c r="C2957" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2957" s="28" t="s">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:4">
+      <c r="A2958" t="s">
+        <v>5513</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>5514</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2958" s="28" t="s">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:4">
+      <c r="A2959" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>5516</v>
+      </c>
+      <c r="C2959" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2959" s="27" t="s">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:4">
+      <c r="A2960" t="s">
+        <v>5475</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5476</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2960" s="29" t="s">
+        <v>5517</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1263" xr:uid="{2256DC32-02D8-D349-8B3E-F46775F2E74F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
